--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A87243-DFC3-4F0A-9C4E-10182E1D9B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2301E5D-0FB3-4341-9596-69170EDAFFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
+    <workbookView xWindow="21480" yWindow="1830" windowWidth="20730" windowHeight="11160" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="332">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -345,6 +345,693 @@
   </si>
   <si>
     <t>THAIS CRISTINA RESENDE SOUZA</t>
+  </si>
+  <si>
+    <t>Ainda nao iniciou a abertura de conta</t>
+  </si>
+  <si>
+    <t>12619968000180</t>
+  </si>
+  <si>
+    <t>MERCOSUL MATERIAIS DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>Ricardo Cirino Mendes Caetano</t>
+  </si>
+  <si>
+    <t>INDICAÇÃO</t>
+  </si>
+  <si>
+    <t>45492401000144</t>
+  </si>
+  <si>
+    <t>D V CANDIDO ENXOVAIS LTDA</t>
+  </si>
+  <si>
+    <t>11888134000107</t>
+  </si>
+  <si>
+    <t>PW SERVICOS DE COBRANCA LTDA</t>
+  </si>
+  <si>
+    <t>PENDÊNCIA DOC</t>
+  </si>
+  <si>
+    <t>47457427000187</t>
+  </si>
+  <si>
+    <t>DENIS SALVATORE SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>64247704000146</t>
+  </si>
+  <si>
+    <t>ROCKS ENGENHARIA LTDA</t>
+  </si>
+  <si>
+    <t>11388233000120</t>
+  </si>
+  <si>
+    <t>INISOL MANUTENCAO INDUSTRIAL LTDA</t>
+  </si>
+  <si>
+    <t>Gabriela Dias Lima Fria</t>
+  </si>
+  <si>
+    <t>28865733000108</t>
+  </si>
+  <si>
+    <t>IVAN MACHADO LOBO LTDA</t>
+  </si>
+  <si>
+    <t>Giovana Vitoria da Silva</t>
+  </si>
+  <si>
+    <t>47624037000154</t>
+  </si>
+  <si>
+    <t>ECOSOL SOLUCOES AMBIENTAIS LTDA</t>
+  </si>
+  <si>
+    <t>36954685000152</t>
+  </si>
+  <si>
+    <t>ROGER ANDRE ALVES DE MOURA</t>
+  </si>
+  <si>
+    <t>18015346000129</t>
+  </si>
+  <si>
+    <t>NILSON FERNANDES DE MACEDO</t>
+  </si>
+  <si>
+    <t>20384264000101</t>
+  </si>
+  <si>
+    <t>NOSSA MARCA COSMETICOS LTDA</t>
+  </si>
+  <si>
+    <t>50435540000176</t>
+  </si>
+  <si>
+    <t>PETROVIX ASFALTOS LTDA</t>
+  </si>
+  <si>
+    <t>31770296000153</t>
+  </si>
+  <si>
+    <t>MOACIR MALASPINA</t>
+  </si>
+  <si>
+    <t>49783270000105</t>
+  </si>
+  <si>
+    <t>D M AURA ZELADORIA PATRIMONIAL LTDA</t>
+  </si>
+  <si>
+    <t>Mariana Gabriela Ferreira Barboza</t>
+  </si>
+  <si>
+    <t>62324396000180</t>
+  </si>
+  <si>
+    <t>THIAGO BATISTA GUEDES LTDA</t>
+  </si>
+  <si>
+    <t>Maria Luisa Ribeiro da Silva</t>
+  </si>
+  <si>
+    <t>48364587000144</t>
+  </si>
+  <si>
+    <t>JURA MAX MARTELINHO DE OURO LTDA</t>
+  </si>
+  <si>
+    <t>05819980000172</t>
+  </si>
+  <si>
+    <t>JOAO RAFAEL ESCUDEIRO INFORMATICA</t>
+  </si>
+  <si>
+    <t>09647194000196</t>
+  </si>
+  <si>
+    <t>FABIANO PEDRAZZI</t>
+  </si>
+  <si>
+    <t>34112133000171</t>
+  </si>
+  <si>
+    <t>DANIELE DA SILVA MACHADO SANT ANA 08520576796</t>
+  </si>
+  <si>
+    <t>42785818000107</t>
+  </si>
+  <si>
+    <t>53670082000148</t>
+  </si>
+  <si>
+    <t>STUDIO 3 TURISMO &amp; EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>23656040000191</t>
+  </si>
+  <si>
+    <t>JK IMOVEIS E ASSESSORIA LTDA</t>
+  </si>
+  <si>
+    <t>22115790000193</t>
+  </si>
+  <si>
+    <t>TENNESSE TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>29037333000177</t>
+  </si>
+  <si>
+    <t>FELIPE SILVA DA COSTA</t>
+  </si>
+  <si>
+    <t>64218120000142</t>
+  </si>
+  <si>
+    <t>D G DE PAULA IMOBILIARIA</t>
+  </si>
+  <si>
+    <t>Stephany Eduarda Pereira</t>
+  </si>
+  <si>
+    <t>44173067000101</t>
+  </si>
+  <si>
+    <t>LENITA PRADO ROUPAS E ACESSORIOS LTDA</t>
+  </si>
+  <si>
+    <t>45142439000197</t>
+  </si>
+  <si>
+    <t>CRISTIANO SILVA VILAS BOAS SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>17487754000110</t>
+  </si>
+  <si>
+    <t>JR EXTRACAO MINERAL</t>
+  </si>
+  <si>
+    <t>64270972000189</t>
+  </si>
+  <si>
+    <t>ENG CIVIL JOAO PAULO BORGES RODRIGUES LTDA</t>
+  </si>
+  <si>
+    <t>49498867000108</t>
+  </si>
+  <si>
+    <t>ANTONIO SOARES DA SILVA JUNIOR AUTOMACAO INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>53532643000142</t>
+  </si>
+  <si>
+    <t>LEONIDAS PASSOS DA SILVA</t>
+  </si>
+  <si>
+    <t>56700708000100</t>
+  </si>
+  <si>
+    <t>D' MARCELO SUPERMERCADO LTDA</t>
+  </si>
+  <si>
+    <t>20539396000157</t>
+  </si>
+  <si>
+    <t>FLEXOMAGIA REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>27298297000170</t>
+  </si>
+  <si>
+    <t>EDGAR APARECIDO TEIXEIRA FILHO</t>
+  </si>
+  <si>
+    <t>44865924000126</t>
+  </si>
+  <si>
+    <t>DROGARIA LACERDA LTDA</t>
+  </si>
+  <si>
+    <t>32618296000103</t>
+  </si>
+  <si>
+    <t>32.618.296 EDILSON FERREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>31230802000111</t>
+  </si>
+  <si>
+    <t>A F M DA SILVA SERVICOS</t>
+  </si>
+  <si>
+    <t>40180074000171</t>
+  </si>
+  <si>
+    <t>CAROLINA BRAGA MOURA SERVS LTDA</t>
+  </si>
+  <si>
+    <t>35595914000127</t>
+  </si>
+  <si>
+    <t>CALEIDO COMERCIAL IMPORTADORA E EXPORTADORA LTDA</t>
+  </si>
+  <si>
+    <t>30162182000168</t>
+  </si>
+  <si>
+    <t>OFICIAL COMERCIO E SERVICO LTDA</t>
+  </si>
+  <si>
+    <t>43945733000101</t>
+  </si>
+  <si>
+    <t>ALSOROVALE SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>47228405000145</t>
+  </si>
+  <si>
+    <t>FRM MULTIMARCAS LTDA</t>
+  </si>
+  <si>
+    <t>33742866000127</t>
+  </si>
+  <si>
+    <t>AUGUSTO CESAR PINTO DE CARVALHO</t>
+  </si>
+  <si>
+    <t>74169897000118</t>
+  </si>
+  <si>
+    <t>GERTEC ENGENHARIA E SOLUCOES INDUSTRIAIS LTDA</t>
+  </si>
+  <si>
+    <t>04490423000198</t>
+  </si>
+  <si>
+    <t>SAUDE &amp; ESTETICA CINTIA PAIM BATISTA LTDA</t>
+  </si>
+  <si>
+    <t>50835184000188</t>
+  </si>
+  <si>
+    <t>JMM TRANSPORTES E DISTRIBUICAO LTDA</t>
+  </si>
+  <si>
+    <t>07572152000108</t>
+  </si>
+  <si>
+    <t>LAIRATUR LOCACAO, FRETAMENTO E TURISMO LTDA</t>
+  </si>
+  <si>
+    <t>46985770000131</t>
+  </si>
+  <si>
+    <t>GLADIUS COMBAT CENTRO DE TREINAMENTO ESPECIALIZADO LTDA</t>
+  </si>
+  <si>
+    <t>08093253000169</t>
+  </si>
+  <si>
+    <t>CENTRO AUTOMOTIVO E. R. LTDA</t>
+  </si>
+  <si>
+    <t>21375147000136</t>
+  </si>
+  <si>
+    <t>C FRANCIMAR VIEIRA FEITOSA LTDA</t>
+  </si>
+  <si>
+    <t>63847361000198</t>
+  </si>
+  <si>
+    <t>KOMBINIERTE REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>49413179000106</t>
+  </si>
+  <si>
+    <t>LAURA FERREIRA DE CAMPOS</t>
+  </si>
+  <si>
+    <t>Jhonatan Vinicius de Paula Alonso</t>
+  </si>
+  <si>
+    <t>21827303000152</t>
+  </si>
+  <si>
+    <t>JPS AUTOMOCAO LTDA</t>
+  </si>
+  <si>
+    <t>22899236000144</t>
+  </si>
+  <si>
+    <t>FERNANDO RIBEIRO DOS SANTOS LTDA</t>
+  </si>
+  <si>
+    <t>CARIMBADA</t>
+  </si>
+  <si>
+    <t>26141109000132</t>
+  </si>
+  <si>
+    <t>40270893000100</t>
+  </si>
+  <si>
+    <t>CLINICA ASSISTENCIAL FORTALECER LTDA</t>
+  </si>
+  <si>
+    <t>58709096000141</t>
+  </si>
+  <si>
+    <t>A R DA SILVA ANDAIMES LTDA</t>
+  </si>
+  <si>
+    <t>10997554000169</t>
+  </si>
+  <si>
+    <t>CONSTRUTORA ANDRADE ROCHA EMPREENDIMENTOS INCORPORACAO IMOBILIARIA LTDA</t>
+  </si>
+  <si>
+    <t>21272666000179</t>
+  </si>
+  <si>
+    <t>R L S MELLO TRANSPORTES</t>
+  </si>
+  <si>
+    <t>55600604000160</t>
+  </si>
+  <si>
+    <t>CMMC EMPREENDIMENTOS IMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>11487206000104</t>
+  </si>
+  <si>
+    <t>MONTE CRISTO SERVICOS DE ALVENARIA LTDA</t>
+  </si>
+  <si>
+    <t>12319753000143</t>
+  </si>
+  <si>
+    <t>SURFDOOR REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>53172088000195</t>
+  </si>
+  <si>
+    <t>BIROSKA BAR E RESTAURANTE RIO DAS OSTRAS LTDA</t>
+  </si>
+  <si>
+    <t>03143114000189</t>
+  </si>
+  <si>
+    <t>D. L. PROPAGANDA E EVENTOS LTDA.</t>
+  </si>
+  <si>
+    <t>14003567000126</t>
+  </si>
+  <si>
+    <t>LOJAS MIL CALCADOS E CONFECCOES LTDA</t>
+  </si>
+  <si>
+    <t>17056426000160</t>
+  </si>
+  <si>
+    <t>RAIMUNDO VIEIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Thayssa Gasparoto Trabuco</t>
+  </si>
+  <si>
+    <t>27076508000120</t>
+  </si>
+  <si>
+    <t>27.076.508 JONATHAN DE MAIO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>39346296000132</t>
+  </si>
+  <si>
+    <t>FLAVIA LOUZADA COSENDEY GOMES</t>
+  </si>
+  <si>
+    <t>63932643000193</t>
+  </si>
+  <si>
+    <t>SUBFLEX TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>50214674000167</t>
+  </si>
+  <si>
+    <t>RB MULTIMARCAS LTDA</t>
+  </si>
+  <si>
+    <t>33007314000175</t>
+  </si>
+  <si>
+    <t>EDSON CLAIR MACHADO SANTOS</t>
+  </si>
+  <si>
+    <t>40011733000146</t>
+  </si>
+  <si>
+    <t>SW EMPREITEIRA LTDA</t>
+  </si>
+  <si>
+    <t>20160334000130</t>
+  </si>
+  <si>
+    <t>D.P. TRABALHOS EM ALTURA LTDA</t>
+  </si>
+  <si>
+    <t>20427818000100</t>
+  </si>
+  <si>
+    <t>ANDREA GOMES DE CARVALHO</t>
+  </si>
+  <si>
+    <t>35861653000140</t>
+  </si>
+  <si>
+    <t>CLEMILTON FERREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>63935870000172</t>
+  </si>
+  <si>
+    <t>CIRILO MR LTDA</t>
+  </si>
+  <si>
+    <t>37793901000198</t>
+  </si>
+  <si>
+    <t>SP MERCANTIL LTDA</t>
+  </si>
+  <si>
+    <t>64017238000102</t>
+  </si>
+  <si>
+    <t>LED PERFORMANCE SERVICOS AUTOMOTIVOS LTDA</t>
+  </si>
+  <si>
+    <t>63911043000149</t>
+  </si>
+  <si>
+    <t>SOUZA &amp; RIBEIRO TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>42815362000180</t>
+  </si>
+  <si>
+    <t>W A CAR OFICINA DE REPARACAO AUTOMOTIVA LTDA</t>
+  </si>
+  <si>
+    <t>64037511000160</t>
+  </si>
+  <si>
+    <t>MATEUS DE ARAUJO ALBUQUERQUE LTDA</t>
+  </si>
+  <si>
+    <t>64012635000191</t>
+  </si>
+  <si>
+    <t>MERCEARIA DO FERA LTDA</t>
+  </si>
+  <si>
+    <t>64020180000156</t>
+  </si>
+  <si>
+    <t>CARLOS JUNIOR SOLUCAO DE GESSO E DRYWALL LTDA</t>
+  </si>
+  <si>
+    <t>39815239000155</t>
+  </si>
+  <si>
+    <t>MIX MATERIAS DE CONSTRUCAO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>64026114000193</t>
+  </si>
+  <si>
+    <t>EXTINPORTO COMBATE INCENDIO LTDA</t>
+  </si>
+  <si>
+    <t>13013290000150</t>
+  </si>
+  <si>
+    <t>DAMARIS DESENTUPIDORA LTDA</t>
+  </si>
+  <si>
+    <t>53175168000102</t>
+  </si>
+  <si>
+    <t>ANA EGLE GONCALVES LTDA</t>
+  </si>
+  <si>
+    <t>19117917000107</t>
+  </si>
+  <si>
+    <t>FURGOES CUIABA LTDA</t>
+  </si>
+  <si>
+    <t>44828030000166</t>
+  </si>
+  <si>
+    <t>ELIANE FERNANDES ESTETICA AVANCADA E ODONTOLOGIA LTDA</t>
+  </si>
+  <si>
+    <t>61893620000191</t>
+  </si>
+  <si>
+    <t>M S ENXOVAIS LTDA</t>
+  </si>
+  <si>
+    <t>63897708000107</t>
+  </si>
+  <si>
+    <t>AP MARTINS VENDAS LTDA</t>
+  </si>
+  <si>
+    <t>32103056000168</t>
+  </si>
+  <si>
+    <t>NATANAEL FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>45091636000124</t>
+  </si>
+  <si>
+    <t>LINDAY ATELIER DE CALCADOS LTDA</t>
+  </si>
+  <si>
+    <t>27109367000102</t>
+  </si>
+  <si>
+    <t>CRISTIANA PEREIRA MACEDO</t>
+  </si>
+  <si>
+    <t>35900717000174</t>
+  </si>
+  <si>
+    <t>35.900.717 LEANDRO DE ARAUJO SA</t>
+  </si>
+  <si>
+    <t>64005837000106</t>
+  </si>
+  <si>
+    <t>NAHRA IMPORTS LTDA</t>
+  </si>
+  <si>
+    <t>38207614000111</t>
+  </si>
+  <si>
+    <t>FABIO ALEXANDRE FELIZARDO TRANSPORTES</t>
+  </si>
+  <si>
+    <t>63963538000111</t>
+  </si>
+  <si>
+    <t>ASAFE DECOR TRES CORACOES LTDA</t>
+  </si>
+  <si>
+    <t>55238995000115</t>
+  </si>
+  <si>
+    <t>ROSA MARIA SOUZA MOTA LTDA</t>
+  </si>
+  <si>
+    <t>10574893000132</t>
+  </si>
+  <si>
+    <t>ONFLY INTERNET LTDA</t>
+  </si>
+  <si>
+    <t>49595213000100</t>
+  </si>
+  <si>
+    <t>TATI RAQUEL PIRES LTDA</t>
+  </si>
+  <si>
+    <t>62247207000112</t>
+  </si>
+  <si>
+    <t>CINTIA PEREIRA MACHADO LTDA</t>
+  </si>
+  <si>
+    <t>36908102000157</t>
+  </si>
+  <si>
+    <t>OLIVEIRA PECAS E SERVICOS AUTOMOTIVOS LTDA</t>
+  </si>
+  <si>
+    <t>30493626000148</t>
+  </si>
+  <si>
+    <t>30.493.626 MARIA GORETH DA SILVA</t>
+  </si>
+  <si>
+    <t>08640986000176</t>
+  </si>
+  <si>
+    <t>ALEX NICHIMURA PIRES</t>
+  </si>
+  <si>
+    <t>36143135000153</t>
+  </si>
+  <si>
+    <t>MIOTTI MANUTENCOES SOLUCOES EM MANUTENCAO DE MAQUINAS PARA A CONSTRUCAO CIVIL LTDA</t>
+  </si>
+  <si>
+    <t>34173154000105</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLEBER MONTEIRO DA COSTA</t>
+  </si>
+  <si>
+    <t>26926377000160</t>
+  </si>
+  <si>
+    <t>CRISTIANE DE OLIVEIRA MIEZA</t>
+  </si>
+  <si>
+    <t>23606211000178</t>
+  </si>
+  <si>
+    <t>LEMV EMPREENDIMENTOS IMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>Procuracao com poderes de abrir e movimentar conta corrente junto a instituicoes financeiras com mandato vigente e devidamente assinada&lt;br&gt;&lt;br&gt;Contrato Social atualizado e registrado no orgao competente</t>
   </si>
 </sst>
 </file>
@@ -718,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
   <dimension ref="A1:G1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1135,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1158,7 +1845,7 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1181,7 +1868,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1227,7 +1914,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1250,7 +1937,7 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1551,6 +2238,9 @@
       <c r="F36" t="s">
         <v>9</v>
       </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -1571,6 +2261,9 @@
       <c r="F37" t="s">
         <v>9</v>
       </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1591,371 +2284,2554 @@
       <c r="F38" t="s">
         <v>9</v>
       </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B66" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B70" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B74" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B75" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B78" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B79" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" t="s">
+        <v>48</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B83" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B84" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" t="s">
+        <v>202</v>
+      </c>
+      <c r="D84" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B85" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B87" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B88" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B89" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B90" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>103</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B91" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B92" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" t="s">
+        <v>215</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>220</v>
+      </c>
+      <c r="G92" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C93" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B94" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" t="s">
+        <v>223</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B95" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" t="s">
+        <v>140</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B96" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" t="s">
+        <v>160</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B97" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B98" t="s">
+        <v>230</v>
+      </c>
+      <c r="C98" t="s">
+        <v>231</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" t="s">
+        <v>233</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B100" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" t="s">
+        <v>235</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B101" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" t="s">
+        <v>237</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" t="s">
+        <v>239</v>
+      </c>
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B103" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" t="s">
+        <v>241</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B104" t="s">
+        <v>242</v>
+      </c>
+      <c r="C104" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" t="s">
+        <v>244</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B105" t="s">
+        <v>245</v>
+      </c>
+      <c r="C105" t="s">
+        <v>246</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B106" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" t="s">
+        <v>248</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B107" t="s">
+        <v>249</v>
+      </c>
+      <c r="C107" t="s">
+        <v>250</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B108" t="s">
+        <v>251</v>
+      </c>
+      <c r="C108" t="s">
+        <v>252</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B109" t="s">
+        <v>253</v>
+      </c>
+      <c r="C109" t="s">
+        <v>254</v>
+      </c>
+      <c r="D109" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B110" t="s">
+        <v>255</v>
+      </c>
+      <c r="C110" t="s">
+        <v>256</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B111" t="s">
+        <v>257</v>
+      </c>
+      <c r="C111" t="s">
+        <v>258</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>103</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B112" t="s">
+        <v>259</v>
+      </c>
+      <c r="C112" t="s">
+        <v>260</v>
+      </c>
+      <c r="D112" t="s">
+        <v>160</v>
+      </c>
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B113" t="s">
+        <v>261</v>
+      </c>
+      <c r="C113" t="s">
+        <v>262</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B114" t="s">
+        <v>263</v>
+      </c>
+      <c r="C114" t="s">
+        <v>264</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B115" t="s">
+        <v>265</v>
+      </c>
+      <c r="C115" t="s">
+        <v>266</v>
+      </c>
+      <c r="D115" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B116" t="s">
+        <v>267</v>
+      </c>
+      <c r="C116" t="s">
+        <v>268</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B117" t="s">
+        <v>269</v>
+      </c>
+      <c r="C117" t="s">
+        <v>270</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B118" t="s">
+        <v>271</v>
+      </c>
+      <c r="C118" t="s">
+        <v>272</v>
+      </c>
+      <c r="D118" t="s">
+        <v>122</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B119" t="s">
+        <v>273</v>
+      </c>
+      <c r="C119" t="s">
+        <v>274</v>
+      </c>
+      <c r="D119" t="s">
+        <v>140</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B120" t="s">
+        <v>275</v>
+      </c>
+      <c r="C120" t="s">
+        <v>276</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B121" t="s">
+        <v>277</v>
+      </c>
+      <c r="C121" t="s">
+        <v>278</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B122" t="s">
+        <v>279</v>
+      </c>
+      <c r="C122" t="s">
+        <v>280</v>
+      </c>
+      <c r="D122" t="s">
+        <v>140</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B123" t="s">
+        <v>281</v>
+      </c>
+      <c r="C123" t="s">
+        <v>282</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B124" t="s">
+        <v>283</v>
+      </c>
+      <c r="C124" t="s">
+        <v>284</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B125" t="s">
+        <v>285</v>
+      </c>
+      <c r="C125" t="s">
+        <v>286</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B126" t="s">
+        <v>287</v>
+      </c>
+      <c r="C126" t="s">
+        <v>288</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B127" t="s">
+        <v>289</v>
+      </c>
+      <c r="C127" t="s">
+        <v>290</v>
+      </c>
+      <c r="D127" t="s">
+        <v>48</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B128" t="s">
+        <v>291</v>
+      </c>
+      <c r="C128" t="s">
+        <v>292</v>
+      </c>
+      <c r="D128" t="s">
+        <v>140</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B129" t="s">
+        <v>293</v>
+      </c>
+      <c r="C129" t="s">
+        <v>294</v>
+      </c>
+      <c r="D129" t="s">
+        <v>48</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>25</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B130" t="s">
+        <v>295</v>
+      </c>
+      <c r="C130" t="s">
+        <v>296</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B131" t="s">
+        <v>297</v>
+      </c>
+      <c r="C131" t="s">
+        <v>298</v>
+      </c>
+      <c r="D131" t="s">
+        <v>160</v>
+      </c>
+      <c r="E131" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B132" t="s">
+        <v>299</v>
+      </c>
+      <c r="C132" t="s">
+        <v>300</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B133" t="s">
+        <v>301</v>
+      </c>
+      <c r="C133" t="s">
+        <v>302</v>
+      </c>
+      <c r="D133" t="s">
+        <v>244</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B134" t="s">
+        <v>303</v>
+      </c>
+      <c r="C134" t="s">
+        <v>304</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B135" t="s">
+        <v>305</v>
+      </c>
+      <c r="C135" t="s">
+        <v>306</v>
+      </c>
+      <c r="D135" t="s">
+        <v>244</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B136" t="s">
+        <v>307</v>
+      </c>
+      <c r="C136" t="s">
+        <v>308</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B137" t="s">
+        <v>309</v>
+      </c>
+      <c r="C137" t="s">
+        <v>310</v>
+      </c>
+      <c r="D137" t="s">
+        <v>122</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B138" t="s">
+        <v>311</v>
+      </c>
+      <c r="C138" t="s">
+        <v>312</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B139" t="s">
+        <v>313</v>
+      </c>
+      <c r="C139" t="s">
+        <v>314</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B140" t="s">
+        <v>315</v>
+      </c>
+      <c r="C140" t="s">
+        <v>316</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B141" t="s">
+        <v>317</v>
+      </c>
+      <c r="C141" t="s">
+        <v>318</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B142" t="s">
+        <v>319</v>
+      </c>
+      <c r="C142" t="s">
+        <v>320</v>
+      </c>
+      <c r="D142" t="s">
+        <v>140</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B143" t="s">
+        <v>321</v>
+      </c>
+      <c r="C143" t="s">
+        <v>322</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B144" t="s">
+        <v>323</v>
+      </c>
+      <c r="C144" t="s">
+        <v>324</v>
+      </c>
+      <c r="D144" t="s">
+        <v>48</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B145" t="s">
+        <v>325</v>
+      </c>
+      <c r="C145" t="s">
+        <v>326</v>
+      </c>
+      <c r="D145" t="s">
+        <v>140</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B146" t="s">
+        <v>327</v>
+      </c>
+      <c r="C146" t="s">
+        <v>328</v>
+      </c>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B147" t="s">
+        <v>329</v>
+      </c>
+      <c r="C147" t="s">
+        <v>330</v>
+      </c>
+      <c r="D147" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">

--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2301E5D-0FB3-4341-9596-69170EDAFFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E120352-1C4B-4879-B7D8-58E05E4B9665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="1830" windowWidth="20730" windowHeight="11160" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="570">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -53,9 +53,6 @@
     <t>ORIGEM</t>
   </si>
   <si>
-    <t>STATUS_ABERTURA</t>
-  </si>
-  <si>
     <t>PENDENCIAS</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>REPESCAGEM</t>
   </si>
   <si>
-    <t>APROVADA</t>
-  </si>
-  <si>
     <t>URA</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>Felipe Arantes Martelo</t>
   </si>
   <si>
-    <t>REPROVADA</t>
-  </si>
-  <si>
     <t>Sophia Bagagi Pigente</t>
   </si>
   <si>
@@ -113,9 +104,6 @@
     <t>REPESCAGEM URA</t>
   </si>
   <si>
-    <t>ANÁLISE</t>
-  </si>
-  <si>
     <t>Alice de Paiva Teixeira</t>
   </si>
   <si>
@@ -347,9 +335,6 @@
     <t>THAIS CRISTINA RESENDE SOUZA</t>
   </si>
   <si>
-    <t>Ainda nao iniciou a abertura de conta</t>
-  </si>
-  <si>
     <t>12619968000180</t>
   </si>
   <si>
@@ -374,9 +359,6 @@
     <t>PW SERVICOS DE COBRANCA LTDA</t>
   </si>
   <si>
-    <t>PENDÊNCIA DOC</t>
-  </si>
-  <si>
     <t>47457427000187</t>
   </si>
   <si>
@@ -698,9 +680,6 @@
     <t>FERNANDO RIBEIRO DOS SANTOS LTDA</t>
   </si>
   <si>
-    <t>CARIMBADA</t>
-  </si>
-  <si>
     <t>26141109000132</t>
   </si>
   <si>
@@ -1032,6 +1011,741 @@
   </si>
   <si>
     <t>Procuracao com poderes de abrir e movimentar conta corrente junto a instituicoes financeiras com mandato vigente e devidamente assinada&lt;br&gt;&lt;br&gt;Contrato Social atualizado e registrado no orgao competente</t>
+  </si>
+  <si>
+    <t>34.173.154 CLEBER MONTEIRO DA COSTA</t>
+  </si>
+  <si>
+    <t>27773231000194</t>
+  </si>
+  <si>
+    <t>JULIO CESAR MONTEIRO SANTOS</t>
+  </si>
+  <si>
+    <t>64270688000102</t>
+  </si>
+  <si>
+    <t>ANDREZA BARBOSA S G DE JESUS SILVA SERVICOS MEDICOS</t>
+  </si>
+  <si>
+    <t>29085676000107</t>
+  </si>
+  <si>
+    <t>MECANICA PESADA LTDA</t>
+  </si>
+  <si>
+    <t>62739376000170</t>
+  </si>
+  <si>
+    <t>ALLCOMP COMPONENTES LTDA</t>
+  </si>
+  <si>
+    <t>62789263000189</t>
+  </si>
+  <si>
+    <t>BH DOS SANTOS ARAUJO MOBILIDADE ELETRICA LTDA</t>
+  </si>
+  <si>
+    <t>37900884000140</t>
+  </si>
+  <si>
+    <t>BLUE MOTORS RACING LTDA</t>
+  </si>
+  <si>
+    <t>36191627000114</t>
+  </si>
+  <si>
+    <t>36.191.627 MAYARA DE OLIVEIRA CRUZ</t>
+  </si>
+  <si>
+    <t>Tauani Santos de Andrade</t>
+  </si>
+  <si>
+    <t>37751927000173</t>
+  </si>
+  <si>
+    <t>MARIA EDUARDA BERNARDINO DA SILVA</t>
+  </si>
+  <si>
+    <t>62656899000152</t>
+  </si>
+  <si>
+    <t>TOPCRED INVESTIMENTOS A.A LTDA</t>
+  </si>
+  <si>
+    <t>62251471000120</t>
+  </si>
+  <si>
+    <t>CARTOLA SOLUCOES CRIATIVAS LTDA</t>
+  </si>
+  <si>
+    <t>62908011000121</t>
+  </si>
+  <si>
+    <t>AM ODONTOLOGIA &amp; ESTETICA DRA ALESSANDRA MITSUNAGA LTDA</t>
+  </si>
+  <si>
+    <t>00258177000192</t>
+  </si>
+  <si>
+    <t>WALTER LUIZ DOS SANTOS SOUZA</t>
+  </si>
+  <si>
+    <t>37642367000119</t>
+  </si>
+  <si>
+    <t>JOSILENE APARECIDA CARNIELLI</t>
+  </si>
+  <si>
+    <t>59420436000182</t>
+  </si>
+  <si>
+    <t>EMPIMAX COMERCIO DE MAQUINAS LTDA</t>
+  </si>
+  <si>
+    <t>36543768000159</t>
+  </si>
+  <si>
+    <t>FERNANDO JOSE FAGUNDES</t>
+  </si>
+  <si>
+    <t>39799884000121</t>
+  </si>
+  <si>
+    <t>LETTICYA LUCHESY VIEIRA DE PAULA</t>
+  </si>
+  <si>
+    <t>04874288000184</t>
+  </si>
+  <si>
+    <t>ABC CAVALO MESTICO LTDA</t>
+  </si>
+  <si>
+    <t>37192943000173</t>
+  </si>
+  <si>
+    <t>CLAUDEANE MARTINS XIMENES</t>
+  </si>
+  <si>
+    <t>39381692000109</t>
+  </si>
+  <si>
+    <t>FLAVIO ALVES DE MELO</t>
+  </si>
+  <si>
+    <t>54230265000105</t>
+  </si>
+  <si>
+    <t>PRIMEIRAS DESCOBERTAS LTDA</t>
+  </si>
+  <si>
+    <t>38336220000163</t>
+  </si>
+  <si>
+    <t>LUCIANO DE LIMA CAMPOS</t>
+  </si>
+  <si>
+    <t>39863018000152</t>
+  </si>
+  <si>
+    <t>MARCOS ROBERTO DE SOUZA TRANSPORTES</t>
+  </si>
+  <si>
+    <t>63130250000166</t>
+  </si>
+  <si>
+    <t>YNGRIDE GOMES SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>19193448000105</t>
+  </si>
+  <si>
+    <t>MARCIO JOSE RODRIGUES</t>
+  </si>
+  <si>
+    <t>41533645000177</t>
+  </si>
+  <si>
+    <t>REJUNTE DESIGN E EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>64292296000144</t>
+  </si>
+  <si>
+    <t>GISELE MARIA BASTOS GUIMARAES</t>
+  </si>
+  <si>
+    <t>10491817000163</t>
+  </si>
+  <si>
+    <t>DUTRA - SOLUCOES INTEGRADAS LTDA</t>
+  </si>
+  <si>
+    <t>39934309000194</t>
+  </si>
+  <si>
+    <t>GISELLA MARTINS MAIA</t>
+  </si>
+  <si>
+    <t>29770230000111</t>
+  </si>
+  <si>
+    <t>CRISTIANO DOS SANTOS FERNANDES</t>
+  </si>
+  <si>
+    <t>36480876000120</t>
+  </si>
+  <si>
+    <t>AGORA REGULADORA DE SINISTROS LTDA</t>
+  </si>
+  <si>
+    <t>07168627000103</t>
+  </si>
+  <si>
+    <t>DANIEL LAURENTI NETO</t>
+  </si>
+  <si>
+    <t>36911228000180</t>
+  </si>
+  <si>
+    <t>36.911.228 ALEX PALENCIO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>36330597000180</t>
+  </si>
+  <si>
+    <t>EDILSON FERRARI BELATO</t>
+  </si>
+  <si>
+    <t>37557286000110</t>
+  </si>
+  <si>
+    <t>AFRANIO DE OLIVEIRA MARQUES</t>
+  </si>
+  <si>
+    <t>24834803000100</t>
+  </si>
+  <si>
+    <t>G C GIBERTI ESCOLA JUDO</t>
+  </si>
+  <si>
+    <t>09499785000163</t>
+  </si>
+  <si>
+    <t>REAL PINTURAS COMERCIO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>60054128000160</t>
+  </si>
+  <si>
+    <t>LAR DO IDOSO GRACA E PAZ</t>
+  </si>
+  <si>
+    <t>62399125000193</t>
+  </si>
+  <si>
+    <t>LADY BIJU LTDA</t>
+  </si>
+  <si>
+    <t>40086321000175</t>
+  </si>
+  <si>
+    <t>GABRIEL COSTA CARDOSO</t>
+  </si>
+  <si>
+    <t>58227446000133</t>
+  </si>
+  <si>
+    <t>JUNQUEIRA ASSESSORIA E CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>62387827000157</t>
+  </si>
+  <si>
+    <t>LIA MARCIA SCHUINDT GIGLIO SILVA LTDA</t>
+  </si>
+  <si>
+    <t>64312709000105</t>
+  </si>
+  <si>
+    <t>KRVERSE LTDA</t>
+  </si>
+  <si>
+    <t>64290981000131</t>
+  </si>
+  <si>
+    <t>A. GOMES RODRIGUES</t>
+  </si>
+  <si>
+    <t>58033129000267</t>
+  </si>
+  <si>
+    <t>ANDERSON SANTOS ARAUJO</t>
+  </si>
+  <si>
+    <t>37248112000176</t>
+  </si>
+  <si>
+    <t>FLAVIA VITORIA PEREIRA SALGADO</t>
+  </si>
+  <si>
+    <t>63618317000106</t>
+  </si>
+  <si>
+    <t>MAPLE DREAMS LTDA</t>
+  </si>
+  <si>
+    <t>64013827000112</t>
+  </si>
+  <si>
+    <t>J LIMA DE AGUIAR APOIO ADMINISTRATIVO E DESENVOLVIMENTO HUMANO LTDA</t>
+  </si>
+  <si>
+    <t>40105506000180</t>
+  </si>
+  <si>
+    <t>FABIOLA DE SOUZA REIS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>39545555000154</t>
+  </si>
+  <si>
+    <t>LUCIA DA ROCHA COSTA NASCIMENTO</t>
+  </si>
+  <si>
+    <t>36316086000103</t>
+  </si>
+  <si>
+    <t>MARINA DE ALMEIDA SILVA</t>
+  </si>
+  <si>
+    <t>37198711000122</t>
+  </si>
+  <si>
+    <t>JOSE MARCELO MAIA</t>
+  </si>
+  <si>
+    <t>64001623000161</t>
+  </si>
+  <si>
+    <t>GC PRIME COMERCIO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>57274830000124</t>
+  </si>
+  <si>
+    <t>LIDIANE GONCALVES BEZERRA LTDA</t>
+  </si>
+  <si>
+    <t>38010737000168</t>
+  </si>
+  <si>
+    <t>GUILHERME PALES CARDOSO</t>
+  </si>
+  <si>
+    <t>62092444000151</t>
+  </si>
+  <si>
+    <t>IRMAOS OSORIO AUTO PECAS LTDA</t>
+  </si>
+  <si>
+    <t>42627407000193</t>
+  </si>
+  <si>
+    <t>ALMEIDA TRANSPORTES RODOVIARIOS E LOGISTICA LTDA</t>
+  </si>
+  <si>
+    <t>62163263000179</t>
+  </si>
+  <si>
+    <t>MANINI COMERCIO DE CORTINAS E PERSIANAS LTDA</t>
+  </si>
+  <si>
+    <t>36375215000134</t>
+  </si>
+  <si>
+    <t>62301261000107</t>
+  </si>
+  <si>
+    <t>A. CRISTINA PEREIRA CARVALHO LTDA</t>
+  </si>
+  <si>
+    <t>61110932000181</t>
+  </si>
+  <si>
+    <t>VLA PROMOCOES DE VENDAS LTDA</t>
+  </si>
+  <si>
+    <t>38281562000123</t>
+  </si>
+  <si>
+    <t>DJALMA LINS SANTOS</t>
+  </si>
+  <si>
+    <t>63803071000142</t>
+  </si>
+  <si>
+    <t>INSTITUTO PROJETANDO VIDAS</t>
+  </si>
+  <si>
+    <t>37976190000197</t>
+  </si>
+  <si>
+    <t>M3E LOCACAO DE TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>07394256000170</t>
+  </si>
+  <si>
+    <t>VILA RICA - ABATEDOURO E FRIGORIFICO DE AVES LTDA</t>
+  </si>
+  <si>
+    <t>62381717000188</t>
+  </si>
+  <si>
+    <t>W. MATEUS PESSOA FERREIRA LTDA</t>
+  </si>
+  <si>
+    <t>58318712000133</t>
+  </si>
+  <si>
+    <t>L. Y. SOUSA &amp; E. P. DE BRITO ATIVIDADES CLINICAS LTDA</t>
+  </si>
+  <si>
+    <t>62308557000141</t>
+  </si>
+  <si>
+    <t>JS PRE-MOLDADOS LTDA</t>
+  </si>
+  <si>
+    <t>61660793000160</t>
+  </si>
+  <si>
+    <t>K. MACHADO ATHAYDE LTDA</t>
+  </si>
+  <si>
+    <t>36821188000186</t>
+  </si>
+  <si>
+    <t>GUILHERME HIDALGO FERRAGINE</t>
+  </si>
+  <si>
+    <t>38412567000148</t>
+  </si>
+  <si>
+    <t>38.412.567 MARCIANO PACHECO CHAVES</t>
+  </si>
+  <si>
+    <t>61542980000149</t>
+  </si>
+  <si>
+    <t>HIDROVOLT COMERCIO E SERVICOS ELETRICOS E HIDRAULICOS LTDA</t>
+  </si>
+  <si>
+    <t>64258983000143</t>
+  </si>
+  <si>
+    <t>L M ARCANGELI LA CONSULTORIO ODONTOLOGICO</t>
+  </si>
+  <si>
+    <t>37315950000115</t>
+  </si>
+  <si>
+    <t>FABIO SERGIO DA SILVA</t>
+  </si>
+  <si>
+    <t>64300645000122</t>
+  </si>
+  <si>
+    <t>T. DA SILVA SALES PAULA</t>
+  </si>
+  <si>
+    <t>23079568000145</t>
+  </si>
+  <si>
+    <t>VALDIR CASTILHO &amp;. CIA. LTDA.</t>
+  </si>
+  <si>
+    <t>35738084000140</t>
+  </si>
+  <si>
+    <t>CRISTIANO BERBERICK</t>
+  </si>
+  <si>
+    <t>00219094000194</t>
+  </si>
+  <si>
+    <t>IVAN BOTELHO</t>
+  </si>
+  <si>
+    <t>39991366000105</t>
+  </si>
+  <si>
+    <t>HTR FITNESS LTDA</t>
+  </si>
+  <si>
+    <t>63948238000163</t>
+  </si>
+  <si>
+    <t>E-QUEIJO ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>38945571000171</t>
+  </si>
+  <si>
+    <t>ANDRE DE MOURA ARRUDA</t>
+  </si>
+  <si>
+    <t>42073673000111</t>
+  </si>
+  <si>
+    <t>FG CIA CONSTRUCOES LTDA</t>
+  </si>
+  <si>
+    <t>62265859000180</t>
+  </si>
+  <si>
+    <t>JOSE FELIPE GOMES BARBOSA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>43338231000112</t>
+  </si>
+  <si>
+    <t>TIAGO ALVES DIAS DA SILVA</t>
+  </si>
+  <si>
+    <t>61807359000160</t>
+  </si>
+  <si>
+    <t>COMERCIO DOS IMPORTADOS LTDA</t>
+  </si>
+  <si>
+    <t>34513494000120</t>
+  </si>
+  <si>
+    <t>34.513.494 HELENA MARIA RUFINO GIMENES</t>
+  </si>
+  <si>
+    <t>36321343000103</t>
+  </si>
+  <si>
+    <t>JONATAN TAPIA</t>
+  </si>
+  <si>
+    <t>61700301000112</t>
+  </si>
+  <si>
+    <t>JUCY AROMA LTDA</t>
+  </si>
+  <si>
+    <t>38084217000108</t>
+  </si>
+  <si>
+    <t>CARLA HELOISA DE MELO PEDROZO</t>
+  </si>
+  <si>
+    <t>37625475000183</t>
+  </si>
+  <si>
+    <t>ELIEZER SOLUCOES SEGURANCA ELETRONICOS E TVS LTDA</t>
+  </si>
+  <si>
+    <t>32994609000110</t>
+  </si>
+  <si>
+    <t>JM COMERCIO DE COMBUSTIVEL LTDA</t>
+  </si>
+  <si>
+    <t>MIOTTI MANUTENCOES, SOLUCOES EM MANUTENCAO DE MAQUINAS PARA A CONSTRUCAO CIVIL LTDA</t>
+  </si>
+  <si>
+    <t>14056056000172</t>
+  </si>
+  <si>
+    <t>MAYKEL JORGE FIGUEIREDO DE SOUZA</t>
+  </si>
+  <si>
+    <t>30477265000146</t>
+  </si>
+  <si>
+    <t>30.477.265 FABIO BEZERRA CHAVES</t>
+  </si>
+  <si>
+    <t>63666618000105</t>
+  </si>
+  <si>
+    <t>WELISSON HENRIQUE ALVES PEREIRA</t>
+  </si>
+  <si>
+    <t>64299786000172</t>
+  </si>
+  <si>
+    <t>ARTHUR ABREU SERVICOS MEDICOS LTDA</t>
+  </si>
+  <si>
+    <t>27197558000165</t>
+  </si>
+  <si>
+    <t>DAIANE LUCAS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>29969434000186</t>
+  </si>
+  <si>
+    <t>DAVID OLIVEIRA RESENDE</t>
+  </si>
+  <si>
+    <t>20208318000170</t>
+  </si>
+  <si>
+    <t>FABIO CHRISTIAN SCHMIDT MALERBA</t>
+  </si>
+  <si>
+    <t>63494381000122</t>
+  </si>
+  <si>
+    <t>ELYSIUS SERVICOS DE PSICOLOGIA E SAUDE INTEGRADA LTDA</t>
+  </si>
+  <si>
+    <t>37526631000159</t>
+  </si>
+  <si>
+    <t>FABIO JUNO DE SOUSA LTDA</t>
+  </si>
+  <si>
+    <t>64016741000143</t>
+  </si>
+  <si>
+    <t>TEAXEI SOLUCOES INOVA SIMPLES IS</t>
+  </si>
+  <si>
+    <t>39943472000113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARIO CARLOS GONTIJO </t>
+  </si>
+  <si>
+    <t>61924076000106</t>
+  </si>
+  <si>
+    <t>DEVSECOPSG  CONSULTORIA EM TECNOLOGIA LTDA</t>
+  </si>
+  <si>
+    <t>12306626000100</t>
+  </si>
+  <si>
+    <t>FINARDI SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>64014835000183</t>
+  </si>
+  <si>
+    <t>J A TRANSPORTES DE PENAPOLIS LTDA</t>
+  </si>
+  <si>
+    <t>61941404000174</t>
+  </si>
+  <si>
+    <t>PANIFICADORA E LANCHONETE GOIAS LTDA</t>
+  </si>
+  <si>
+    <t>19823238000145</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALCIMAR AQUINO DE AZEVEDO JUNIOR</t>
+  </si>
+  <si>
+    <t>35915738000163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEIBISON PEREIRA DA CRUZ </t>
+  </si>
+  <si>
+    <t>42671766000148</t>
+  </si>
+  <si>
+    <t>CRECHE CRIANCA FELIZ LTDA</t>
+  </si>
+  <si>
+    <t>44780386000177</t>
+  </si>
+  <si>
+    <t>MLR TRANSPORTES E LOGISTICA LTDA</t>
+  </si>
+  <si>
+    <t>61602913000172</t>
+  </si>
+  <si>
+    <t>DRA ELAINE COSTA CAMPOS LTDA</t>
+  </si>
+  <si>
+    <t>28375831000167</t>
+  </si>
+  <si>
+    <t>ARLETE ALESSANDRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>64030857000137</t>
+  </si>
+  <si>
+    <t>KS COMUNICACAO VISUAL GERADORES E ESTRUTURAS LTDA</t>
+  </si>
+  <si>
+    <t>61896366000185</t>
+  </si>
+  <si>
+    <t>GURIS BABY BRECHO LTDA</t>
+  </si>
+  <si>
+    <t>33299724000137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDIR FERNANDO DA COSTA SILVA </t>
+  </si>
+  <si>
+    <t>50991607000159</t>
+  </si>
+  <si>
+    <t>DV ROCHA REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>53863407000109</t>
+  </si>
+  <si>
+    <t>ILLUMINA DECOR LTDA</t>
+  </si>
+  <si>
+    <t>12888423000179</t>
+  </si>
+  <si>
+    <t>MIX MANIA LANCHES LTDA</t>
+  </si>
+  <si>
+    <t>55335870000375</t>
+  </si>
+  <si>
+    <t>W F FERNANDES TRIESTE  LTDA</t>
+  </si>
+  <si>
+    <t>63917925000111</t>
+  </si>
+  <si>
+    <t>DLS DISTRIBUIDOR LTDA</t>
+  </si>
+  <si>
+    <t>28422070000157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO DOMINGUES DA SILVA </t>
+  </si>
+  <si>
+    <t>64200010000153</t>
+  </si>
+  <si>
+    <t>JL COMERCIO DE ARTIGOS DO VESTUARIO LTDA</t>
+  </si>
+  <si>
+    <t>Ata de eleicao da diretoria atualizada e registrado no orgao competente&lt;br&gt;&lt;br&gt;Estatuto social atualizado e registrado no orgao competente</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G1330"/>
+  <dimension ref="A1:F1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +2128,7 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,3789 +2147,5475 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>46027</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>46027</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>46027</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>46027</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46027</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>46027</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>46027</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>46027</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>46027</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>46027</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>46027</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>46027</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>46027</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>46027</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>46027</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>46027</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>46027</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>46027</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>46027</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>46027</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>46027</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>46027</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>46027</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46027</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46027</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46027</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46027</v>
       </c>
       <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B30" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>82</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B57" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B73" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B78" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B79" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B80" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B81" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B82" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B83" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B84" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B85" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" t="s">
+        <v>200</v>
+      </c>
+      <c r="D86" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B87" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" t="s">
+        <v>202</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B88" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" t="s">
         <v>10</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B89" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B90" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B91" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B92" t="s">
+        <v>212</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" t="s">
+        <v>209</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B93" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B94" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" t="s">
+        <v>216</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B95" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B97" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" t="s">
+        <v>222</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B98" t="s">
+        <v>223</v>
+      </c>
+      <c r="C98" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" t="s">
+        <v>226</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B100" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" t="s">
+        <v>228</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B101" t="s">
+        <v>229</v>
+      </c>
+      <c r="C101" t="s">
+        <v>230</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B102" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" t="s">
+        <v>232</v>
+      </c>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B103" t="s">
+        <v>233</v>
+      </c>
+      <c r="C103" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" t="s">
         <v>9</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B104" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104" t="s">
+        <v>236</v>
+      </c>
+      <c r="D104" t="s">
+        <v>237</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B105" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" t="s">
+        <v>239</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B106" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" t="s">
+        <v>241</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" t="s">
+        <v>243</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B108" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" t="s">
+        <v>245</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B109" t="s">
+        <v>246</v>
+      </c>
+      <c r="C109" t="s">
+        <v>247</v>
+      </c>
+      <c r="D109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B110" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" t="s">
+        <v>249</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B111" t="s">
+        <v>250</v>
+      </c>
+      <c r="C111" t="s">
+        <v>251</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B112" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" t="s">
+        <v>253</v>
+      </c>
+      <c r="D112" t="s">
+        <v>154</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B113" t="s">
+        <v>254</v>
+      </c>
+      <c r="C113" t="s">
+        <v>255</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B114" t="s">
+        <v>256</v>
+      </c>
+      <c r="C114" t="s">
+        <v>257</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B115" t="s">
+        <v>258</v>
+      </c>
+      <c r="C115" t="s">
+        <v>259</v>
+      </c>
+      <c r="D115" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B116" t="s">
+        <v>260</v>
+      </c>
+      <c r="C116" t="s">
+        <v>261</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B117" t="s">
+        <v>262</v>
+      </c>
+      <c r="C117" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B118" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" t="s">
+        <v>265</v>
+      </c>
+      <c r="D118" t="s">
+        <v>116</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B119" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" t="s">
+        <v>267</v>
+      </c>
+      <c r="D119" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B120" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B121" t="s">
+        <v>270</v>
+      </c>
+      <c r="C121" t="s">
+        <v>271</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B122" t="s">
+        <v>272</v>
+      </c>
+      <c r="C122" t="s">
+        <v>273</v>
+      </c>
+      <c r="D122" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B123" t="s">
+        <v>274</v>
+      </c>
+      <c r="C123" t="s">
+        <v>275</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B124" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124" t="s">
+        <v>277</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B125" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" t="s">
+        <v>279</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B126" t="s">
+        <v>280</v>
+      </c>
+      <c r="C126" t="s">
+        <v>281</v>
+      </c>
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B127" t="s">
+        <v>282</v>
+      </c>
+      <c r="C127" t="s">
+        <v>283</v>
+      </c>
+      <c r="D127" t="s">
+        <v>44</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B128" t="s">
+        <v>284</v>
+      </c>
+      <c r="C128" t="s">
+        <v>285</v>
+      </c>
+      <c r="D128" t="s">
+        <v>134</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B129" t="s">
+        <v>286</v>
+      </c>
+      <c r="C129" t="s">
+        <v>287</v>
+      </c>
+      <c r="D129" t="s">
+        <v>44</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B130" t="s">
+        <v>288</v>
+      </c>
+      <c r="C130" t="s">
+        <v>289</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B131" t="s">
+        <v>290</v>
+      </c>
+      <c r="C131" t="s">
+        <v>291</v>
+      </c>
+      <c r="D131" t="s">
+        <v>154</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B132" t="s">
+        <v>292</v>
+      </c>
+      <c r="C132" t="s">
+        <v>293</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B133" t="s">
+        <v>294</v>
+      </c>
+      <c r="C133" t="s">
+        <v>295</v>
+      </c>
+      <c r="D133" t="s">
+        <v>237</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B134" t="s">
+        <v>296</v>
+      </c>
+      <c r="C134" t="s">
+        <v>297</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B135" t="s">
+        <v>298</v>
+      </c>
+      <c r="C135" t="s">
+        <v>299</v>
+      </c>
+      <c r="D135" t="s">
+        <v>237</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B136" t="s">
+        <v>300</v>
+      </c>
+      <c r="C136" t="s">
+        <v>301</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B137" t="s">
+        <v>302</v>
+      </c>
+      <c r="C137" t="s">
+        <v>303</v>
+      </c>
+      <c r="D137" t="s">
+        <v>116</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B138" t="s">
+        <v>304</v>
+      </c>
+      <c r="C138" t="s">
+        <v>305</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B139" t="s">
+        <v>306</v>
+      </c>
+      <c r="C139" t="s">
+        <v>307</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B140" t="s">
+        <v>308</v>
+      </c>
+      <c r="C140" t="s">
+        <v>309</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B141" t="s">
+        <v>310</v>
+      </c>
+      <c r="C141" t="s">
+        <v>311</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B142" t="s">
+        <v>312</v>
+      </c>
+      <c r="C142" t="s">
+        <v>313</v>
+      </c>
+      <c r="D142" t="s">
+        <v>134</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B143" t="s">
+        <v>314</v>
+      </c>
+      <c r="C143" t="s">
+        <v>315</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B144" t="s">
+        <v>316</v>
+      </c>
+      <c r="C144" t="s">
+        <v>317</v>
+      </c>
+      <c r="D144" t="s">
+        <v>44</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B145" t="s">
+        <v>318</v>
+      </c>
+      <c r="C145" t="s">
+        <v>319</v>
+      </c>
+      <c r="D145" t="s">
+        <v>134</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B146" t="s">
+        <v>320</v>
+      </c>
+      <c r="C146" t="s">
+        <v>321</v>
+      </c>
+      <c r="D146" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B147" t="s">
+        <v>322</v>
+      </c>
+      <c r="C147" t="s">
+        <v>323</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B148" t="s">
+        <v>318</v>
+      </c>
+      <c r="C148" t="s">
+        <v>325</v>
+      </c>
+      <c r="D148" t="s">
+        <v>134</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B149" t="s">
+        <v>326</v>
+      </c>
+      <c r="C149" t="s">
+        <v>327</v>
+      </c>
+      <c r="D149" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B150" t="s">
+        <v>314</v>
+      </c>
+      <c r="C150" t="s">
+        <v>315</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B151" t="s">
+        <v>322</v>
+      </c>
+      <c r="C151" t="s">
+        <v>323</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B152" t="s">
+        <v>328</v>
+      </c>
+      <c r="C152" t="s">
+        <v>329</v>
+      </c>
+      <c r="D152" t="s">
         <v>10</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B153" t="s">
+        <v>330</v>
+      </c>
+      <c r="C153" t="s">
+        <v>331</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B154" t="s">
+        <v>332</v>
+      </c>
+      <c r="C154" t="s">
+        <v>333</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B155" t="s">
+        <v>334</v>
+      </c>
+      <c r="C155" t="s">
+        <v>335</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B156" t="s">
+        <v>336</v>
+      </c>
+      <c r="C156" t="s">
+        <v>337</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B157" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157" t="s">
+        <v>321</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B158" t="s">
+        <v>338</v>
+      </c>
+      <c r="C158" t="s">
+        <v>339</v>
+      </c>
+      <c r="D158" t="s">
+        <v>340</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B159" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" t="s">
+        <v>342</v>
+      </c>
+      <c r="D159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B160" t="s">
+        <v>343</v>
+      </c>
+      <c r="C160" t="s">
+        <v>344</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B161" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" t="s">
+        <v>346</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B162" t="s">
+        <v>347</v>
+      </c>
+      <c r="C162" t="s">
+        <v>348</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B163" t="s">
+        <v>349</v>
+      </c>
+      <c r="C163" t="s">
+        <v>350</v>
+      </c>
+      <c r="D163" t="s">
+        <v>154</v>
+      </c>
+      <c r="E163" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B164" t="s">
+        <v>351</v>
+      </c>
+      <c r="C164" t="s">
+        <v>352</v>
+      </c>
+      <c r="D164" t="s">
+        <v>113</v>
+      </c>
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B165" t="s">
+        <v>353</v>
+      </c>
+      <c r="C165" t="s">
+        <v>354</v>
+      </c>
+      <c r="D165" t="s">
         <v>9</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B166" t="s">
+        <v>355</v>
+      </c>
+      <c r="C166" t="s">
+        <v>356</v>
+      </c>
+      <c r="D166" t="s">
+        <v>116</v>
+      </c>
+      <c r="E166" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B167" t="s">
+        <v>357</v>
+      </c>
+      <c r="C167" t="s">
+        <v>358</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B168" t="s">
+        <v>359</v>
+      </c>
+      <c r="C168" t="s">
+        <v>360</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B169" t="s">
+        <v>361</v>
+      </c>
+      <c r="C169" t="s">
+        <v>362</v>
+      </c>
+      <c r="D169" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B170" t="s">
+        <v>363</v>
+      </c>
+      <c r="C170" t="s">
+        <v>364</v>
+      </c>
+      <c r="D170" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B171" t="s">
+        <v>365</v>
+      </c>
+      <c r="C171" t="s">
+        <v>366</v>
+      </c>
+      <c r="D171" t="s">
+        <v>134</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B172" t="s">
+        <v>367</v>
+      </c>
+      <c r="C172" t="s">
+        <v>368</v>
+      </c>
+      <c r="D172" t="s">
+        <v>116</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B173" t="s">
+        <v>369</v>
+      </c>
+      <c r="C173" t="s">
+        <v>370</v>
+      </c>
+      <c r="D173" t="s">
         <v>16</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E173" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B174" t="s">
+        <v>371</v>
+      </c>
+      <c r="C174" t="s">
+        <v>372</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B175" t="s">
+        <v>373</v>
+      </c>
+      <c r="C175" t="s">
+        <v>374</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B176" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176" t="s">
+        <v>376</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B177" t="s">
+        <v>377</v>
+      </c>
+      <c r="C177" t="s">
+        <v>378</v>
+      </c>
+      <c r="D177" t="s">
+        <v>113</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B178" t="s">
+        <v>379</v>
+      </c>
+      <c r="C178" t="s">
+        <v>380</v>
+      </c>
+      <c r="D178" t="s">
         <v>10</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E178" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B179" t="s">
+        <v>381</v>
+      </c>
+      <c r="C179" t="s">
+        <v>382</v>
+      </c>
+      <c r="D179" t="s">
+        <v>131</v>
+      </c>
+      <c r="E179" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B180" t="s">
+        <v>383</v>
+      </c>
+      <c r="C180" t="s">
+        <v>384</v>
+      </c>
+      <c r="D180" t="s">
+        <v>134</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B181" t="s">
+        <v>385</v>
+      </c>
+      <c r="C181" t="s">
+        <v>386</v>
+      </c>
+      <c r="D181" t="s">
+        <v>237</v>
+      </c>
+      <c r="E181" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B182" t="s">
+        <v>387</v>
+      </c>
+      <c r="C182" t="s">
+        <v>388</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B183" t="s">
+        <v>389</v>
+      </c>
+      <c r="C183" t="s">
+        <v>390</v>
+      </c>
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B184" t="s">
+        <v>391</v>
+      </c>
+      <c r="C184" t="s">
+        <v>392</v>
+      </c>
+      <c r="D184" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B185" t="s">
+        <v>393</v>
+      </c>
+      <c r="C185" t="s">
+        <v>394</v>
+      </c>
+      <c r="D185" t="s">
+        <v>44</v>
+      </c>
+      <c r="E185" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B186" t="s">
+        <v>395</v>
+      </c>
+      <c r="C186" t="s">
+        <v>396</v>
+      </c>
+      <c r="D186" t="s">
+        <v>209</v>
+      </c>
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B187" t="s">
+        <v>397</v>
+      </c>
+      <c r="C187" t="s">
+        <v>398</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B188" t="s">
+        <v>399</v>
+      </c>
+      <c r="C188" t="s">
+        <v>400</v>
+      </c>
+      <c r="D188" t="s">
+        <v>237</v>
+      </c>
+      <c r="E188" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B189" t="s">
+        <v>401</v>
+      </c>
+      <c r="C189" t="s">
+        <v>402</v>
+      </c>
+      <c r="D189" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B190" t="s">
+        <v>403</v>
+      </c>
+      <c r="C190" t="s">
+        <v>404</v>
+      </c>
+      <c r="D190" t="s">
+        <v>131</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B191" t="s">
+        <v>405</v>
+      </c>
+      <c r="C191" t="s">
+        <v>406</v>
+      </c>
+      <c r="D191" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B192" t="s">
+        <v>407</v>
+      </c>
+      <c r="C192" t="s">
+        <v>408</v>
+      </c>
+      <c r="D192" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B193" t="s">
+        <v>409</v>
+      </c>
+      <c r="C193" t="s">
+        <v>410</v>
+      </c>
+      <c r="D193" t="s">
+        <v>131</v>
+      </c>
+      <c r="E193" t="s">
+        <v>102</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B194" t="s">
+        <v>411</v>
+      </c>
+      <c r="C194" t="s">
+        <v>412</v>
+      </c>
+      <c r="D194" t="s">
+        <v>154</v>
+      </c>
+      <c r="E194" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B195" t="s">
+        <v>413</v>
+      </c>
+      <c r="C195" t="s">
+        <v>414</v>
+      </c>
+      <c r="D195" t="s">
+        <v>340</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B196" t="s">
+        <v>415</v>
+      </c>
+      <c r="C196" t="s">
+        <v>416</v>
+      </c>
+      <c r="D196" t="s">
         <v>9</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E196" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B197" t="s">
+        <v>417</v>
+      </c>
+      <c r="C197" t="s">
+        <v>418</v>
+      </c>
+      <c r="D197" t="s">
+        <v>340</v>
+      </c>
+      <c r="E197" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B198" t="s">
+        <v>419</v>
+      </c>
+      <c r="C198" t="s">
+        <v>420</v>
+      </c>
+      <c r="D198" t="s">
         <v>17</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E198" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B199" t="s">
+        <v>421</v>
+      </c>
+      <c r="C199" t="s">
+        <v>422</v>
+      </c>
+      <c r="D199" t="s">
+        <v>113</v>
+      </c>
+      <c r="E199" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B200" t="s">
+        <v>423</v>
+      </c>
+      <c r="C200" t="s">
+        <v>424</v>
+      </c>
+      <c r="D200" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B201" t="s">
+        <v>425</v>
+      </c>
+      <c r="C201" t="s">
+        <v>426</v>
+      </c>
+      <c r="D201" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B202" t="s">
+        <v>427</v>
+      </c>
+      <c r="C202" t="s">
+        <v>428</v>
+      </c>
+      <c r="D202" t="s">
+        <v>116</v>
+      </c>
+      <c r="E202" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B203" t="s">
+        <v>429</v>
+      </c>
+      <c r="C203" t="s">
+        <v>430</v>
+      </c>
+      <c r="D203" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B204" t="s">
+        <v>431</v>
+      </c>
+      <c r="C204" t="s">
+        <v>432</v>
+      </c>
+      <c r="D204" t="s">
+        <v>116</v>
+      </c>
+      <c r="E204" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B205" t="s">
+        <v>433</v>
+      </c>
+      <c r="C205" t="s">
+        <v>434</v>
+      </c>
+      <c r="D205" t="s">
+        <v>131</v>
+      </c>
+      <c r="E205" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B206" t="s">
+        <v>435</v>
+      </c>
+      <c r="C206" t="s">
+        <v>436</v>
+      </c>
+      <c r="D206" t="s">
+        <v>14</v>
+      </c>
+      <c r="E206" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B207" t="s">
+        <v>437</v>
+      </c>
+      <c r="C207" t="s">
+        <v>438</v>
+      </c>
+      <c r="D207" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B208" t="s">
+        <v>439</v>
+      </c>
+      <c r="C208" t="s">
+        <v>440</v>
+      </c>
+      <c r="D208" t="s">
+        <v>116</v>
+      </c>
+      <c r="E208" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B209" t="s">
+        <v>441</v>
+      </c>
+      <c r="C209" t="s">
+        <v>441</v>
+      </c>
+      <c r="D209" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B210" t="s">
+        <v>442</v>
+      </c>
+      <c r="C210" t="s">
+        <v>443</v>
+      </c>
+      <c r="D210" t="s">
+        <v>116</v>
+      </c>
+      <c r="E210" t="s">
+        <v>8</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B211" t="s">
+        <v>444</v>
+      </c>
+      <c r="C211" t="s">
+        <v>445</v>
+      </c>
+      <c r="D211" t="s">
+        <v>237</v>
+      </c>
+      <c r="E211" t="s">
+        <v>7</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B212" t="s">
+        <v>446</v>
+      </c>
+      <c r="C212" t="s">
+        <v>447</v>
+      </c>
+      <c r="D212" t="s">
+        <v>116</v>
+      </c>
+      <c r="E212" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B213" t="s">
+        <v>448</v>
+      </c>
+      <c r="C213" t="s">
+        <v>449</v>
+      </c>
+      <c r="D213" t="s">
+        <v>131</v>
+      </c>
+      <c r="E213" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B214" t="s">
+        <v>450</v>
+      </c>
+      <c r="C214" t="s">
+        <v>451</v>
+      </c>
+      <c r="D214" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" t="s">
+        <v>8</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B215" t="s">
+        <v>452</v>
+      </c>
+      <c r="C215" t="s">
+        <v>453</v>
+      </c>
+      <c r="D215" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B216" t="s">
+        <v>454</v>
+      </c>
+      <c r="C216" t="s">
+        <v>455</v>
+      </c>
+      <c r="D216" t="s">
         <v>10</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E216" t="s">
+        <v>7</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B217" t="s">
+        <v>456</v>
+      </c>
+      <c r="C217" t="s">
+        <v>457</v>
+      </c>
+      <c r="D217" t="s">
+        <v>22</v>
+      </c>
+      <c r="E217" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B218" t="s">
+        <v>458</v>
+      </c>
+      <c r="C218" t="s">
+        <v>459</v>
+      </c>
+      <c r="D218" t="s">
+        <v>209</v>
+      </c>
+      <c r="E218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B219" t="s">
+        <v>460</v>
+      </c>
+      <c r="C219" t="s">
+        <v>461</v>
+      </c>
+      <c r="D219" t="s">
+        <v>134</v>
+      </c>
+      <c r="E219" t="s">
+        <v>8</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B220" t="s">
+        <v>462</v>
+      </c>
+      <c r="C220" t="s">
+        <v>463</v>
+      </c>
+      <c r="D220" t="s">
+        <v>116</v>
+      </c>
+      <c r="E220" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B221" t="s">
+        <v>464</v>
+      </c>
+      <c r="C221" t="s">
+        <v>465</v>
+      </c>
+      <c r="D221" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B222" t="s">
+        <v>466</v>
+      </c>
+      <c r="C222" t="s">
+        <v>467</v>
+      </c>
+      <c r="D222" t="s">
+        <v>44</v>
+      </c>
+      <c r="E222" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B223" t="s">
+        <v>468</v>
+      </c>
+      <c r="C223" t="s">
+        <v>469</v>
+      </c>
+      <c r="D223" t="s">
+        <v>340</v>
+      </c>
+      <c r="E223" t="s">
+        <v>21</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B224" t="s">
+        <v>470</v>
+      </c>
+      <c r="C224" t="s">
+        <v>471</v>
+      </c>
+      <c r="D224" t="s">
+        <v>13</v>
+      </c>
+      <c r="E224" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B225" t="s">
+        <v>472</v>
+      </c>
+      <c r="C225" t="s">
+        <v>473</v>
+      </c>
+      <c r="D225" t="s">
+        <v>44</v>
+      </c>
+      <c r="E225" t="s">
+        <v>7</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B226" t="s">
+        <v>474</v>
+      </c>
+      <c r="C226" t="s">
+        <v>475</v>
+      </c>
+      <c r="D226" t="s">
+        <v>237</v>
+      </c>
+      <c r="E226" t="s">
+        <v>7</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B227" t="s">
+        <v>476</v>
+      </c>
+      <c r="C227" t="s">
+        <v>477</v>
+      </c>
+      <c r="D227" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B228" t="s">
+        <v>478</v>
+      </c>
+      <c r="C228" t="s">
+        <v>479</v>
+      </c>
+      <c r="D228" t="s">
+        <v>22</v>
+      </c>
+      <c r="E228" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B229" t="s">
+        <v>480</v>
+      </c>
+      <c r="C229" t="s">
+        <v>481</v>
+      </c>
+      <c r="D229" t="s">
+        <v>134</v>
+      </c>
+      <c r="E229" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B230" t="s">
+        <v>482</v>
+      </c>
+      <c r="C230" t="s">
+        <v>483</v>
+      </c>
+      <c r="D230" t="s">
+        <v>16</v>
+      </c>
+      <c r="E230" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B231" t="s">
+        <v>484</v>
+      </c>
+      <c r="C231" t="s">
+        <v>485</v>
+      </c>
+      <c r="D231" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" t="s">
+        <v>8</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B232" t="s">
+        <v>486</v>
+      </c>
+      <c r="C232" t="s">
+        <v>487</v>
+      </c>
+      <c r="D232" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B233" t="s">
+        <v>488</v>
+      </c>
+      <c r="C233" t="s">
+        <v>489</v>
+      </c>
+      <c r="D233" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B234" t="s">
+        <v>490</v>
+      </c>
+      <c r="C234" t="s">
+        <v>491</v>
+      </c>
+      <c r="D234" t="s">
+        <v>23</v>
+      </c>
+      <c r="E234" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B235" t="s">
+        <v>492</v>
+      </c>
+      <c r="C235" t="s">
+        <v>493</v>
+      </c>
+      <c r="D235" t="s">
         <v>9</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E235" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B236" t="s">
+        <v>494</v>
+      </c>
+      <c r="C236" t="s">
+        <v>495</v>
+      </c>
+      <c r="D236" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B237" t="s">
+        <v>496</v>
+      </c>
+      <c r="C237" t="s">
+        <v>497</v>
+      </c>
+      <c r="D237" t="s">
+        <v>13</v>
+      </c>
+      <c r="E237" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B238" t="s">
+        <v>498</v>
+      </c>
+      <c r="C238" t="s">
+        <v>499</v>
+      </c>
+      <c r="D238" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B239" t="s">
+        <v>500</v>
+      </c>
+      <c r="C239" t="s">
+        <v>501</v>
+      </c>
+      <c r="D239" t="s">
+        <v>16</v>
+      </c>
+      <c r="E239" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B240" t="s">
+        <v>502</v>
+      </c>
+      <c r="C240" t="s">
+        <v>503</v>
+      </c>
+      <c r="D240" t="s">
+        <v>14</v>
+      </c>
+      <c r="E240" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B241" t="s">
+        <v>504</v>
+      </c>
+      <c r="C241" t="s">
+        <v>505</v>
+      </c>
+      <c r="D241" t="s">
+        <v>22</v>
+      </c>
+      <c r="E241" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B242" t="s">
+        <v>316</v>
+      </c>
+      <c r="C242" t="s">
+        <v>506</v>
+      </c>
+      <c r="D242" t="s">
+        <v>44</v>
+      </c>
+      <c r="E242" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B243" t="s">
+        <v>507</v>
+      </c>
+      <c r="C243" t="s">
+        <v>508</v>
+      </c>
+      <c r="D243" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B244" t="s">
+        <v>509</v>
+      </c>
+      <c r="C244" t="s">
+        <v>510</v>
+      </c>
+      <c r="D244" t="s">
+        <v>237</v>
+      </c>
+      <c r="E244" t="s">
+        <v>7</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B245" t="s">
+        <v>511</v>
+      </c>
+      <c r="C245" t="s">
+        <v>512</v>
+      </c>
+      <c r="D245" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B246" t="s">
+        <v>513</v>
+      </c>
+      <c r="C246" t="s">
+        <v>514</v>
+      </c>
+      <c r="D246" t="s">
+        <v>154</v>
+      </c>
+      <c r="E246" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B247" t="s">
+        <v>515</v>
+      </c>
+      <c r="C247" t="s">
+        <v>516</v>
+      </c>
+      <c r="D247" t="s">
+        <v>22</v>
+      </c>
+      <c r="E247" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B248" t="s">
+        <v>517</v>
+      </c>
+      <c r="C248" t="s">
+        <v>518</v>
+      </c>
+      <c r="D248" t="s">
+        <v>16</v>
+      </c>
+      <c r="E248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B249" t="s">
+        <v>519</v>
+      </c>
+      <c r="C249" t="s">
+        <v>520</v>
+      </c>
+      <c r="D249" t="s">
+        <v>13</v>
+      </c>
+      <c r="E249" t="s">
+        <v>8</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B250" t="s">
+        <v>521</v>
+      </c>
+      <c r="C250" t="s">
+        <v>522</v>
+      </c>
+      <c r="D250" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B251" t="s">
+        <v>523</v>
+      </c>
+      <c r="C251" t="s">
+        <v>524</v>
+      </c>
+      <c r="D251" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B252" t="s">
+        <v>525</v>
+      </c>
+      <c r="C252" t="s">
+        <v>526</v>
+      </c>
+      <c r="D252" t="s">
+        <v>116</v>
+      </c>
+      <c r="E252" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B253" t="s">
+        <v>527</v>
+      </c>
+      <c r="C253" t="s">
+        <v>528</v>
+      </c>
+      <c r="D253" t="s">
+        <v>134</v>
+      </c>
+      <c r="E253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B254" t="s">
+        <v>529</v>
+      </c>
+      <c r="C254" t="s">
+        <v>530</v>
+      </c>
+      <c r="D254" t="s">
+        <v>116</v>
+      </c>
+      <c r="E254" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B255" t="s">
+        <v>531</v>
+      </c>
+      <c r="C255" t="s">
+        <v>532</v>
+      </c>
+      <c r="D255" t="s">
+        <v>134</v>
+      </c>
+      <c r="E255" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B256" t="s">
+        <v>533</v>
+      </c>
+      <c r="C256" t="s">
+        <v>534</v>
+      </c>
+      <c r="D256" t="s">
         <v>9</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="E256" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B257" t="s">
+        <v>535</v>
+      </c>
+      <c r="C257" t="s">
+        <v>536</v>
+      </c>
+      <c r="D257" t="s">
+        <v>14</v>
+      </c>
+      <c r="E257" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B258" t="s">
+        <v>537</v>
+      </c>
+      <c r="C258" t="s">
+        <v>538</v>
+      </c>
+      <c r="D258" t="s">
+        <v>15</v>
+      </c>
+      <c r="E258" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B259" t="s">
+        <v>539</v>
+      </c>
+      <c r="C259" t="s">
+        <v>540</v>
+      </c>
+      <c r="D259" t="s">
+        <v>17</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B260" t="s">
+        <v>541</v>
+      </c>
+      <c r="C260" t="s">
+        <v>542</v>
+      </c>
+      <c r="D260" t="s">
+        <v>17</v>
+      </c>
+      <c r="E260" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B261" t="s">
+        <v>543</v>
+      </c>
+      <c r="C261" t="s">
+        <v>544</v>
+      </c>
+      <c r="D261" t="s">
+        <v>13</v>
+      </c>
+      <c r="E261" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B262" t="s">
+        <v>545</v>
+      </c>
+      <c r="C262" t="s">
+        <v>546</v>
+      </c>
+      <c r="D262" t="s">
+        <v>131</v>
+      </c>
+      <c r="E262" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B263" t="s">
+        <v>547</v>
+      </c>
+      <c r="C263" t="s">
+        <v>548</v>
+      </c>
+      <c r="D263" t="s">
+        <v>14</v>
+      </c>
+      <c r="E263" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B264" t="s">
+        <v>549</v>
+      </c>
+      <c r="C264" t="s">
+        <v>550</v>
+      </c>
+      <c r="D264" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B265" t="s">
+        <v>551</v>
+      </c>
+      <c r="C265" t="s">
+        <v>552</v>
+      </c>
+      <c r="D265" t="s">
+        <v>17</v>
+      </c>
+      <c r="E265" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B266" t="s">
+        <v>553</v>
+      </c>
+      <c r="C266" t="s">
+        <v>554</v>
+      </c>
+      <c r="D266" t="s">
+        <v>6</v>
+      </c>
+      <c r="E266" t="s">
+        <v>8</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B267" t="s">
+        <v>555</v>
+      </c>
+      <c r="C267" t="s">
+        <v>556</v>
+      </c>
+      <c r="D267" t="s">
         <v>23</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E267" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B268" t="s">
+        <v>557</v>
+      </c>
+      <c r="C268" t="s">
+        <v>558</v>
+      </c>
+      <c r="D268" t="s">
+        <v>131</v>
+      </c>
+      <c r="E268" t="s">
+        <v>8</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B269" t="s">
+        <v>559</v>
+      </c>
+      <c r="C269" t="s">
+        <v>560</v>
+      </c>
+      <c r="D269" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" t="s">
+        <v>8</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B270" t="s">
+        <v>561</v>
+      </c>
+      <c r="C270" t="s">
+        <v>562</v>
+      </c>
+      <c r="D270" t="s">
         <v>9</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E270" t="s">
+        <v>8</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B271" t="s">
+        <v>563</v>
+      </c>
+      <c r="C271" t="s">
+        <v>564</v>
+      </c>
+      <c r="D271" t="s">
+        <v>116</v>
+      </c>
+      <c r="E271" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B272" t="s">
+        <v>565</v>
+      </c>
+      <c r="C272" t="s">
+        <v>566</v>
+      </c>
+      <c r="D272" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B273" t="s">
+        <v>567</v>
+      </c>
+      <c r="C273" t="s">
+        <v>568</v>
+      </c>
+      <c r="D273" t="s">
         <v>14</v>
       </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B42" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B52" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" t="s">
-        <v>137</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B53" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" t="s">
-        <v>142</v>
-      </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" t="s">
-        <v>144</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" t="s">
-        <v>146</v>
-      </c>
-      <c r="D56" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B57" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E57" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B58" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B59" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B60" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B61" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B62" t="s">
-        <v>156</v>
-      </c>
-      <c r="C62" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B63" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B64" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B65" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" t="s">
-        <v>103</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B66" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
-        <v>103</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B67" t="s">
-        <v>167</v>
-      </c>
-      <c r="C67" t="s">
-        <v>168</v>
-      </c>
-      <c r="D67" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B68" t="s">
-        <v>169</v>
-      </c>
-      <c r="C68" t="s">
-        <v>170</v>
-      </c>
-      <c r="D68" t="s">
-        <v>122</v>
-      </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B69" t="s">
-        <v>171</v>
-      </c>
-      <c r="C69" t="s">
-        <v>172</v>
-      </c>
-      <c r="D69" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B70" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70" t="s">
-        <v>174</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B71" t="s">
-        <v>175</v>
-      </c>
-      <c r="C71" t="s">
-        <v>176</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B72" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" t="s">
-        <v>178</v>
-      </c>
-      <c r="D72" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B73" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" t="s">
-        <v>180</v>
-      </c>
-      <c r="D73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B74" t="s">
-        <v>181</v>
-      </c>
-      <c r="C74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" t="s">
-        <v>137</v>
-      </c>
-      <c r="E74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B75" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" t="s">
-        <v>184</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B76" t="s">
-        <v>185</v>
-      </c>
-      <c r="C76" t="s">
-        <v>186</v>
-      </c>
-      <c r="D76" t="s">
-        <v>137</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B77" t="s">
-        <v>187</v>
-      </c>
-      <c r="C77" t="s">
-        <v>188</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B78" t="s">
-        <v>189</v>
-      </c>
-      <c r="C78" t="s">
-        <v>190</v>
-      </c>
-      <c r="D78" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B79" t="s">
-        <v>191</v>
-      </c>
-      <c r="C79" t="s">
-        <v>192</v>
-      </c>
-      <c r="D79" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C80" t="s">
-        <v>194</v>
-      </c>
-      <c r="D80" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B81" t="s">
-        <v>195</v>
-      </c>
-      <c r="C81" t="s">
-        <v>196</v>
-      </c>
-      <c r="D81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B82" t="s">
-        <v>197</v>
-      </c>
-      <c r="C82" t="s">
-        <v>198</v>
-      </c>
-      <c r="D82" t="s">
-        <v>48</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B83" t="s">
-        <v>199</v>
-      </c>
-      <c r="C83" t="s">
-        <v>200</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B84" t="s">
-        <v>201</v>
-      </c>
-      <c r="C84" t="s">
-        <v>202</v>
-      </c>
-      <c r="D84" t="s">
-        <v>119</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B85" t="s">
-        <v>203</v>
-      </c>
-      <c r="C85" t="s">
-        <v>204</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B86" t="s">
-        <v>205</v>
-      </c>
-      <c r="C86" t="s">
-        <v>206</v>
-      </c>
-      <c r="D86" t="s">
-        <v>137</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>112</v>
-      </c>
-      <c r="G86" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C87" t="s">
-        <v>208</v>
-      </c>
-      <c r="D87" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B88" t="s">
-        <v>209</v>
-      </c>
-      <c r="C88" t="s">
-        <v>210</v>
-      </c>
-      <c r="D88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B89" t="s">
-        <v>211</v>
-      </c>
-      <c r="C89" t="s">
-        <v>212</v>
-      </c>
-      <c r="D89" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B90" t="s">
-        <v>213</v>
-      </c>
-      <c r="C90" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" t="s">
-        <v>215</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B91" t="s">
-        <v>216</v>
-      </c>
-      <c r="C91" t="s">
-        <v>217</v>
-      </c>
-      <c r="D91" t="s">
-        <v>48</v>
-      </c>
-      <c r="E91" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B92" t="s">
-        <v>218</v>
-      </c>
-      <c r="C92" t="s">
-        <v>219</v>
-      </c>
-      <c r="D92" t="s">
-        <v>215</v>
-      </c>
-      <c r="E92" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" t="s">
-        <v>220</v>
-      </c>
-      <c r="G92" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B93" t="s">
-        <v>221</v>
-      </c>
-      <c r="C93" t="s">
-        <v>221</v>
-      </c>
-      <c r="D93" t="s">
-        <v>27</v>
-      </c>
-      <c r="E93" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C94" t="s">
-        <v>223</v>
-      </c>
-      <c r="D94" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B95" t="s">
-        <v>224</v>
-      </c>
-      <c r="C95" t="s">
-        <v>225</v>
-      </c>
-      <c r="D95" t="s">
-        <v>140</v>
-      </c>
-      <c r="E95" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B96" t="s">
-        <v>226</v>
-      </c>
-      <c r="C96" t="s">
-        <v>227</v>
-      </c>
-      <c r="D96" t="s">
-        <v>160</v>
-      </c>
-      <c r="E96" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B97" t="s">
-        <v>228</v>
-      </c>
-      <c r="C97" t="s">
-        <v>229</v>
-      </c>
-      <c r="D97" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B98" t="s">
-        <v>230</v>
-      </c>
-      <c r="C98" t="s">
-        <v>231</v>
-      </c>
-      <c r="D98" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B99" t="s">
-        <v>232</v>
-      </c>
-      <c r="C99" t="s">
-        <v>233</v>
-      </c>
-      <c r="D99" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B100" t="s">
-        <v>234</v>
-      </c>
-      <c r="C100" t="s">
-        <v>235</v>
-      </c>
-      <c r="D100" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B101" t="s">
-        <v>236</v>
-      </c>
-      <c r="C101" t="s">
-        <v>237</v>
-      </c>
-      <c r="D101" t="s">
-        <v>20</v>
-      </c>
-      <c r="E101" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B102" t="s">
-        <v>238</v>
-      </c>
-      <c r="C102" t="s">
-        <v>239</v>
-      </c>
-      <c r="D102" t="s">
-        <v>26</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B103" t="s">
-        <v>240</v>
-      </c>
-      <c r="C103" t="s">
-        <v>241</v>
-      </c>
-      <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B104" t="s">
-        <v>242</v>
-      </c>
-      <c r="C104" t="s">
-        <v>243</v>
-      </c>
-      <c r="D104" t="s">
-        <v>244</v>
-      </c>
-      <c r="E104" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B105" t="s">
-        <v>245</v>
-      </c>
-      <c r="C105" t="s">
-        <v>246</v>
-      </c>
-      <c r="D105" t="s">
-        <v>19</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B106" t="s">
-        <v>247</v>
-      </c>
-      <c r="C106" t="s">
-        <v>248</v>
-      </c>
-      <c r="D106" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B107" t="s">
-        <v>249</v>
-      </c>
-      <c r="C107" t="s">
-        <v>250</v>
-      </c>
-      <c r="D107" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B108" t="s">
-        <v>251</v>
-      </c>
-      <c r="C108" t="s">
-        <v>252</v>
-      </c>
-      <c r="D108" t="s">
-        <v>20</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B109" t="s">
-        <v>253</v>
-      </c>
-      <c r="C109" t="s">
-        <v>254</v>
-      </c>
-      <c r="D109" t="s">
-        <v>48</v>
-      </c>
-      <c r="E109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B110" t="s">
-        <v>255</v>
-      </c>
-      <c r="C110" t="s">
-        <v>256</v>
-      </c>
-      <c r="D110" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B111" t="s">
-        <v>257</v>
-      </c>
-      <c r="C111" t="s">
-        <v>258</v>
-      </c>
-      <c r="D111" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" t="s">
-        <v>103</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B112" t="s">
-        <v>259</v>
-      </c>
-      <c r="C112" t="s">
-        <v>260</v>
-      </c>
-      <c r="D112" t="s">
-        <v>160</v>
-      </c>
-      <c r="E112" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B113" t="s">
-        <v>261</v>
-      </c>
-      <c r="C113" t="s">
-        <v>262</v>
-      </c>
-      <c r="D113" t="s">
-        <v>16</v>
-      </c>
-      <c r="E113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B114" t="s">
-        <v>263</v>
-      </c>
-      <c r="C114" t="s">
-        <v>264</v>
-      </c>
-      <c r="D114" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B115" t="s">
-        <v>265</v>
-      </c>
-      <c r="C115" t="s">
-        <v>266</v>
-      </c>
-      <c r="D115" t="s">
-        <v>140</v>
-      </c>
-      <c r="E115" t="s">
-        <v>10</v>
-      </c>
-      <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B116" t="s">
-        <v>267</v>
-      </c>
-      <c r="C116" t="s">
-        <v>268</v>
-      </c>
-      <c r="D116" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B117" t="s">
-        <v>269</v>
-      </c>
-      <c r="C117" t="s">
-        <v>270</v>
-      </c>
-      <c r="D117" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" t="s">
-        <v>9</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B118" t="s">
-        <v>271</v>
-      </c>
-      <c r="C118" t="s">
-        <v>272</v>
-      </c>
-      <c r="D118" t="s">
-        <v>122</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B119" t="s">
-        <v>273</v>
-      </c>
-      <c r="C119" t="s">
-        <v>274</v>
-      </c>
-      <c r="D119" t="s">
-        <v>140</v>
-      </c>
-      <c r="E119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B120" t="s">
-        <v>275</v>
-      </c>
-      <c r="C120" t="s">
-        <v>276</v>
-      </c>
-      <c r="D120" t="s">
-        <v>16</v>
-      </c>
-      <c r="E120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B121" t="s">
-        <v>277</v>
-      </c>
-      <c r="C121" t="s">
-        <v>278</v>
-      </c>
-      <c r="D121" t="s">
-        <v>7</v>
-      </c>
-      <c r="E121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
-        <v>9</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B122" t="s">
-        <v>279</v>
-      </c>
-      <c r="C122" t="s">
-        <v>280</v>
-      </c>
-      <c r="D122" t="s">
-        <v>140</v>
-      </c>
-      <c r="E122" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B123" t="s">
-        <v>281</v>
-      </c>
-      <c r="C123" t="s">
-        <v>282</v>
-      </c>
-      <c r="D123" t="s">
-        <v>20</v>
-      </c>
-      <c r="E123" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B124" t="s">
-        <v>283</v>
-      </c>
-      <c r="C124" t="s">
-        <v>284</v>
-      </c>
-      <c r="D124" t="s">
-        <v>19</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B125" t="s">
-        <v>285</v>
-      </c>
-      <c r="C125" t="s">
-        <v>286</v>
-      </c>
-      <c r="D125" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B126" t="s">
-        <v>287</v>
-      </c>
-      <c r="C126" t="s">
-        <v>288</v>
-      </c>
-      <c r="D126" t="s">
-        <v>18</v>
-      </c>
-      <c r="E126" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B127" t="s">
-        <v>289</v>
-      </c>
-      <c r="C127" t="s">
-        <v>290</v>
-      </c>
-      <c r="D127" t="s">
-        <v>48</v>
-      </c>
-      <c r="E127" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B128" t="s">
-        <v>291</v>
-      </c>
-      <c r="C128" t="s">
-        <v>292</v>
-      </c>
-      <c r="D128" t="s">
-        <v>140</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B129" t="s">
-        <v>293</v>
-      </c>
-      <c r="C129" t="s">
-        <v>294</v>
-      </c>
-      <c r="D129" t="s">
-        <v>48</v>
-      </c>
-      <c r="E129" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" t="s">
-        <v>25</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B130" t="s">
-        <v>295</v>
-      </c>
-      <c r="C130" t="s">
-        <v>296</v>
-      </c>
-      <c r="D130" t="s">
-        <v>16</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B131" t="s">
-        <v>297</v>
-      </c>
-      <c r="C131" t="s">
-        <v>298</v>
-      </c>
-      <c r="D131" t="s">
-        <v>160</v>
-      </c>
-      <c r="E131" t="s">
-        <v>15</v>
-      </c>
-      <c r="F131" t="s">
-        <v>9</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B132" t="s">
-        <v>299</v>
-      </c>
-      <c r="C132" t="s">
-        <v>300</v>
-      </c>
-      <c r="D132" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>9</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B133" t="s">
-        <v>301</v>
-      </c>
-      <c r="C133" t="s">
-        <v>302</v>
-      </c>
-      <c r="D133" t="s">
-        <v>244</v>
-      </c>
-      <c r="E133" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" t="s">
-        <v>9</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B134" t="s">
-        <v>303</v>
-      </c>
-      <c r="C134" t="s">
-        <v>304</v>
-      </c>
-      <c r="D134" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" t="s">
-        <v>9</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B135" t="s">
-        <v>305</v>
-      </c>
-      <c r="C135" t="s">
-        <v>306</v>
-      </c>
-      <c r="D135" t="s">
-        <v>244</v>
-      </c>
-      <c r="E135" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" t="s">
-        <v>9</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B136" t="s">
-        <v>307</v>
-      </c>
-      <c r="C136" t="s">
-        <v>308</v>
-      </c>
-      <c r="D136" t="s">
-        <v>16</v>
-      </c>
-      <c r="E136" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" t="s">
-        <v>9</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B137" t="s">
-        <v>309</v>
-      </c>
-      <c r="C137" t="s">
-        <v>310</v>
-      </c>
-      <c r="D137" t="s">
-        <v>122</v>
-      </c>
-      <c r="E137" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" t="s">
-        <v>9</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B138" t="s">
-        <v>311</v>
-      </c>
-      <c r="C138" t="s">
-        <v>312</v>
-      </c>
-      <c r="D138" t="s">
-        <v>11</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>9</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B139" t="s">
-        <v>313</v>
-      </c>
-      <c r="C139" t="s">
-        <v>314</v>
-      </c>
-      <c r="D139" t="s">
-        <v>20</v>
-      </c>
-      <c r="E139" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" t="s">
-        <v>9</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B140" t="s">
-        <v>315</v>
-      </c>
-      <c r="C140" t="s">
-        <v>316</v>
-      </c>
-      <c r="D140" t="s">
-        <v>19</v>
-      </c>
-      <c r="E140" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" t="s">
-        <v>9</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B141" t="s">
-        <v>317</v>
-      </c>
-      <c r="C141" t="s">
-        <v>318</v>
-      </c>
-      <c r="D141" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" t="s">
-        <v>9</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>46028</v>
-      </c>
-      <c r="B142" t="s">
-        <v>319</v>
-      </c>
-      <c r="C142" t="s">
-        <v>320</v>
-      </c>
-      <c r="D142" t="s">
-        <v>140</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" t="s">
-        <v>9</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>46029</v>
-      </c>
-      <c r="B143" t="s">
-        <v>321</v>
-      </c>
-      <c r="C143" t="s">
-        <v>322</v>
-      </c>
-      <c r="D143" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" t="s">
-        <v>9</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>46029</v>
-      </c>
-      <c r="B144" t="s">
-        <v>323</v>
-      </c>
-      <c r="C144" t="s">
-        <v>324</v>
-      </c>
-      <c r="D144" t="s">
-        <v>48</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="s">
-        <v>9</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>46029</v>
-      </c>
-      <c r="B145" t="s">
-        <v>325</v>
-      </c>
-      <c r="C145" t="s">
-        <v>326</v>
-      </c>
-      <c r="D145" t="s">
-        <v>140</v>
-      </c>
-      <c r="E145" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" t="s">
-        <v>9</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>46029</v>
-      </c>
-      <c r="B146" t="s">
-        <v>327</v>
-      </c>
-      <c r="C146" t="s">
-        <v>328</v>
-      </c>
-      <c r="D146" t="s">
-        <v>18</v>
-      </c>
-      <c r="E146" t="s">
-        <v>15</v>
-      </c>
-      <c r="F146" t="s">
-        <v>9</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>46029</v>
-      </c>
-      <c r="B147" t="s">
-        <v>329</v>
-      </c>
-      <c r="C147" t="s">
-        <v>330</v>
-      </c>
-      <c r="D147" t="s">
-        <v>20</v>
-      </c>
-      <c r="E147" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" t="s">
-        <v>9</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E273" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">

--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E120352-1C4B-4879-B7D8-58E05E4B9665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C07760-3A04-436E-9C2F-7C91773195BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="1830" windowWidth="20730" windowHeight="11160" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="577">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -1746,6 +1746,27 @@
   </si>
   <si>
     <t>Ata de eleicao da diretoria atualizada e registrado no orgao competente&lt;br&gt;&lt;br&gt;Estatuto social atualizado e registrado no orgao competente</t>
+  </si>
+  <si>
+    <t>STATUS_ABERTURA</t>
+  </si>
+  <si>
+    <t>REPROVADA</t>
+  </si>
+  <si>
+    <t>APROVADA</t>
+  </si>
+  <si>
+    <t>Ainda nao iniciou a abertura de conta</t>
+  </si>
+  <si>
+    <t>PENDÊNCIA DOC</t>
+  </si>
+  <si>
+    <t>CARIMBADA</t>
+  </si>
+  <si>
+    <t>ANÁLISE</t>
   </si>
 </sst>
 </file>
@@ -2117,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:F1330"/>
+  <dimension ref="A1:G1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="C273" sqref="C273"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,7 +2149,7 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2145,10 +2166,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>46027</v>
       </c>
@@ -2164,11 +2188,14 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>571</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>46027</v>
       </c>
@@ -2184,11 +2211,14 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>46027</v>
       </c>
@@ -2204,11 +2234,14 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>572</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>46027</v>
       </c>
@@ -2224,11 +2257,14 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>572</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46027</v>
       </c>
@@ -2244,11 +2280,14 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>46027</v>
       </c>
@@ -2264,11 +2303,14 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>46027</v>
       </c>
@@ -2284,11 +2326,14 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>572</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>46027</v>
       </c>
@@ -2304,11 +2349,14 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>572</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>46027</v>
       </c>
@@ -2324,11 +2372,14 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>572</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>46027</v>
       </c>
@@ -2344,11 +2395,14 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>572</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>46027</v>
       </c>
@@ -2364,11 +2418,14 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>572</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>46027</v>
       </c>
@@ -2384,11 +2441,14 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>572</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>46027</v>
       </c>
@@ -2404,11 +2464,14 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>572</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>46027</v>
       </c>
@@ -2424,11 +2487,14 @@
       <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>572</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>46027</v>
       </c>
@@ -2444,11 +2510,14 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>571</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>46027</v>
       </c>
@@ -2464,11 +2533,14 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>572</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>46027</v>
       </c>
@@ -2484,11 +2556,14 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>573</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>46027</v>
       </c>
@@ -2504,11 +2579,14 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>573</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>46027</v>
       </c>
@@ -2524,11 +2602,14 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>573</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>46027</v>
       </c>
@@ -2544,11 +2625,14 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>572</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>46027</v>
       </c>
@@ -2564,11 +2648,14 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>571</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>46027</v>
       </c>
@@ -2584,11 +2671,14 @@
       <c r="E23" t="s">
         <v>7</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>572</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>46027</v>
       </c>
@@ -2604,11 +2694,14 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>572</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46027</v>
       </c>
@@ -2624,11 +2717,14 @@
       <c r="E25" t="s">
         <v>21</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>572</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46027</v>
       </c>
@@ -2644,11 +2740,14 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>572</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46027</v>
       </c>
@@ -2664,11 +2763,14 @@
       <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>572</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46027</v>
       </c>
@@ -2684,11 +2786,14 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>572</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46028</v>
       </c>
@@ -2704,11 +2809,14 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>572</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46028</v>
       </c>
@@ -2724,11 +2832,14 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>572</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46028</v>
       </c>
@@ -2744,11 +2855,14 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>572</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>46028</v>
       </c>
@@ -2764,11 +2878,14 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>572</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>46028</v>
       </c>
@@ -2784,11 +2901,14 @@
       <c r="E33" t="s">
         <v>20</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>572</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>46028</v>
       </c>
@@ -2804,11 +2924,14 @@
       <c r="E34" t="s">
         <v>20</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>572</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46028</v>
       </c>
@@ -2824,11 +2947,14 @@
       <c r="E35" t="s">
         <v>8</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>572</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>46028</v>
       </c>
@@ -2844,11 +2970,14 @@
       <c r="E36" t="s">
         <v>19</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>572</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>46028</v>
       </c>
@@ -2864,11 +2993,14 @@
       <c r="E37" t="s">
         <v>19</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>46028</v>
       </c>
@@ -2884,11 +3016,14 @@
       <c r="E38" t="s">
         <v>19</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>572</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>46028</v>
       </c>
@@ -2904,11 +3039,14 @@
       <c r="E39" t="s">
         <v>102</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>572</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>46028</v>
       </c>
@@ -2924,11 +3062,14 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>572</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>46028</v>
       </c>
@@ -2944,11 +3085,14 @@
       <c r="E41" t="s">
         <v>102</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>574</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>46028</v>
       </c>
@@ -2964,11 +3108,14 @@
       <c r="E42" t="s">
         <v>8</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>572</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>46028</v>
       </c>
@@ -2984,11 +3131,14 @@
       <c r="E43" t="s">
         <v>12</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>572</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>46028</v>
       </c>
@@ -3004,11 +3154,14 @@
       <c r="E44" t="s">
         <v>7</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>572</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46028</v>
       </c>
@@ -3024,11 +3177,14 @@
       <c r="E45" t="s">
         <v>8</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>573</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46028</v>
       </c>
@@ -3044,11 +3200,14 @@
       <c r="E46" t="s">
         <v>8</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>572</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46028</v>
       </c>
@@ -3064,11 +3223,14 @@
       <c r="E47" t="s">
         <v>8</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>572</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46028</v>
       </c>
@@ -3084,11 +3246,14 @@
       <c r="E48" t="s">
         <v>8</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>572</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46028</v>
       </c>
@@ -3104,11 +3269,14 @@
       <c r="E49" t="s">
         <v>7</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>572</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>46028</v>
       </c>
@@ -3124,11 +3292,14 @@
       <c r="E50" t="s">
         <v>8</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>572</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>46028</v>
       </c>
@@ -3144,11 +3315,14 @@
       <c r="E51" t="s">
         <v>8</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>572</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>46028</v>
       </c>
@@ -3164,11 +3338,14 @@
       <c r="E52" t="s">
         <v>8</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>572</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>46028</v>
       </c>
@@ -3184,11 +3361,14 @@
       <c r="E53" t="s">
         <v>8</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>572</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>46028</v>
       </c>
@@ -3204,11 +3384,14 @@
       <c r="E54" t="s">
         <v>8</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>572</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>46028</v>
       </c>
@@ -3224,11 +3407,14 @@
       <c r="E55" t="s">
         <v>8</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>572</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>46028</v>
       </c>
@@ -3244,11 +3430,14 @@
       <c r="E56" t="s">
         <v>8</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>572</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>46028</v>
       </c>
@@ -3264,11 +3453,14 @@
       <c r="E57" t="s">
         <v>8</v>
       </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>572</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>46028</v>
       </c>
@@ -3284,11 +3476,14 @@
       <c r="E58" t="s">
         <v>8</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>572</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>46028</v>
       </c>
@@ -3304,11 +3499,14 @@
       <c r="E59" t="s">
         <v>8</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>572</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>46028</v>
       </c>
@@ -3324,11 +3522,14 @@
       <c r="E60" t="s">
         <v>8</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>572</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>46028</v>
       </c>
@@ -3344,11 +3545,14 @@
       <c r="E61" t="s">
         <v>8</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>572</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>46028</v>
       </c>
@@ -3364,11 +3568,14 @@
       <c r="E62" t="s">
         <v>8</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>572</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>46028</v>
       </c>
@@ -3384,11 +3591,14 @@
       <c r="E63" t="s">
         <v>12</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>572</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>46028</v>
       </c>
@@ -3404,11 +3614,14 @@
       <c r="E64" t="s">
         <v>7</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>572</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>46028</v>
       </c>
@@ -3424,11 +3637,14 @@
       <c r="E65" t="s">
         <v>8</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>573</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>46028</v>
       </c>
@@ -3444,11 +3660,14 @@
       <c r="E66" t="s">
         <v>8</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>573</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>46028</v>
       </c>
@@ -3464,11 +3683,14 @@
       <c r="E67" t="s">
         <v>12</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>572</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>46028</v>
       </c>
@@ -3484,11 +3706,14 @@
       <c r="E68" t="s">
         <v>8</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>572</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>46028</v>
       </c>
@@ -3504,11 +3729,14 @@
       <c r="E69" t="s">
         <v>8</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>571</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>46028</v>
       </c>
@@ -3524,11 +3752,14 @@
       <c r="E70" t="s">
         <v>8</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>572</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>46028</v>
       </c>
@@ -3544,11 +3775,14 @@
       <c r="E71" t="s">
         <v>8</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>572</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>46028</v>
       </c>
@@ -3564,11 +3798,14 @@
       <c r="E72" t="s">
         <v>8</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>572</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>46028</v>
       </c>
@@ -3584,11 +3821,14 @@
       <c r="E73" t="s">
         <v>8</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>572</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>46028</v>
       </c>
@@ -3604,11 +3844,14 @@
       <c r="E74" t="s">
         <v>8</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>571</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>46028</v>
       </c>
@@ -3624,11 +3867,14 @@
       <c r="E75" t="s">
         <v>8</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>572</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>46028</v>
       </c>
@@ -3644,11 +3890,14 @@
       <c r="E76" t="s">
         <v>8</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>572</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>46028</v>
       </c>
@@ -3664,11 +3913,14 @@
       <c r="E77" t="s">
         <v>8</v>
       </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>572</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>46028</v>
       </c>
@@ -3684,11 +3936,14 @@
       <c r="E78" t="s">
         <v>8</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>572</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>46028</v>
       </c>
@@ -3704,11 +3959,14 @@
       <c r="E79" t="s">
         <v>8</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>572</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>46028</v>
       </c>
@@ -3724,11 +3982,14 @@
       <c r="E80" t="s">
         <v>8</v>
       </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>572</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>46028</v>
       </c>
@@ -3744,11 +4005,14 @@
       <c r="E81" t="s">
         <v>8</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>572</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>46028</v>
       </c>
@@ -3764,11 +4028,14 @@
       <c r="E82" t="s">
         <v>7</v>
       </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>572</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>46028</v>
       </c>
@@ -3784,11 +4051,14 @@
       <c r="E83" t="s">
         <v>8</v>
       </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>572</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>46028</v>
       </c>
@@ -3804,11 +4074,14 @@
       <c r="E84" t="s">
         <v>8</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>572</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>46028</v>
       </c>
@@ -3824,11 +4097,14 @@
       <c r="E85" t="s">
         <v>8</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>572</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>46028</v>
       </c>
@@ -3845,10 +4121,13 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
+        <v>574</v>
+      </c>
+      <c r="G86" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>46028</v>
       </c>
@@ -3864,11 +4143,14 @@
       <c r="E87" t="s">
         <v>12</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>572</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>46028</v>
       </c>
@@ -3884,11 +4166,14 @@
       <c r="E88" t="s">
         <v>8</v>
       </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>572</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>46028</v>
       </c>
@@ -3904,11 +4189,14 @@
       <c r="E89" t="s">
         <v>12</v>
       </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>572</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>46028</v>
       </c>
@@ -3924,11 +4212,14 @@
       <c r="E90" t="s">
         <v>8</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>573</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>46028</v>
       </c>
@@ -3944,11 +4235,14 @@
       <c r="E91" t="s">
         <v>7</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>572</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>46028</v>
       </c>
@@ -3964,8 +4258,11 @@
       <c r="E92" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>46028</v>
       </c>
@@ -3981,11 +4278,14 @@
       <c r="E93" t="s">
         <v>21</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>572</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>46028</v>
       </c>
@@ -4001,11 +4301,14 @@
       <c r="E94" t="s">
         <v>8</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>572</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>46028</v>
       </c>
@@ -4021,11 +4324,14 @@
       <c r="E95" t="s">
         <v>8</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>572</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>46028</v>
       </c>
@@ -4041,11 +4347,14 @@
       <c r="E96" t="s">
         <v>12</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>572</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>46028</v>
       </c>
@@ -4061,11 +4370,14 @@
       <c r="E97" t="s">
         <v>8</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>572</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>46028</v>
       </c>
@@ -4081,11 +4393,14 @@
       <c r="E98" t="s">
         <v>8</v>
       </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>572</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>46028</v>
       </c>
@@ -4101,11 +4416,14 @@
       <c r="E99" t="s">
         <v>8</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>572</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>46028</v>
       </c>
@@ -4121,11 +4439,14 @@
       <c r="E100" t="s">
         <v>8</v>
       </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>572</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>46028</v>
       </c>
@@ -4141,11 +4462,14 @@
       <c r="E101" t="s">
         <v>8</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>572</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>46028</v>
       </c>
@@ -4161,11 +4485,14 @@
       <c r="E102" t="s">
         <v>8</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>572</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>46028</v>
       </c>
@@ -4181,11 +4508,14 @@
       <c r="E103" t="s">
         <v>8</v>
       </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>572</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>46028</v>
       </c>
@@ -4201,11 +4531,14 @@
       <c r="E104" t="s">
         <v>7</v>
       </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>572</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>46028</v>
       </c>
@@ -4221,11 +4554,14 @@
       <c r="E105" t="s">
         <v>8</v>
       </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>572</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>46028</v>
       </c>
@@ -4241,11 +4577,14 @@
       <c r="E106" t="s">
         <v>21</v>
       </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>572</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>46028</v>
       </c>
@@ -4261,11 +4600,14 @@
       <c r="E107" t="s">
         <v>8</v>
       </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>572</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>46028</v>
       </c>
@@ -4281,11 +4623,14 @@
       <c r="E108" t="s">
         <v>8</v>
       </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>572</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>46028</v>
       </c>
@@ -4301,11 +4646,14 @@
       <c r="E109" t="s">
         <v>8</v>
       </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>572</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>46028</v>
       </c>
@@ -4321,11 +4669,14 @@
       <c r="E110" t="s">
         <v>8</v>
       </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>572</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>46028</v>
       </c>
@@ -4341,11 +4692,14 @@
       <c r="E111" t="s">
         <v>8</v>
       </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>573</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>46028</v>
       </c>
@@ -4361,11 +4715,14 @@
       <c r="E112" t="s">
         <v>12</v>
       </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>572</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>46028</v>
       </c>
@@ -4381,11 +4738,14 @@
       <c r="E113" t="s">
         <v>8</v>
       </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>572</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>46028</v>
       </c>
@@ -4401,11 +4761,14 @@
       <c r="E114" t="s">
         <v>8</v>
       </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>571</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>46028</v>
       </c>
@@ -4421,11 +4784,14 @@
       <c r="E115" t="s">
         <v>8</v>
       </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>571</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>46028</v>
       </c>
@@ -4441,11 +4807,14 @@
       <c r="E116" t="s">
         <v>8</v>
       </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>572</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>46028</v>
       </c>
@@ -4461,11 +4830,14 @@
       <c r="E117" t="s">
         <v>8</v>
       </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>572</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>46028</v>
       </c>
@@ -4481,11 +4853,14 @@
       <c r="E118" t="s">
         <v>8</v>
       </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>572</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>46028</v>
       </c>
@@ -4501,11 +4876,14 @@
       <c r="E119" t="s">
         <v>8</v>
       </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>572</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>46028</v>
       </c>
@@ -4521,11 +4899,14 @@
       <c r="E120" t="s">
         <v>8</v>
       </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>572</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>46028</v>
       </c>
@@ -4541,11 +4922,14 @@
       <c r="E121" t="s">
         <v>8</v>
       </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>572</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>46028</v>
       </c>
@@ -4561,11 +4945,14 @@
       <c r="E122" t="s">
         <v>8</v>
       </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>572</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>46028</v>
       </c>
@@ -4581,11 +4968,14 @@
       <c r="E123" t="s">
         <v>8</v>
       </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>571</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>46028</v>
       </c>
@@ -4601,11 +4991,14 @@
       <c r="E124" t="s">
         <v>8</v>
       </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>572</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>46028</v>
       </c>
@@ -4621,11 +5014,14 @@
       <c r="E125" t="s">
         <v>8</v>
       </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>571</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>46028</v>
       </c>
@@ -4641,11 +5037,14 @@
       <c r="E126" t="s">
         <v>12</v>
       </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>572</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>46028</v>
       </c>
@@ -4661,11 +5060,14 @@
       <c r="E127" t="s">
         <v>8</v>
       </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>572</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>46028</v>
       </c>
@@ -4681,11 +5083,14 @@
       <c r="E128" t="s">
         <v>8</v>
       </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>572</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>46028</v>
       </c>
@@ -4701,11 +5106,14 @@
       <c r="E129" t="s">
         <v>8</v>
       </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>576</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>46028</v>
       </c>
@@ -4721,11 +5129,14 @@
       <c r="E130" t="s">
         <v>8</v>
       </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>572</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>46028</v>
       </c>
@@ -4741,11 +5152,14 @@
       <c r="E131" t="s">
         <v>12</v>
       </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>572</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>46028</v>
       </c>
@@ -4761,11 +5175,14 @@
       <c r="E132" t="s">
         <v>8</v>
       </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>572</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>46028</v>
       </c>
@@ -4781,11 +5198,14 @@
       <c r="E133" t="s">
         <v>7</v>
       </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>572</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>46028</v>
       </c>
@@ -4801,11 +5221,14 @@
       <c r="E134" t="s">
         <v>8</v>
       </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>572</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>46028</v>
       </c>
@@ -4821,11 +5244,14 @@
       <c r="E135" t="s">
         <v>7</v>
       </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>572</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>46028</v>
       </c>
@@ -4841,11 +5267,14 @@
       <c r="E136" t="s">
         <v>8</v>
       </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>572</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>46028</v>
       </c>
@@ -4861,11 +5290,14 @@
       <c r="E137" t="s">
         <v>8</v>
       </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>572</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>46028</v>
       </c>
@@ -4881,11 +5313,14 @@
       <c r="E138" t="s">
         <v>8</v>
       </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>572</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>46028</v>
       </c>
@@ -4901,11 +5336,14 @@
       <c r="E139" t="s">
         <v>8</v>
       </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>572</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>46028</v>
       </c>
@@ -4921,11 +5359,14 @@
       <c r="E140" t="s">
         <v>8</v>
       </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>572</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>46028</v>
       </c>
@@ -4941,11 +5382,14 @@
       <c r="E141" t="s">
         <v>8</v>
       </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>572</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>46028</v>
       </c>
@@ -4961,11 +5405,14 @@
       <c r="E142" t="s">
         <v>8</v>
       </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>572</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>46029</v>
       </c>
@@ -4981,11 +5428,14 @@
       <c r="E143" t="s">
         <v>8</v>
       </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>572</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>46029</v>
       </c>
@@ -5001,11 +5451,14 @@
       <c r="E144" t="s">
         <v>8</v>
       </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>572</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>46029</v>
       </c>
@@ -5021,11 +5474,14 @@
       <c r="E145" t="s">
         <v>8</v>
       </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>572</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>46029</v>
       </c>
@@ -5041,11 +5497,14 @@
       <c r="E146" t="s">
         <v>12</v>
       </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>572</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>46029</v>
       </c>
@@ -5061,11 +5520,14 @@
       <c r="E147" t="s">
         <v>8</v>
       </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>572</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>46029</v>
       </c>
@@ -5081,11 +5543,14 @@
       <c r="E148" t="s">
         <v>8</v>
       </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>572</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>46029</v>
       </c>
@@ -5101,11 +5566,14 @@
       <c r="E149" t="s">
         <v>8</v>
       </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>572</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>46029</v>
       </c>
@@ -5121,11 +5589,14 @@
       <c r="E150" t="s">
         <v>8</v>
       </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>572</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>46029</v>
       </c>
@@ -5141,11 +5612,14 @@
       <c r="E151" t="s">
         <v>8</v>
       </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F151" t="s">
+        <v>572</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>46029</v>
       </c>
@@ -5161,8 +5635,11 @@
       <c r="E152" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F152" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>46029</v>
       </c>
@@ -5178,11 +5655,14 @@
       <c r="E153" t="s">
         <v>8</v>
       </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
+        <v>572</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>46029</v>
       </c>
@@ -5198,11 +5678,14 @@
       <c r="E154" t="s">
         <v>8</v>
       </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F154" t="s">
+        <v>572</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>46029</v>
       </c>
@@ -5218,11 +5701,14 @@
       <c r="E155" t="s">
         <v>8</v>
       </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F155" t="s">
+        <v>571</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>46029</v>
       </c>
@@ -5238,11 +5724,14 @@
       <c r="E156" t="s">
         <v>8</v>
       </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F156" t="s">
+        <v>572</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>46029</v>
       </c>
@@ -5258,11 +5747,14 @@
       <c r="E157" t="s">
         <v>12</v>
       </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
+        <v>572</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>46029</v>
       </c>
@@ -5278,11 +5770,14 @@
       <c r="E158" t="s">
         <v>8</v>
       </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F158" t="s">
+        <v>572</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>46029</v>
       </c>
@@ -5298,11 +5793,14 @@
       <c r="E159" t="s">
         <v>8</v>
       </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F159" t="s">
+        <v>572</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>46029</v>
       </c>
@@ -5318,11 +5816,14 @@
       <c r="E160" t="s">
         <v>8</v>
       </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F160" t="s">
+        <v>576</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>46029</v>
       </c>
@@ -5338,11 +5839,14 @@
       <c r="E161" t="s">
         <v>8</v>
       </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
+        <v>572</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>46029</v>
       </c>
@@ -5358,11 +5862,14 @@
       <c r="E162" t="s">
         <v>7</v>
       </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F162" t="s">
+        <v>572</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>46029</v>
       </c>
@@ -5378,11 +5885,14 @@
       <c r="E163" t="s">
         <v>12</v>
       </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F163" t="s">
+        <v>576</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>46029</v>
       </c>
@@ -5398,11 +5908,14 @@
       <c r="E164" t="s">
         <v>8</v>
       </c>
-      <c r="F164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F164" t="s">
+        <v>572</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>46029</v>
       </c>
@@ -5418,11 +5931,14 @@
       <c r="E165" t="s">
         <v>8</v>
       </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F165" t="s">
+        <v>572</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>46029</v>
       </c>
@@ -5438,11 +5954,14 @@
       <c r="E166" t="s">
         <v>8</v>
       </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F166" t="s">
+        <v>572</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>46029</v>
       </c>
@@ -5458,11 +5977,14 @@
       <c r="E167" t="s">
         <v>8</v>
       </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>571</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>46029</v>
       </c>
@@ -5478,11 +6000,14 @@
       <c r="E168" t="s">
         <v>7</v>
       </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F168" t="s">
+        <v>572</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>46029</v>
       </c>
@@ -5498,11 +6023,14 @@
       <c r="E169" t="s">
         <v>8</v>
       </c>
-      <c r="F169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F169" t="s">
+        <v>572</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>46029</v>
       </c>
@@ -5518,11 +6046,14 @@
       <c r="E170" t="s">
         <v>8</v>
       </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F170" t="s">
+        <v>572</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>46029</v>
       </c>
@@ -5538,11 +6069,14 @@
       <c r="E171" t="s">
         <v>8</v>
       </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F171" t="s">
+        <v>572</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>46029</v>
       </c>
@@ -5558,11 +6092,14 @@
       <c r="E172" t="s">
         <v>8</v>
       </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F172" t="s">
+        <v>572</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>46029</v>
       </c>
@@ -5578,11 +6115,14 @@
       <c r="E173" t="s">
         <v>8</v>
       </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F173" t="s">
+        <v>572</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>46029</v>
       </c>
@@ -5598,11 +6138,14 @@
       <c r="E174" t="s">
         <v>8</v>
       </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F174" t="s">
+        <v>576</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>46029</v>
       </c>
@@ -5618,11 +6161,14 @@
       <c r="E175" t="s">
         <v>8</v>
       </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F175" t="s">
+        <v>572</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>46029</v>
       </c>
@@ -5638,11 +6184,14 @@
       <c r="E176" t="s">
         <v>8</v>
       </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F176" t="s">
+        <v>572</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>46029</v>
       </c>
@@ -5658,11 +6207,14 @@
       <c r="E177" t="s">
         <v>7</v>
       </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F177" t="s">
+        <v>572</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>46029</v>
       </c>
@@ -5678,11 +6230,14 @@
       <c r="E178" t="s">
         <v>7</v>
       </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F178" t="s">
+        <v>572</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>46029</v>
       </c>
@@ -5698,11 +6253,14 @@
       <c r="E179" t="s">
         <v>8</v>
       </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F179" t="s">
+        <v>572</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>46029</v>
       </c>
@@ -5718,11 +6276,14 @@
       <c r="E180" t="s">
         <v>8</v>
       </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F180" t="s">
+        <v>572</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>46029</v>
       </c>
@@ -5738,11 +6299,14 @@
       <c r="E181" t="s">
         <v>8</v>
       </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F181" t="s">
+        <v>576</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>46029</v>
       </c>
@@ -5758,11 +6322,14 @@
       <c r="E182" t="s">
         <v>8</v>
       </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F182" t="s">
+        <v>572</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>46029</v>
       </c>
@@ -5778,11 +6345,14 @@
       <c r="E183" t="s">
         <v>8</v>
       </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F183" t="s">
+        <v>572</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>46029</v>
       </c>
@@ -5798,11 +6368,14 @@
       <c r="E184" t="s">
         <v>8</v>
       </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F184" t="s">
+        <v>571</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>46029</v>
       </c>
@@ -5818,11 +6391,14 @@
       <c r="E185" t="s">
         <v>8</v>
       </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F185" t="s">
+        <v>571</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>46029</v>
       </c>
@@ -5838,11 +6414,14 @@
       <c r="E186" t="s">
         <v>7</v>
       </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F186" t="s">
+        <v>576</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>46029</v>
       </c>
@@ -5858,11 +6437,14 @@
       <c r="E187" t="s">
         <v>7</v>
       </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
+        <v>572</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>46029</v>
       </c>
@@ -5878,11 +6460,14 @@
       <c r="E188" t="s">
         <v>7</v>
       </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F188" t="s">
+        <v>576</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>46029</v>
       </c>
@@ -5898,8 +6483,11 @@
       <c r="E189" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F189" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>46029</v>
       </c>
@@ -5915,11 +6503,14 @@
       <c r="E190" t="s">
         <v>8</v>
       </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F190" t="s">
+        <v>572</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>46029</v>
       </c>
@@ -5935,11 +6526,14 @@
       <c r="E191" t="s">
         <v>8</v>
       </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F191" t="s">
+        <v>572</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>46029</v>
       </c>
@@ -5955,11 +6549,14 @@
       <c r="E192" t="s">
         <v>8</v>
       </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F192" t="s">
+        <v>572</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>46029</v>
       </c>
@@ -5975,11 +6572,14 @@
       <c r="E193" t="s">
         <v>102</v>
       </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F193" t="s">
+        <v>572</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>46029</v>
       </c>
@@ -5995,11 +6595,14 @@
       <c r="E194" t="s">
         <v>12</v>
       </c>
-      <c r="F194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F194" t="s">
+        <v>572</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>46029</v>
       </c>
@@ -6015,11 +6618,14 @@
       <c r="E195" t="s">
         <v>8</v>
       </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F195" t="s">
+        <v>576</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>46029</v>
       </c>
@@ -6035,11 +6641,14 @@
       <c r="E196" t="s">
         <v>8</v>
       </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F196" t="s">
+        <v>572</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>46029</v>
       </c>
@@ -6055,11 +6664,14 @@
       <c r="E197" t="s">
         <v>8</v>
       </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F197" t="s">
+        <v>572</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>46029</v>
       </c>
@@ -6075,11 +6687,14 @@
       <c r="E198" t="s">
         <v>8</v>
       </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F198" t="s">
+        <v>576</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>46029</v>
       </c>
@@ -6095,11 +6710,14 @@
       <c r="E199" t="s">
         <v>8</v>
       </c>
-      <c r="F199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F199" t="s">
+        <v>576</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>46029</v>
       </c>
@@ -6115,11 +6733,14 @@
       <c r="E200" t="s">
         <v>8</v>
       </c>
-      <c r="F200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F200" t="s">
+        <v>571</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>46029</v>
       </c>
@@ -6135,11 +6756,14 @@
       <c r="E201" t="s">
         <v>8</v>
       </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F201" t="s">
+        <v>572</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>46029</v>
       </c>
@@ -6155,11 +6779,14 @@
       <c r="E202" t="s">
         <v>8</v>
       </c>
-      <c r="F202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F202" t="s">
+        <v>572</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>46029</v>
       </c>
@@ -6175,11 +6802,14 @@
       <c r="E203" t="s">
         <v>8</v>
       </c>
-      <c r="F203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F203" t="s">
+        <v>572</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>46029</v>
       </c>
@@ -6195,11 +6825,14 @@
       <c r="E204" t="s">
         <v>8</v>
       </c>
-      <c r="F204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F204" t="s">
+        <v>572</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>46029</v>
       </c>
@@ -6215,11 +6848,14 @@
       <c r="E205" t="s">
         <v>8</v>
       </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F205" t="s">
+        <v>571</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>46029</v>
       </c>
@@ -6235,11 +6871,14 @@
       <c r="E206" t="s">
         <v>8</v>
       </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F206" t="s">
+        <v>576</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>46029</v>
       </c>
@@ -6255,11 +6894,14 @@
       <c r="E207" t="s">
         <v>8</v>
       </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F207" t="s">
+        <v>572</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>46029</v>
       </c>
@@ -6275,11 +6917,14 @@
       <c r="E208" t="s">
         <v>8</v>
       </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F208" t="s">
+        <v>572</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>46029</v>
       </c>
@@ -6295,11 +6940,14 @@
       <c r="E209" t="s">
         <v>8</v>
       </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F209" t="s">
+        <v>572</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>46029</v>
       </c>
@@ -6315,11 +6963,14 @@
       <c r="E210" t="s">
         <v>8</v>
       </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F210" t="s">
+        <v>571</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>46029</v>
       </c>
@@ -6335,11 +6986,14 @@
       <c r="E211" t="s">
         <v>7</v>
       </c>
-      <c r="F211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F211" t="s">
+        <v>572</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>46029</v>
       </c>
@@ -6355,11 +7009,14 @@
       <c r="E212" t="s">
         <v>8</v>
       </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F212" t="s">
+        <v>571</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>46029</v>
       </c>
@@ -6376,10 +7033,13 @@
         <v>8</v>
       </c>
       <c r="F213" t="s">
+        <v>576</v>
+      </c>
+      <c r="G213" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>46029</v>
       </c>
@@ -6395,11 +7055,14 @@
       <c r="E214" t="s">
         <v>8</v>
       </c>
-      <c r="F214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F214" t="s">
+        <v>571</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>46029</v>
       </c>
@@ -6415,11 +7078,14 @@
       <c r="E215" t="s">
         <v>8</v>
       </c>
-      <c r="F215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F215" t="s">
+        <v>572</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>46029</v>
       </c>
@@ -6435,11 +7101,14 @@
       <c r="E216" t="s">
         <v>7</v>
       </c>
-      <c r="F216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F216" t="s">
+        <v>572</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>46029</v>
       </c>
@@ -6455,11 +7124,14 @@
       <c r="E217" t="s">
         <v>8</v>
       </c>
-      <c r="F217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F217" t="s">
+        <v>572</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>46029</v>
       </c>
@@ -6475,8 +7147,11 @@
       <c r="E218" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F218" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>46029</v>
       </c>
@@ -6492,11 +7167,14 @@
       <c r="E219" t="s">
         <v>8</v>
       </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F219" t="s">
+        <v>572</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>46029</v>
       </c>
@@ -6512,11 +7190,14 @@
       <c r="E220" t="s">
         <v>8</v>
       </c>
-      <c r="F220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F220" t="s">
+        <v>571</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>46029</v>
       </c>
@@ -6532,11 +7213,14 @@
       <c r="E221" t="s">
         <v>8</v>
       </c>
-      <c r="F221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F221" t="s">
+        <v>571</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>46029</v>
       </c>
@@ -6552,11 +7236,14 @@
       <c r="E222" t="s">
         <v>8</v>
       </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F222" t="s">
+        <v>571</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>46029</v>
       </c>
@@ -6572,11 +7259,14 @@
       <c r="E223" t="s">
         <v>21</v>
       </c>
-      <c r="F223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F223" t="s">
+        <v>572</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>46029</v>
       </c>
@@ -6592,11 +7282,14 @@
       <c r="E224" t="s">
         <v>8</v>
       </c>
-      <c r="F224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F224" t="s">
+        <v>572</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>46029</v>
       </c>
@@ -6612,11 +7305,14 @@
       <c r="E225" t="s">
         <v>7</v>
       </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F225" t="s">
+        <v>572</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>46029</v>
       </c>
@@ -6632,11 +7328,14 @@
       <c r="E226" t="s">
         <v>7</v>
       </c>
-      <c r="F226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F226" t="s">
+        <v>576</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>46029</v>
       </c>
@@ -6652,11 +7351,14 @@
       <c r="E227" t="s">
         <v>8</v>
       </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F227" t="s">
+        <v>571</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>46029</v>
       </c>
@@ -6672,11 +7374,14 @@
       <c r="E228" t="s">
         <v>8</v>
       </c>
-      <c r="F228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F228" t="s">
+        <v>572</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>46029</v>
       </c>
@@ -6692,11 +7397,14 @@
       <c r="E229" t="s">
         <v>8</v>
       </c>
-      <c r="F229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F229" t="s">
+        <v>572</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>46029</v>
       </c>
@@ -6712,11 +7420,14 @@
       <c r="E230" t="s">
         <v>8</v>
       </c>
-      <c r="F230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F230" t="s">
+        <v>572</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>46029</v>
       </c>
@@ -6732,11 +7443,14 @@
       <c r="E231" t="s">
         <v>8</v>
       </c>
-      <c r="F231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F231" t="s">
+        <v>572</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>46029</v>
       </c>
@@ -6752,11 +7466,14 @@
       <c r="E232" t="s">
         <v>8</v>
       </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F232" t="s">
+        <v>572</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>46029</v>
       </c>
@@ -6772,11 +7489,14 @@
       <c r="E233" t="s">
         <v>8</v>
       </c>
-      <c r="F233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F233" t="s">
+        <v>576</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>46029</v>
       </c>
@@ -6792,8 +7512,11 @@
       <c r="E234" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F234" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>46029</v>
       </c>
@@ -6809,11 +7532,14 @@
       <c r="E235" t="s">
         <v>8</v>
       </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F235" t="s">
+        <v>576</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>46029</v>
       </c>
@@ -6829,11 +7555,14 @@
       <c r="E236" t="s">
         <v>8</v>
       </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F236" t="s">
+        <v>572</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>46029</v>
       </c>
@@ -6849,11 +7578,14 @@
       <c r="E237" t="s">
         <v>8</v>
       </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F237" t="s">
+        <v>572</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>46029</v>
       </c>
@@ -6869,11 +7601,14 @@
       <c r="E238" t="s">
         <v>8</v>
       </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F238" t="s">
+        <v>572</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>46029</v>
       </c>
@@ -6889,11 +7624,14 @@
       <c r="E239" t="s">
         <v>8</v>
       </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F239" t="s">
+        <v>572</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>46029</v>
       </c>
@@ -6909,11 +7647,14 @@
       <c r="E240" t="s">
         <v>8</v>
       </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F240" t="s">
+        <v>572</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>46029</v>
       </c>
@@ -6929,11 +7670,14 @@
       <c r="E241" t="s">
         <v>8</v>
       </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F241" t="s">
+        <v>576</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>46029</v>
       </c>
@@ -6949,11 +7693,14 @@
       <c r="E242" t="s">
         <v>8</v>
       </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F242" t="s">
+        <v>572</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>46029</v>
       </c>
@@ -6969,11 +7716,14 @@
       <c r="E243" t="s">
         <v>8</v>
       </c>
-      <c r="F243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F243" t="s">
+        <v>572</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>46029</v>
       </c>
@@ -6989,11 +7739,14 @@
       <c r="E244" t="s">
         <v>7</v>
       </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F244" t="s">
+        <v>576</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>46029</v>
       </c>
@@ -7009,11 +7762,14 @@
       <c r="E245" t="s">
         <v>8</v>
       </c>
-      <c r="F245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F245" t="s">
+        <v>572</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>46029</v>
       </c>
@@ -7029,11 +7785,14 @@
       <c r="E246" t="s">
         <v>12</v>
       </c>
-      <c r="F246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F246" t="s">
+        <v>572</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>46029</v>
       </c>
@@ -7049,11 +7808,14 @@
       <c r="E247" t="s">
         <v>8</v>
       </c>
-      <c r="F247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F247" t="s">
+        <v>572</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>46029</v>
       </c>
@@ -7069,11 +7831,14 @@
       <c r="E248" t="s">
         <v>8</v>
       </c>
-      <c r="F248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F248" t="s">
+        <v>572</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>46029</v>
       </c>
@@ -7089,11 +7854,14 @@
       <c r="E249" t="s">
         <v>8</v>
       </c>
-      <c r="F249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F249" t="s">
+        <v>572</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>46029</v>
       </c>
@@ -7109,11 +7877,14 @@
       <c r="E250" t="s">
         <v>8</v>
       </c>
-      <c r="F250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F250" t="s">
+        <v>572</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>46029</v>
       </c>
@@ -7129,11 +7900,14 @@
       <c r="E251" t="s">
         <v>8</v>
       </c>
-      <c r="F251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F251" t="s">
+        <v>572</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>46030</v>
       </c>
@@ -7149,11 +7923,14 @@
       <c r="E252" t="s">
         <v>8</v>
       </c>
-      <c r="F252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F252" t="s">
+        <v>572</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>46030</v>
       </c>
@@ -7169,11 +7946,14 @@
       <c r="E253" t="s">
         <v>8</v>
       </c>
-      <c r="F253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F253" t="s">
+        <v>572</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>46030</v>
       </c>
@@ -7189,11 +7969,14 @@
       <c r="E254" t="s">
         <v>8</v>
       </c>
-      <c r="F254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F254" t="s">
+        <v>572</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>46030</v>
       </c>
@@ -7209,11 +7992,14 @@
       <c r="E255" t="s">
         <v>8</v>
       </c>
-      <c r="F255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F255" t="s">
+        <v>572</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>46030</v>
       </c>
@@ -7229,11 +8015,14 @@
       <c r="E256" t="s">
         <v>8</v>
       </c>
-      <c r="F256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F256" t="s">
+        <v>572</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>46030</v>
       </c>
@@ -7249,11 +8038,14 @@
       <c r="E257" t="s">
         <v>8</v>
       </c>
-      <c r="F257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F257" t="s">
+        <v>572</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>46030</v>
       </c>
@@ -7269,11 +8061,14 @@
       <c r="E258" t="s">
         <v>12</v>
       </c>
-      <c r="F258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F258" t="s">
+        <v>572</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>46030</v>
       </c>
@@ -7289,11 +8084,14 @@
       <c r="E259" t="s">
         <v>8</v>
       </c>
-      <c r="F259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F259" t="s">
+        <v>572</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>46030</v>
       </c>
@@ -7309,11 +8107,14 @@
       <c r="E260" t="s">
         <v>8</v>
       </c>
-      <c r="F260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F260" t="s">
+        <v>572</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>46030</v>
       </c>
@@ -7329,11 +8130,14 @@
       <c r="E261" t="s">
         <v>8</v>
       </c>
-      <c r="F261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F261" t="s">
+        <v>572</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>46030</v>
       </c>
@@ -7349,11 +8153,14 @@
       <c r="E262" t="s">
         <v>8</v>
       </c>
-      <c r="F262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F262" t="s">
+        <v>572</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>46030</v>
       </c>
@@ -7369,11 +8176,14 @@
       <c r="E263" t="s">
         <v>8</v>
       </c>
-      <c r="F263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F263" t="s">
+        <v>572</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>46030</v>
       </c>
@@ -7389,11 +8199,14 @@
       <c r="E264" t="s">
         <v>8</v>
       </c>
-      <c r="F264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F264" t="s">
+        <v>572</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>46030</v>
       </c>
@@ -7409,11 +8222,14 @@
       <c r="E265" t="s">
         <v>8</v>
       </c>
-      <c r="F265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F265" t="s">
+        <v>572</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>46030</v>
       </c>
@@ -7429,11 +8245,14 @@
       <c r="E266" t="s">
         <v>8</v>
       </c>
-      <c r="F266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F266" t="s">
+        <v>572</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>46030</v>
       </c>
@@ -7449,11 +8268,14 @@
       <c r="E267" t="s">
         <v>8</v>
       </c>
-      <c r="F267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F267" t="s">
+        <v>572</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>46030</v>
       </c>
@@ -7469,11 +8291,14 @@
       <c r="E268" t="s">
         <v>8</v>
       </c>
-      <c r="F268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F268" t="s">
+        <v>572</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>46030</v>
       </c>
@@ -7489,11 +8314,14 @@
       <c r="E269" t="s">
         <v>8</v>
       </c>
-      <c r="F269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F269" t="s">
+        <v>572</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>46030</v>
       </c>
@@ -7509,11 +8337,14 @@
       <c r="E270" t="s">
         <v>8</v>
       </c>
-      <c r="F270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F270" t="s">
+        <v>572</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>46030</v>
       </c>
@@ -7529,11 +8360,14 @@
       <c r="E271" t="s">
         <v>8</v>
       </c>
-      <c r="F271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F271" t="s">
+        <v>572</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>46030</v>
       </c>
@@ -7549,11 +8383,14 @@
       <c r="E272" t="s">
         <v>8</v>
       </c>
-      <c r="F272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F272" t="s">
+        <v>572</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>46030</v>
       </c>
@@ -7569,53 +8406,56 @@
       <c r="E273" t="s">
         <v>8</v>
       </c>
-      <c r="F273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F273" t="s">
+        <v>572</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">

--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C07760-3A04-436E-9C2F-7C91773195BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655EBD8E-82A2-47DC-A224-4AFD7C8CDE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="1830" windowWidth="20730" windowHeight="11160" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="776">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -1767,6 +1767,603 @@
   </si>
   <si>
     <t>ANÁLISE</t>
+  </si>
+  <si>
+    <t>12226807000126</t>
+  </si>
+  <si>
+    <t>ANDRESA SILVESTRINI DE SOUZA ANDRESA SILVESTRINI DE SOUZA</t>
+  </si>
+  <si>
+    <t>63499179000193</t>
+  </si>
+  <si>
+    <t>NEVILTON JUNIOR MARQUES ANDRADE</t>
+  </si>
+  <si>
+    <t>25066791000183</t>
+  </si>
+  <si>
+    <t>DOUGLAS LIXACOES LTDA</t>
+  </si>
+  <si>
+    <t>25169890000190</t>
+  </si>
+  <si>
+    <t>PAULO ROBERTO DA SILVA</t>
+  </si>
+  <si>
+    <t>09399384000131</t>
+  </si>
+  <si>
+    <t>L &amp; E SOCORRO PARACATU LTDA</t>
+  </si>
+  <si>
+    <t>64302044000159</t>
+  </si>
+  <si>
+    <t>J DE A FREITAS</t>
+  </si>
+  <si>
+    <t>15445426000126</t>
+  </si>
+  <si>
+    <t>LUCIDETE DA SILVA GOMES FERREIRA</t>
+  </si>
+  <si>
+    <t>37438292000159</t>
+  </si>
+  <si>
+    <t>ANA PRISCILA DE SOUZA DA SILVEIRA</t>
+  </si>
+  <si>
+    <t>34239826000120</t>
+  </si>
+  <si>
+    <t>ANA PAULA DE LIMA</t>
+  </si>
+  <si>
+    <t>16991514000196</t>
+  </si>
+  <si>
+    <t>ADRIANA LEITE DE OLIVEIRA CARMO</t>
+  </si>
+  <si>
+    <t>61881309000122</t>
+  </si>
+  <si>
+    <t>J.P. TORRES CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>62583152000111</t>
+  </si>
+  <si>
+    <t>A MOREIRA RODRIGUES MONTAGEM LTDA</t>
+  </si>
+  <si>
+    <t>39302742000107</t>
+  </si>
+  <si>
+    <t>DANIELE GOMES DE JESUS</t>
+  </si>
+  <si>
+    <t>14279358000290</t>
+  </si>
+  <si>
+    <t>E M F DA SILVA DISTRIBUIDORA PECAS E ACESSORIOS AUTOMOTIVOS LTDA</t>
+  </si>
+  <si>
+    <t>31274906000128</t>
+  </si>
+  <si>
+    <t>JOSE S. DOS SANTOS FILHO VESTUARIO</t>
+  </si>
+  <si>
+    <t>61382643000131</t>
+  </si>
+  <si>
+    <t>ANAPOLINO FREIRE DOS SANTOS</t>
+  </si>
+  <si>
+    <t>INVÁLIDA</t>
+  </si>
+  <si>
+    <t>28558431000197</t>
+  </si>
+  <si>
+    <t>EDVAN JOSE PEREIRA</t>
+  </si>
+  <si>
+    <t>57748885000129</t>
+  </si>
+  <si>
+    <t>PEDRO MARCOS RAMOS COSTA TITO DA CRUZ SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>26431286000153</t>
+  </si>
+  <si>
+    <t>LUIZ EDUARDO BOSCHEIRO</t>
+  </si>
+  <si>
+    <t>61909386000143</t>
+  </si>
+  <si>
+    <t>MKM SERVICOS DE APOIO ADMINISTRATIVO LTDA</t>
+  </si>
+  <si>
+    <t>29909259000131</t>
+  </si>
+  <si>
+    <t>RENATO XAVIER BARCELOS</t>
+  </si>
+  <si>
+    <t>15016263000166</t>
+  </si>
+  <si>
+    <t>CLAUDIA COELHO ALBERTASSI D NADAI</t>
+  </si>
+  <si>
+    <t>27865639000196</t>
+  </si>
+  <si>
+    <t>DESCARMAX DISTRIBUIDORA LTDA</t>
+  </si>
+  <si>
+    <t>19261250000103</t>
+  </si>
+  <si>
+    <t>ELIFAS ANDRE REZENDE JARDIM</t>
+  </si>
+  <si>
+    <t>19019525000105</t>
+  </si>
+  <si>
+    <t>NILVAM GABRIEL GONCALVES</t>
+  </si>
+  <si>
+    <t>64302941000162</t>
+  </si>
+  <si>
+    <t>ATTIVA BRINDES E PERSONALIZACAO LTDA</t>
+  </si>
+  <si>
+    <t>10573013000103</t>
+  </si>
+  <si>
+    <t>DISCON COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>08489998000141</t>
+  </si>
+  <si>
+    <t>R. M. DA CRUZ LOPES INFORMATICA</t>
+  </si>
+  <si>
+    <t>36882891000102</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO SOARES</t>
+  </si>
+  <si>
+    <t>30996088000104</t>
+  </si>
+  <si>
+    <t>VAGNER ALEXANDRE AMARAL RIBEIRO</t>
+  </si>
+  <si>
+    <t>36776404000119</t>
+  </si>
+  <si>
+    <t>ANTONIO ADEVALDO CARNEIRO DA SILVA</t>
+  </si>
+  <si>
+    <t>14387686000120</t>
+  </si>
+  <si>
+    <t>RENATO APARECIDO GOMES</t>
+  </si>
+  <si>
+    <t>18299482000198</t>
+  </si>
+  <si>
+    <t>J C - SURVEYORS - SERVICOS DE INSPECOES PORTUARIAS LTDA</t>
+  </si>
+  <si>
+    <t>11909608000150</t>
+  </si>
+  <si>
+    <t>MARCELO DE ANDRADE LTDA</t>
+  </si>
+  <si>
+    <t>37575672000135</t>
+  </si>
+  <si>
+    <t>ADILSON ORLANDO PEREIRA</t>
+  </si>
+  <si>
+    <t>14479466000126</t>
+  </si>
+  <si>
+    <t>NORTSYS SISTEMAS LTDA</t>
+  </si>
+  <si>
+    <t>13485667000173</t>
+  </si>
+  <si>
+    <t>A C DE OLIVEIRA CURSOS</t>
+  </si>
+  <si>
+    <t>54732936000136</t>
+  </si>
+  <si>
+    <t>S. P. MAGALHAES BUFFET</t>
+  </si>
+  <si>
+    <t>36677412000108</t>
+  </si>
+  <si>
+    <t>36.677.412 CELSO LEANDRO PERES GUEDES</t>
+  </si>
+  <si>
+    <t>39334730000164</t>
+  </si>
+  <si>
+    <t>LISCARLA BORGES</t>
+  </si>
+  <si>
+    <t>39584712000130</t>
+  </si>
+  <si>
+    <t>DONA PANCETA TORRESMO ARTESANAL LTDA</t>
+  </si>
+  <si>
+    <t>37486225000100</t>
+  </si>
+  <si>
+    <t>MARCELO FLAVIANO AMORIM</t>
+  </si>
+  <si>
+    <t>55927648000108</t>
+  </si>
+  <si>
+    <t>NEUROTREINO SOLUCOES COGNITIVAS LTDA</t>
+  </si>
+  <si>
+    <t>15236793000110</t>
+  </si>
+  <si>
+    <t>CENTRALIZA AMBIENTES PLANEJADOS LTDA</t>
+  </si>
+  <si>
+    <t>62547871000187</t>
+  </si>
+  <si>
+    <t>MINAS LOG LOCACAO DE VEICULOS E EQUIPAMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>15056135000146</t>
+  </si>
+  <si>
+    <t>MSB BEBIDAS LTDA</t>
+  </si>
+  <si>
+    <t>24383120000183</t>
+  </si>
+  <si>
+    <t>NEIDE APARECIDA DE JESUS DIAS ALMEIDA</t>
+  </si>
+  <si>
+    <t>33714260000188</t>
+  </si>
+  <si>
+    <t>JOSEILDO OZORIO CASSIANO</t>
+  </si>
+  <si>
+    <t>55666148000151</t>
+  </si>
+  <si>
+    <t>ORIGEM COMERCIO DE PRODUTOS ALIMENTICIOS LTDA</t>
+  </si>
+  <si>
+    <t>37482547000180</t>
+  </si>
+  <si>
+    <t>ELIEZER FARIA GABI</t>
+  </si>
+  <si>
+    <t>15577675000175</t>
+  </si>
+  <si>
+    <t>REPRESENTACOES MOREIRA LTDA</t>
+  </si>
+  <si>
+    <t>35285395000109</t>
+  </si>
+  <si>
+    <t>V &amp; V MONITORAMENTO DE ALARMES LTDA</t>
+  </si>
+  <si>
+    <t>63746196000188</t>
+  </si>
+  <si>
+    <t>LCT LTDA</t>
+  </si>
+  <si>
+    <t>35942617000291</t>
+  </si>
+  <si>
+    <t>CMS TRANSPORTES LOCACOES E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>29051529000116</t>
+  </si>
+  <si>
+    <t>29.051.529 SANAIANA SENA DA SILVA</t>
+  </si>
+  <si>
+    <t>62273369000125</t>
+  </si>
+  <si>
+    <t>M. V. DOS SANTOS TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>36213308000162</t>
+  </si>
+  <si>
+    <t>R TEIXEIRA ENGENHARIA CIVIL</t>
+  </si>
+  <si>
+    <t>28702928000137</t>
+  </si>
+  <si>
+    <t>KLISMANN JOSE PENTEADO HUBNER</t>
+  </si>
+  <si>
+    <t>33499992000100</t>
+  </si>
+  <si>
+    <t>PATIO CIDADE DAS PEDRAS LTDA</t>
+  </si>
+  <si>
+    <t>51029950000180</t>
+  </si>
+  <si>
+    <t>AVILA COMERCIO VAREJISTA DE VESTUARIO LTDA</t>
+  </si>
+  <si>
+    <t>57256999000151</t>
+  </si>
+  <si>
+    <t>KD2M SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>51441583000127</t>
+  </si>
+  <si>
+    <t>MS CONSULTORIA E PLANEJAMENTO EMPRESARIAL LTDA</t>
+  </si>
+  <si>
+    <t>29954826000171</t>
+  </si>
+  <si>
+    <t>N.C.A. FRETAMENTO E TURISMO LTDA</t>
+  </si>
+  <si>
+    <t>22511639000174</t>
+  </si>
+  <si>
+    <t>22.511.639 ROSANGELA BEATRIZ NUNES DA CUNHA</t>
+  </si>
+  <si>
+    <t>27306339000177</t>
+  </si>
+  <si>
+    <t>MASETTEC MAQUINAS LTDA</t>
+  </si>
+  <si>
+    <t>64328127000117</t>
+  </si>
+  <si>
+    <t>GUSTAVO ASSIS CASTRO SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>33641534000156</t>
+  </si>
+  <si>
+    <t>33.641.534 LUANA DE ALMEIDA AZEVEDO</t>
+  </si>
+  <si>
+    <t>64312456000170</t>
+  </si>
+  <si>
+    <t>PRISCILA DE OLIVEIRA SILVA PEIXOTO MANUTENCAO DE MAQUINAS LTDA</t>
+  </si>
+  <si>
+    <t>64327388000112</t>
+  </si>
+  <si>
+    <t>DANIELA EUSEBIO ASSESSORIA E CONSULTORIA CONTABIL LTDA</t>
+  </si>
+  <si>
+    <t>28715195000175</t>
+  </si>
+  <si>
+    <t>JOSE APARECIDO NOGUEIRA DE CASTRO</t>
+  </si>
+  <si>
+    <t>24188226000126</t>
+  </si>
+  <si>
+    <t>ANDERSON GOMES DA SILVA REFRIGERACAO LTDA</t>
+  </si>
+  <si>
+    <t>31433503000184</t>
+  </si>
+  <si>
+    <t>EMERSON DA SILVA XAVIER</t>
+  </si>
+  <si>
+    <t>19212783000103</t>
+  </si>
+  <si>
+    <t>HM TRANSPORTES LTDA.</t>
+  </si>
+  <si>
+    <t>34553962000190</t>
+  </si>
+  <si>
+    <t>VALENTIM MP LTDA</t>
+  </si>
+  <si>
+    <t>32946783000197</t>
+  </si>
+  <si>
+    <t>ANDREIA MARONN SAUSEN</t>
+  </si>
+  <si>
+    <t>34917508000170</t>
+  </si>
+  <si>
+    <t>D.CLARA EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>62992278000140</t>
+  </si>
+  <si>
+    <t>FERREIRA PORTELLA LTDA</t>
+  </si>
+  <si>
+    <t>63009986000180</t>
+  </si>
+  <si>
+    <t>INDUSTRIA DE PLASTICOS PARA CALCADOS POWEER LTDA</t>
+  </si>
+  <si>
+    <t>26721499000110</t>
+  </si>
+  <si>
+    <t>ADEMILSON PIONELLI SERVICOS AGRICOLAS</t>
+  </si>
+  <si>
+    <t>64312780000198</t>
+  </si>
+  <si>
+    <t>J V COSTA DE PAULA</t>
+  </si>
+  <si>
+    <t>64248161000181</t>
+  </si>
+  <si>
+    <t>PESSOA AIRES SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>63796861000148</t>
+  </si>
+  <si>
+    <t>A2S SOLUCOES INTEGRADAS LTDA</t>
+  </si>
+  <si>
+    <t>32119168000107</t>
+  </si>
+  <si>
+    <t>ORLANDO BALDUINO DE FREITAS</t>
+  </si>
+  <si>
+    <t>64313843000120</t>
+  </si>
+  <si>
+    <t>USINA POLIMIX CONCRETO BR INOVA SIMPLES (I.S.)</t>
+  </si>
+  <si>
+    <t>54799997000200</t>
+  </si>
+  <si>
+    <t>CAMPO FORTE IRRIGACAO LTDA</t>
+  </si>
+  <si>
+    <t>20184417000169</t>
+  </si>
+  <si>
+    <t>ADAIAS C DE C SILVA</t>
+  </si>
+  <si>
+    <t>24925009000171</t>
+  </si>
+  <si>
+    <t>J A B DE LIMA MECANICA</t>
+  </si>
+  <si>
+    <t>37752564000190</t>
+  </si>
+  <si>
+    <t>LEANDRA LYSLE GARCIA LIGUORI LTDA</t>
+  </si>
+  <si>
+    <t>36350412000107</t>
+  </si>
+  <si>
+    <t>G D BUENO COMERCIO DE MILHO VERDE</t>
+  </si>
+  <si>
+    <t>28622459000146</t>
+  </si>
+  <si>
+    <t>CAMILA NATALIA RODRIGUES MARTINS</t>
+  </si>
+  <si>
+    <t>63654795000171</t>
+  </si>
+  <si>
+    <t>ALESSANDRO SPINELLI RABELO</t>
+  </si>
+  <si>
+    <t>11878104000110</t>
+  </si>
+  <si>
+    <t>AJJ MONTADORA  INSTALADORA BELFORD LTDA</t>
+  </si>
+  <si>
+    <t>59182036000186</t>
+  </si>
+  <si>
+    <t>CR SERVICOS E LOCACOES LTDA</t>
+  </si>
+  <si>
+    <t>29972507000199</t>
+  </si>
+  <si>
+    <t>CH MOVEIS LTDA</t>
+  </si>
+  <si>
+    <t>51002586000164</t>
+  </si>
+  <si>
+    <t>G  A CONSTRUTORA LTDA</t>
+  </si>
+  <si>
+    <t>39822221000180</t>
+  </si>
+  <si>
+    <t>SANTOS AMORIM ESTACIONAMENTO LTDA</t>
+  </si>
+  <si>
+    <t>63190932000164</t>
+  </si>
+  <si>
+    <t>JAQUELINE A M ARBAGE</t>
+  </si>
+  <si>
+    <t>63204415000105</t>
+  </si>
+  <si>
+    <t>HEBERT FREIRE SANTOS HEBERT FREIRE SANTOS</t>
+  </si>
+  <si>
+    <t>Procuracao com poderes para abrir e movimentar contas, pois identificamos que a representacao da sua empresa deve ser em conjunto pelos representantes. O documento deve ser assinado pelos representantes legais nomeados no contrato social, assinada digitalmente GOV.br ou procuracao publica. Em caso de assinatura digital, devera ser encaminhado o documento em formato PDF, para validacao das assinaturas e protocolo de autenticidade.</t>
+  </si>
+  <si>
+    <t>Contrato Social atualizado e registrado no orgao competente</t>
   </si>
 </sst>
 </file>
@@ -2140,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
   <dimension ref="A1:G1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="F274" sqref="F274"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,7 +4235,7 @@
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -4261,6 +4858,9 @@
       <c r="F92" t="s">
         <v>575</v>
       </c>
+      <c r="G92" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -5107,7 +5707,7 @@
         <v>8</v>
       </c>
       <c r="F129" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -5638,6 +6238,9 @@
       <c r="F152" t="s">
         <v>575</v>
       </c>
+      <c r="G152" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -5817,7 +6420,7 @@
         <v>8</v>
       </c>
       <c r="F160" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -5886,7 +6489,7 @@
         <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -6139,7 +6742,7 @@
         <v>8</v>
       </c>
       <c r="F174" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -6415,7 +7018,7 @@
         <v>7</v>
       </c>
       <c r="F186" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -6461,7 +7064,7 @@
         <v>7</v>
       </c>
       <c r="F188" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -6486,6 +7089,9 @@
       <c r="F189" t="s">
         <v>575</v>
       </c>
+      <c r="G189" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
@@ -6619,7 +7225,7 @@
         <v>8</v>
       </c>
       <c r="F195" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -6688,7 +7294,7 @@
         <v>8</v>
       </c>
       <c r="F198" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -6711,7 +7317,7 @@
         <v>8</v>
       </c>
       <c r="F199" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -6872,10 +7478,10 @@
         <v>8</v>
       </c>
       <c r="F206" t="s">
-        <v>576</v>
-      </c>
-      <c r="G206">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="G206" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -7150,6 +7756,9 @@
       <c r="F218" t="s">
         <v>575</v>
       </c>
+      <c r="G218" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
@@ -7329,7 +7938,7 @@
         <v>7</v>
       </c>
       <c r="F226" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -7490,7 +8099,7 @@
         <v>8</v>
       </c>
       <c r="F233" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -7513,7 +8122,10 @@
         <v>21</v>
       </c>
       <c r="F234" t="s">
-        <v>576</v>
+        <v>573</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7533,7 +8145,7 @@
         <v>8</v>
       </c>
       <c r="F235" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -7671,7 +8283,7 @@
         <v>8</v>
       </c>
       <c r="F241" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7740,7 +8352,7 @@
         <v>7</v>
       </c>
       <c r="F244" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -8110,9 +8722,6 @@
       <c r="F260" t="s">
         <v>572</v>
       </c>
-      <c r="G260">
-        <v>0</v>
-      </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
@@ -8414,336 +9023,2290 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
+      <c r="A274" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B274" t="s">
+        <v>577</v>
+      </c>
+      <c r="C274" t="s">
+        <v>578</v>
+      </c>
+      <c r="D274" t="s">
+        <v>18</v>
+      </c>
+      <c r="E274" t="s">
+        <v>19</v>
+      </c>
+      <c r="F274" t="s">
+        <v>572</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
+      <c r="A275" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B275" t="s">
+        <v>579</v>
+      </c>
+      <c r="C275" t="s">
+        <v>580</v>
+      </c>
+      <c r="D275" t="s">
+        <v>18</v>
+      </c>
+      <c r="E275" t="s">
+        <v>19</v>
+      </c>
+      <c r="F275" t="s">
+        <v>572</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
+      <c r="A276" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B276" t="s">
+        <v>581</v>
+      </c>
+      <c r="C276" t="s">
+        <v>582</v>
+      </c>
+      <c r="D276" t="s">
+        <v>18</v>
+      </c>
+      <c r="E276" t="s">
+        <v>19</v>
+      </c>
+      <c r="F276" t="s">
+        <v>572</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
+      <c r="A277" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B277" t="s">
+        <v>583</v>
+      </c>
+      <c r="C277" t="s">
+        <v>584</v>
+      </c>
+      <c r="D277" t="s">
+        <v>134</v>
+      </c>
+      <c r="E277" t="s">
+        <v>8</v>
+      </c>
+      <c r="F277" t="s">
+        <v>571</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
+      <c r="A278" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B278" t="s">
+        <v>585</v>
+      </c>
+      <c r="C278" t="s">
+        <v>586</v>
+      </c>
+      <c r="D278" t="s">
+        <v>131</v>
+      </c>
+      <c r="E278" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278" t="s">
+        <v>576</v>
+      </c>
+      <c r="G278" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
+      <c r="A279" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B279" t="s">
+        <v>587</v>
+      </c>
+      <c r="C279" t="s">
+        <v>588</v>
+      </c>
+      <c r="D279" t="s">
+        <v>154</v>
+      </c>
+      <c r="E279" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279" t="s">
+        <v>572</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
+      <c r="A280" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B280" t="s">
+        <v>589</v>
+      </c>
+      <c r="C280" t="s">
+        <v>590</v>
+      </c>
+      <c r="D280" t="s">
+        <v>22</v>
+      </c>
+      <c r="E280" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280" t="s">
+        <v>576</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
+      <c r="A281" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B281" t="s">
+        <v>591</v>
+      </c>
+      <c r="C281" t="s">
+        <v>592</v>
+      </c>
+      <c r="D281" t="s">
+        <v>209</v>
+      </c>
+      <c r="E281" t="s">
+        <v>7</v>
+      </c>
+      <c r="F281" t="s">
+        <v>572</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
+      <c r="A282" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B282" t="s">
+        <v>593</v>
+      </c>
+      <c r="C282" t="s">
+        <v>594</v>
+      </c>
+      <c r="D282" t="s">
+        <v>10</v>
+      </c>
+      <c r="E282" t="s">
+        <v>7</v>
+      </c>
+      <c r="F282" t="s">
+        <v>572</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
+      <c r="A283" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B283" t="s">
+        <v>595</v>
+      </c>
+      <c r="C283" t="s">
+        <v>596</v>
+      </c>
+      <c r="D283" t="s">
+        <v>17</v>
+      </c>
+      <c r="E283" t="s">
+        <v>8</v>
+      </c>
+      <c r="F283" t="s">
+        <v>572</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
+      <c r="A284" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B284" t="s">
+        <v>597</v>
+      </c>
+      <c r="C284" t="s">
+        <v>598</v>
+      </c>
+      <c r="D284" t="s">
+        <v>16</v>
+      </c>
+      <c r="E284" t="s">
+        <v>8</v>
+      </c>
+      <c r="F284" t="s">
+        <v>571</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
+      <c r="A285" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B285" t="s">
+        <v>599</v>
+      </c>
+      <c r="C285" t="s">
+        <v>600</v>
+      </c>
+      <c r="D285" t="s">
+        <v>14</v>
+      </c>
+      <c r="E285" t="s">
+        <v>8</v>
+      </c>
+      <c r="F285" t="s">
+        <v>576</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
+      <c r="A286" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B286" t="s">
+        <v>601</v>
+      </c>
+      <c r="C286" t="s">
+        <v>602</v>
+      </c>
+      <c r="D286" t="s">
+        <v>131</v>
+      </c>
+      <c r="E286" t="s">
+        <v>8</v>
+      </c>
+      <c r="F286" t="s">
+        <v>572</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
+      <c r="A287" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B287" t="s">
+        <v>603</v>
+      </c>
+      <c r="C287" t="s">
+        <v>604</v>
+      </c>
+      <c r="D287" t="s">
+        <v>13</v>
+      </c>
+      <c r="E287" t="s">
+        <v>8</v>
+      </c>
+      <c r="F287" t="s">
+        <v>572</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1"/>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1"/>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1"/>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1"/>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1"/>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1"/>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1"/>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1"/>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="1"/>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="1"/>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1"/>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1"/>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1"/>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1"/>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="1"/>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1"/>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1"/>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1"/>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1"/>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1"/>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1"/>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="1"/>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1"/>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="1"/>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="1"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="1"/>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1"/>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="1"/>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="1"/>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="1"/>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1"/>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1"/>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1"/>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1"/>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1"/>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1"/>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1"/>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="1"/>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1"/>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="1"/>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1"/>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1"/>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1"/>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1"/>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1"/>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1"/>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="1"/>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="1"/>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="1"/>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1"/>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1"/>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="1"/>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B288" t="s">
+        <v>605</v>
+      </c>
+      <c r="C288" t="s">
+        <v>606</v>
+      </c>
+      <c r="D288" t="s">
+        <v>116</v>
+      </c>
+      <c r="E288" t="s">
+        <v>8</v>
+      </c>
+      <c r="F288" t="s">
+        <v>572</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B289" t="s">
+        <v>607</v>
+      </c>
+      <c r="C289" t="s">
+        <v>608</v>
+      </c>
+      <c r="D289" t="s">
+        <v>10</v>
+      </c>
+      <c r="E289" t="s">
+        <v>7</v>
+      </c>
+      <c r="F289" t="s">
+        <v>609</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B290" t="s">
+        <v>610</v>
+      </c>
+      <c r="C290" t="s">
+        <v>611</v>
+      </c>
+      <c r="D290" t="s">
+        <v>16</v>
+      </c>
+      <c r="E290" t="s">
+        <v>8</v>
+      </c>
+      <c r="F290" t="s">
+        <v>572</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B291" t="s">
+        <v>612</v>
+      </c>
+      <c r="C291" t="s">
+        <v>613</v>
+      </c>
+      <c r="D291" t="s">
+        <v>134</v>
+      </c>
+      <c r="E291" t="s">
+        <v>20</v>
+      </c>
+      <c r="F291" t="s">
+        <v>572</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B292" t="s">
+        <v>614</v>
+      </c>
+      <c r="C292" t="s">
+        <v>615</v>
+      </c>
+      <c r="D292" t="s">
+        <v>17</v>
+      </c>
+      <c r="E292" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292" t="s">
+        <v>572</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B293" t="s">
+        <v>616</v>
+      </c>
+      <c r="C293" t="s">
+        <v>617</v>
+      </c>
+      <c r="D293" t="s">
+        <v>13</v>
+      </c>
+      <c r="E293" t="s">
+        <v>8</v>
+      </c>
+      <c r="F293" t="s">
+        <v>576</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B294" t="s">
+        <v>618</v>
+      </c>
+      <c r="C294" t="s">
+        <v>619</v>
+      </c>
+      <c r="D294" t="s">
+        <v>13</v>
+      </c>
+      <c r="E294" t="s">
+        <v>8</v>
+      </c>
+      <c r="F294" t="s">
+        <v>572</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B295" t="s">
+        <v>620</v>
+      </c>
+      <c r="C295" t="s">
+        <v>621</v>
+      </c>
+      <c r="D295" t="s">
+        <v>17</v>
+      </c>
+      <c r="E295" t="s">
+        <v>8</v>
+      </c>
+      <c r="F295" t="s">
+        <v>572</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B296" t="s">
+        <v>622</v>
+      </c>
+      <c r="C296" t="s">
+        <v>623</v>
+      </c>
+      <c r="D296" t="s">
+        <v>16</v>
+      </c>
+      <c r="E296" t="s">
+        <v>8</v>
+      </c>
+      <c r="F296" t="s">
+        <v>571</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B297" t="s">
+        <v>624</v>
+      </c>
+      <c r="C297" t="s">
+        <v>625</v>
+      </c>
+      <c r="D297" t="s">
+        <v>14</v>
+      </c>
+      <c r="E297" t="s">
+        <v>8</v>
+      </c>
+      <c r="F297" t="s">
+        <v>576</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B298" t="s">
+        <v>626</v>
+      </c>
+      <c r="C298" t="s">
+        <v>627</v>
+      </c>
+      <c r="D298" t="s">
+        <v>22</v>
+      </c>
+      <c r="E298" t="s">
+        <v>8</v>
+      </c>
+      <c r="F298" t="s">
+        <v>572</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B299" t="s">
+        <v>628</v>
+      </c>
+      <c r="C299" t="s">
+        <v>629</v>
+      </c>
+      <c r="D299" t="s">
+        <v>209</v>
+      </c>
+      <c r="E299" t="s">
+        <v>12</v>
+      </c>
+      <c r="F299" t="s">
+        <v>572</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B300" t="s">
+        <v>630</v>
+      </c>
+      <c r="C300" t="s">
+        <v>631</v>
+      </c>
+      <c r="D300" t="s">
+        <v>13</v>
+      </c>
+      <c r="E300" t="s">
+        <v>20</v>
+      </c>
+      <c r="F300" t="s">
+        <v>572</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B301" t="s">
+        <v>632</v>
+      </c>
+      <c r="C301" t="s">
+        <v>633</v>
+      </c>
+      <c r="D301" t="s">
+        <v>10</v>
+      </c>
+      <c r="E301" t="s">
+        <v>8</v>
+      </c>
+      <c r="F301" t="s">
+        <v>572</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B302" t="s">
+        <v>634</v>
+      </c>
+      <c r="C302" t="s">
+        <v>635</v>
+      </c>
+      <c r="D302" t="s">
+        <v>134</v>
+      </c>
+      <c r="E302" t="s">
+        <v>8</v>
+      </c>
+      <c r="F302" t="s">
+        <v>572</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B303" t="s">
+        <v>636</v>
+      </c>
+      <c r="C303" t="s">
+        <v>637</v>
+      </c>
+      <c r="D303" t="s">
+        <v>22</v>
+      </c>
+      <c r="E303" t="s">
+        <v>8</v>
+      </c>
+      <c r="F303" t="s">
+        <v>572</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B304" t="s">
+        <v>638</v>
+      </c>
+      <c r="C304" t="s">
+        <v>639</v>
+      </c>
+      <c r="D304" t="s">
+        <v>6</v>
+      </c>
+      <c r="E304" t="s">
+        <v>8</v>
+      </c>
+      <c r="F304" t="s">
+        <v>572</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B305" t="s">
+        <v>640</v>
+      </c>
+      <c r="C305" t="s">
+        <v>641</v>
+      </c>
+      <c r="D305" t="s">
+        <v>17</v>
+      </c>
+      <c r="E305" t="s">
+        <v>8</v>
+      </c>
+      <c r="F305" t="s">
+        <v>572</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B306" t="s">
+        <v>642</v>
+      </c>
+      <c r="C306" t="s">
+        <v>643</v>
+      </c>
+      <c r="D306" t="s">
+        <v>237</v>
+      </c>
+      <c r="E306" t="s">
+        <v>7</v>
+      </c>
+      <c r="F306" t="s">
+        <v>576</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B307" t="s">
+        <v>644</v>
+      </c>
+      <c r="C307" t="s">
+        <v>645</v>
+      </c>
+      <c r="D307" t="s">
+        <v>16</v>
+      </c>
+      <c r="E307" t="s">
+        <v>8</v>
+      </c>
+      <c r="F307" t="s">
+        <v>572</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B308" t="s">
+        <v>646</v>
+      </c>
+      <c r="C308" t="s">
+        <v>647</v>
+      </c>
+      <c r="D308" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308" t="s">
+        <v>8</v>
+      </c>
+      <c r="F308" t="s">
+        <v>572</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B309" t="s">
+        <v>648</v>
+      </c>
+      <c r="C309" t="s">
+        <v>649</v>
+      </c>
+      <c r="D309" t="s">
+        <v>113</v>
+      </c>
+      <c r="E309" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309" t="s">
+        <v>576</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B310" t="s">
+        <v>650</v>
+      </c>
+      <c r="C310" t="s">
+        <v>651</v>
+      </c>
+      <c r="D310" t="s">
+        <v>237</v>
+      </c>
+      <c r="E310" t="s">
+        <v>8</v>
+      </c>
+      <c r="F310" t="s">
+        <v>572</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B311" t="s">
+        <v>652</v>
+      </c>
+      <c r="C311" t="s">
+        <v>653</v>
+      </c>
+      <c r="D311" t="s">
+        <v>16</v>
+      </c>
+      <c r="E311" t="s">
+        <v>8</v>
+      </c>
+      <c r="F311" t="s">
+        <v>572</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B312" t="s">
+        <v>654</v>
+      </c>
+      <c r="C312" t="s">
+        <v>655</v>
+      </c>
+      <c r="D312" t="s">
+        <v>44</v>
+      </c>
+      <c r="E312" t="s">
+        <v>8</v>
+      </c>
+      <c r="F312" t="s">
+        <v>572</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B313" t="s">
+        <v>656</v>
+      </c>
+      <c r="C313" t="s">
+        <v>657</v>
+      </c>
+      <c r="D313" t="s">
+        <v>22</v>
+      </c>
+      <c r="E313" t="s">
+        <v>8</v>
+      </c>
+      <c r="F313" t="s">
+        <v>572</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B314" t="s">
+        <v>658</v>
+      </c>
+      <c r="C314" t="s">
+        <v>659</v>
+      </c>
+      <c r="D314" t="s">
+        <v>15</v>
+      </c>
+      <c r="E314" t="s">
+        <v>12</v>
+      </c>
+      <c r="F314" t="s">
+        <v>572</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B315" t="s">
+        <v>660</v>
+      </c>
+      <c r="C315" t="s">
+        <v>661</v>
+      </c>
+      <c r="D315" t="s">
+        <v>15</v>
+      </c>
+      <c r="E315" t="s">
+        <v>12</v>
+      </c>
+      <c r="F315" t="s">
+        <v>572</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B316" t="s">
+        <v>662</v>
+      </c>
+      <c r="C316" t="s">
+        <v>663</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" t="s">
+        <v>8</v>
+      </c>
+      <c r="F316" t="s">
+        <v>572</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B317" t="s">
+        <v>664</v>
+      </c>
+      <c r="C317" t="s">
+        <v>665</v>
+      </c>
+      <c r="D317" t="s">
+        <v>14</v>
+      </c>
+      <c r="E317" t="s">
+        <v>8</v>
+      </c>
+      <c r="F317" t="s">
+        <v>572</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B318" t="s">
+        <v>666</v>
+      </c>
+      <c r="C318" t="s">
+        <v>667</v>
+      </c>
+      <c r="D318" t="s">
+        <v>131</v>
+      </c>
+      <c r="E318" t="s">
+        <v>8</v>
+      </c>
+      <c r="F318" t="s">
+        <v>572</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B319" t="s">
+        <v>668</v>
+      </c>
+      <c r="C319" t="s">
+        <v>669</v>
+      </c>
+      <c r="D319" t="s">
+        <v>22</v>
+      </c>
+      <c r="E319" t="s">
+        <v>8</v>
+      </c>
+      <c r="F319" t="s">
+        <v>574</v>
+      </c>
+      <c r="G319" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B320" t="s">
+        <v>670</v>
+      </c>
+      <c r="C320" t="s">
+        <v>671</v>
+      </c>
+      <c r="D320" t="s">
+        <v>134</v>
+      </c>
+      <c r="E320" t="s">
+        <v>8</v>
+      </c>
+      <c r="F320" t="s">
+        <v>572</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B321" t="s">
+        <v>672</v>
+      </c>
+      <c r="C321" t="s">
+        <v>673</v>
+      </c>
+      <c r="D321" t="s">
+        <v>22</v>
+      </c>
+      <c r="E321" t="s">
+        <v>8</v>
+      </c>
+      <c r="F321" t="s">
+        <v>576</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B322" t="s">
+        <v>674</v>
+      </c>
+      <c r="C322" t="s">
+        <v>675</v>
+      </c>
+      <c r="D322" t="s">
+        <v>131</v>
+      </c>
+      <c r="E322" t="s">
+        <v>8</v>
+      </c>
+      <c r="F322" t="s">
+        <v>571</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B323" t="s">
+        <v>676</v>
+      </c>
+      <c r="C323" t="s">
+        <v>677</v>
+      </c>
+      <c r="D323" t="s">
+        <v>209</v>
+      </c>
+      <c r="E323" t="s">
+        <v>8</v>
+      </c>
+      <c r="F323" t="s">
+        <v>576</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B324" t="s">
+        <v>678</v>
+      </c>
+      <c r="C324" t="s">
+        <v>679</v>
+      </c>
+      <c r="D324" t="s">
+        <v>22</v>
+      </c>
+      <c r="E324" t="s">
+        <v>8</v>
+      </c>
+      <c r="F324" t="s">
+        <v>572</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B325" t="s">
+        <v>680</v>
+      </c>
+      <c r="C325" t="s">
+        <v>681</v>
+      </c>
+      <c r="D325" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325" t="s">
+        <v>8</v>
+      </c>
+      <c r="F325" t="s">
+        <v>572</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B326" t="s">
+        <v>682</v>
+      </c>
+      <c r="C326" t="s">
+        <v>683</v>
+      </c>
+      <c r="D326" t="s">
+        <v>237</v>
+      </c>
+      <c r="E326" t="s">
+        <v>8</v>
+      </c>
+      <c r="F326" t="s">
+        <v>571</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B327" t="s">
+        <v>684</v>
+      </c>
+      <c r="C327" t="s">
+        <v>685</v>
+      </c>
+      <c r="D327" t="s">
+        <v>13</v>
+      </c>
+      <c r="E327" t="s">
+        <v>8</v>
+      </c>
+      <c r="F327" t="s">
+        <v>576</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B328" t="s">
+        <v>686</v>
+      </c>
+      <c r="C328" t="s">
+        <v>687</v>
+      </c>
+      <c r="D328" t="s">
+        <v>131</v>
+      </c>
+      <c r="E328" t="s">
+        <v>8</v>
+      </c>
+      <c r="F328" t="s">
+        <v>572</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B329" t="s">
+        <v>688</v>
+      </c>
+      <c r="C329" t="s">
+        <v>689</v>
+      </c>
+      <c r="D329" t="s">
+        <v>11</v>
+      </c>
+      <c r="E329" t="s">
+        <v>8</v>
+      </c>
+      <c r="F329" t="s">
+        <v>576</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B330" t="s">
+        <v>690</v>
+      </c>
+      <c r="C330" t="s">
+        <v>691</v>
+      </c>
+      <c r="D330" t="s">
+        <v>134</v>
+      </c>
+      <c r="E330" t="s">
+        <v>8</v>
+      </c>
+      <c r="F330" t="s">
+        <v>576</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B331" t="s">
+        <v>692</v>
+      </c>
+      <c r="C331" t="s">
+        <v>693</v>
+      </c>
+      <c r="D331" t="s">
+        <v>154</v>
+      </c>
+      <c r="E331" t="s">
+        <v>12</v>
+      </c>
+      <c r="F331" t="s">
+        <v>572</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B332" t="s">
+        <v>694</v>
+      </c>
+      <c r="C332" t="s">
+        <v>695</v>
+      </c>
+      <c r="D332" t="s">
+        <v>10</v>
+      </c>
+      <c r="E332" t="s">
+        <v>8</v>
+      </c>
+      <c r="F332" t="s">
+        <v>576</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B333" t="s">
+        <v>696</v>
+      </c>
+      <c r="C333" t="s">
+        <v>697</v>
+      </c>
+      <c r="D333" t="s">
+        <v>23</v>
+      </c>
+      <c r="E333" t="s">
+        <v>8</v>
+      </c>
+      <c r="F333" t="s">
+        <v>572</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B334" t="s">
+        <v>698</v>
+      </c>
+      <c r="C334" t="s">
+        <v>699</v>
+      </c>
+      <c r="D334" t="s">
+        <v>14</v>
+      </c>
+      <c r="E334" t="s">
+        <v>8</v>
+      </c>
+      <c r="F334" t="s">
+        <v>572</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B335" t="s">
+        <v>700</v>
+      </c>
+      <c r="C335" t="s">
+        <v>701</v>
+      </c>
+      <c r="D335" t="s">
+        <v>15</v>
+      </c>
+      <c r="E335" t="s">
+        <v>12</v>
+      </c>
+      <c r="F335" t="s">
+        <v>572</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B336" t="s">
+        <v>702</v>
+      </c>
+      <c r="C336" t="s">
+        <v>703</v>
+      </c>
+      <c r="D336" t="s">
+        <v>16</v>
+      </c>
+      <c r="E336" t="s">
+        <v>8</v>
+      </c>
+      <c r="F336" t="s">
+        <v>572</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B337" t="s">
+        <v>704</v>
+      </c>
+      <c r="C337" t="s">
+        <v>705</v>
+      </c>
+      <c r="D337" t="s">
+        <v>209</v>
+      </c>
+      <c r="E337" t="s">
+        <v>8</v>
+      </c>
+      <c r="F337" t="s">
+        <v>572</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B338" t="s">
+        <v>706</v>
+      </c>
+      <c r="C338" t="s">
+        <v>707</v>
+      </c>
+      <c r="D338" t="s">
+        <v>23</v>
+      </c>
+      <c r="E338" t="s">
+        <v>8</v>
+      </c>
+      <c r="F338" t="s">
+        <v>572</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B339" t="s">
+        <v>708</v>
+      </c>
+      <c r="C339" t="s">
+        <v>709</v>
+      </c>
+      <c r="D339" t="s">
+        <v>237</v>
+      </c>
+      <c r="E339" t="s">
+        <v>12</v>
+      </c>
+      <c r="F339" t="s">
+        <v>572</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B340" t="s">
+        <v>710</v>
+      </c>
+      <c r="C340" t="s">
+        <v>711</v>
+      </c>
+      <c r="D340" t="s">
+        <v>116</v>
+      </c>
+      <c r="E340" t="s">
+        <v>8</v>
+      </c>
+      <c r="F340" t="s">
+        <v>572</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B341" t="s">
+        <v>712</v>
+      </c>
+      <c r="C341" t="s">
+        <v>713</v>
+      </c>
+      <c r="D341" t="s">
+        <v>15</v>
+      </c>
+      <c r="E341" t="s">
+        <v>12</v>
+      </c>
+      <c r="F341" t="s">
+        <v>572</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B342" t="s">
+        <v>714</v>
+      </c>
+      <c r="C342" t="s">
+        <v>715</v>
+      </c>
+      <c r="D342" t="s">
+        <v>154</v>
+      </c>
+      <c r="E342" t="s">
+        <v>12</v>
+      </c>
+      <c r="F342" t="s">
+        <v>576</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B343" t="s">
+        <v>716</v>
+      </c>
+      <c r="C343" t="s">
+        <v>717</v>
+      </c>
+      <c r="D343" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343" t="s">
+        <v>8</v>
+      </c>
+      <c r="F343" t="s">
+        <v>572</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B344" t="s">
+        <v>718</v>
+      </c>
+      <c r="C344" t="s">
+        <v>719</v>
+      </c>
+      <c r="D344" t="s">
+        <v>16</v>
+      </c>
+      <c r="E344" t="s">
+        <v>8</v>
+      </c>
+      <c r="F344" t="s">
+        <v>572</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B345" t="s">
+        <v>720</v>
+      </c>
+      <c r="C345" t="s">
+        <v>721</v>
+      </c>
+      <c r="D345" t="s">
+        <v>209</v>
+      </c>
+      <c r="E345" t="s">
+        <v>8</v>
+      </c>
+      <c r="F345" t="s">
+        <v>576</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B346" t="s">
+        <v>722</v>
+      </c>
+      <c r="C346" t="s">
+        <v>723</v>
+      </c>
+      <c r="D346" t="s">
+        <v>22</v>
+      </c>
+      <c r="E346" t="s">
+        <v>8</v>
+      </c>
+      <c r="F346" t="s">
+        <v>576</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B347" t="s">
+        <v>724</v>
+      </c>
+      <c r="C347" t="s">
+        <v>725</v>
+      </c>
+      <c r="D347" t="s">
+        <v>116</v>
+      </c>
+      <c r="E347" t="s">
+        <v>8</v>
+      </c>
+      <c r="F347" t="s">
+        <v>572</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B348" t="s">
+        <v>726</v>
+      </c>
+      <c r="C348" t="s">
+        <v>727</v>
+      </c>
+      <c r="D348" t="s">
+        <v>22</v>
+      </c>
+      <c r="E348" t="s">
+        <v>8</v>
+      </c>
+      <c r="F348" t="s">
+        <v>572</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B349" t="s">
+        <v>728</v>
+      </c>
+      <c r="C349" t="s">
+        <v>729</v>
+      </c>
+      <c r="D349" t="s">
+        <v>14</v>
+      </c>
+      <c r="E349" t="s">
+        <v>8</v>
+      </c>
+      <c r="F349" t="s">
+        <v>576</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B350" t="s">
+        <v>730</v>
+      </c>
+      <c r="C350" t="s">
+        <v>731</v>
+      </c>
+      <c r="D350" t="s">
+        <v>13</v>
+      </c>
+      <c r="E350" t="s">
+        <v>8</v>
+      </c>
+      <c r="F350" t="s">
+        <v>576</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B351" t="s">
+        <v>732</v>
+      </c>
+      <c r="C351" t="s">
+        <v>733</v>
+      </c>
+      <c r="D351" t="s">
+        <v>237</v>
+      </c>
+      <c r="E351" t="s">
+        <v>8</v>
+      </c>
+      <c r="F351" t="s">
+        <v>572</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B352" t="s">
+        <v>734</v>
+      </c>
+      <c r="C352" t="s">
+        <v>735</v>
+      </c>
+      <c r="D352" t="s">
+        <v>14</v>
+      </c>
+      <c r="E352" t="s">
+        <v>8</v>
+      </c>
+      <c r="F352" t="s">
+        <v>572</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B353" t="s">
+        <v>736</v>
+      </c>
+      <c r="C353" t="s">
+        <v>737</v>
+      </c>
+      <c r="D353" t="s">
+        <v>154</v>
+      </c>
+      <c r="E353" t="s">
+        <v>12</v>
+      </c>
+      <c r="F353" t="s">
+        <v>576</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B354" t="s">
+        <v>738</v>
+      </c>
+      <c r="C354" t="s">
+        <v>739</v>
+      </c>
+      <c r="D354" t="s">
+        <v>16</v>
+      </c>
+      <c r="E354" t="s">
+        <v>8</v>
+      </c>
+      <c r="F354" t="s">
+        <v>572</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B355" t="s">
+        <v>740</v>
+      </c>
+      <c r="C355" t="s">
+        <v>741</v>
+      </c>
+      <c r="D355" t="s">
+        <v>15</v>
+      </c>
+      <c r="E355" t="s">
+        <v>12</v>
+      </c>
+      <c r="F355" t="s">
+        <v>572</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B356" t="s">
+        <v>742</v>
+      </c>
+      <c r="C356" t="s">
+        <v>743</v>
+      </c>
+      <c r="D356" t="s">
+        <v>15</v>
+      </c>
+      <c r="E356" t="s">
+        <v>12</v>
+      </c>
+      <c r="F356" t="s">
+        <v>572</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B357" t="s">
+        <v>744</v>
+      </c>
+      <c r="C357" t="s">
+        <v>745</v>
+      </c>
+      <c r="D357" t="s">
+        <v>22</v>
+      </c>
+      <c r="E357" t="s">
+        <v>8</v>
+      </c>
+      <c r="F357" t="s">
+        <v>576</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B358" t="s">
+        <v>746</v>
+      </c>
+      <c r="C358" t="s">
+        <v>747</v>
+      </c>
+      <c r="D358" t="s">
+        <v>11</v>
+      </c>
+      <c r="E358" t="s">
+        <v>8</v>
+      </c>
+      <c r="F358" t="s">
+        <v>572</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B359" t="s">
+        <v>748</v>
+      </c>
+      <c r="C359" t="s">
+        <v>749</v>
+      </c>
+      <c r="D359" t="s">
+        <v>116</v>
+      </c>
+      <c r="E359" t="s">
+        <v>8</v>
+      </c>
+      <c r="F359" t="s">
+        <v>571</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B360" t="s">
+        <v>750</v>
+      </c>
+      <c r="C360" t="s">
+        <v>751</v>
+      </c>
+      <c r="D360" t="s">
+        <v>44</v>
+      </c>
+      <c r="E360" t="s">
+        <v>7</v>
+      </c>
+      <c r="F360" t="s">
+        <v>572</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B361" t="s">
+        <v>752</v>
+      </c>
+      <c r="C361" t="s">
+        <v>753</v>
+      </c>
+      <c r="D361" t="s">
+        <v>116</v>
+      </c>
+      <c r="E361" t="s">
+        <v>8</v>
+      </c>
+      <c r="F361" t="s">
+        <v>572</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B362" t="s">
+        <v>754</v>
+      </c>
+      <c r="C362" t="s">
+        <v>755</v>
+      </c>
+      <c r="D362" t="s">
+        <v>209</v>
+      </c>
+      <c r="E362" t="s">
+        <v>8</v>
+      </c>
+      <c r="F362" t="s">
+        <v>572</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B363" t="s">
+        <v>756</v>
+      </c>
+      <c r="C363" t="s">
+        <v>757</v>
+      </c>
+      <c r="D363" t="s">
+        <v>134</v>
+      </c>
+      <c r="E363" t="s">
+        <v>8</v>
+      </c>
+      <c r="F363" t="s">
+        <v>572</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B364" t="s">
+        <v>758</v>
+      </c>
+      <c r="C364" t="s">
+        <v>759</v>
+      </c>
+      <c r="D364" t="s">
+        <v>131</v>
+      </c>
+      <c r="E364" t="s">
+        <v>8</v>
+      </c>
+      <c r="F364" t="s">
+        <v>572</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B365" t="s">
+        <v>760</v>
+      </c>
+      <c r="C365" t="s">
+        <v>761</v>
+      </c>
+      <c r="D365" t="s">
+        <v>17</v>
+      </c>
+      <c r="E365" t="s">
+        <v>8</v>
+      </c>
+      <c r="F365" t="s">
+        <v>572</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B366" t="s">
+        <v>762</v>
+      </c>
+      <c r="C366" t="s">
+        <v>763</v>
+      </c>
+      <c r="D366" t="s">
+        <v>340</v>
+      </c>
+      <c r="E366" t="s">
+        <v>12</v>
+      </c>
+      <c r="F366" t="s">
+        <v>572</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B367" t="s">
+        <v>764</v>
+      </c>
+      <c r="C367" t="s">
+        <v>765</v>
+      </c>
+      <c r="D367" t="s">
+        <v>6</v>
+      </c>
+      <c r="E367" t="s">
+        <v>8</v>
+      </c>
+      <c r="F367" t="s">
+        <v>572</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B368" t="s">
+        <v>766</v>
+      </c>
+      <c r="C368" t="s">
+        <v>767</v>
+      </c>
+      <c r="D368" t="s">
+        <v>17</v>
+      </c>
+      <c r="E368" t="s">
+        <v>8</v>
+      </c>
+      <c r="F368" t="s">
+        <v>572</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B369" t="s">
+        <v>768</v>
+      </c>
+      <c r="C369" t="s">
+        <v>769</v>
+      </c>
+      <c r="D369" t="s">
+        <v>131</v>
+      </c>
+      <c r="E369" t="s">
+        <v>8</v>
+      </c>
+      <c r="F369" t="s">
+        <v>572</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B370" t="s">
+        <v>770</v>
+      </c>
+      <c r="C370" t="s">
+        <v>771</v>
+      </c>
+      <c r="D370" t="s">
+        <v>18</v>
+      </c>
+      <c r="E370" t="s">
+        <v>19</v>
+      </c>
+      <c r="F370" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B371" t="s">
+        <v>772</v>
+      </c>
+      <c r="C371" t="s">
+        <v>773</v>
+      </c>
+      <c r="D371" t="s">
+        <v>18</v>
+      </c>
+      <c r="E371" t="s">
+        <v>19</v>
+      </c>
+      <c r="F371" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">

--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E28BB8D-0C57-491E-A481-5BBD64460278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7189EB20-2C21-4C57-BE93-69322DF340EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
+    <workbookView xWindow="21480" yWindow="1830" windowWidth="20730" windowHeight="11160" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4203" uniqueCount="1724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1744">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -5204,10 +5204,70 @@
     <t>CONSTRUTORA SANDES SILVA LTDA</t>
   </si>
   <si>
-    <t>A procuracao precisara ser assinada digitalmente GOV.br ou procuracao publica. Em caso de assinatura digital, devera ser encaminhado o documento em formato PDF.</t>
-  </si>
-  <si>
     <t>Ata de eleicao da diretoria atualizada e registrado no orgao competente&lt;br&gt;&lt;br&gt;Estatuto social atualizado e registrado no orgao competente</t>
+  </si>
+  <si>
+    <t>13197651000165</t>
+  </si>
+  <si>
+    <t>L DE O PALLOT SERVICOS E ACABAMENTOS</t>
+  </si>
+  <si>
+    <t>19518614000198</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BEATRIZ VARELA BARROS DA SILVA</t>
+  </si>
+  <si>
+    <t>64476362000136</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LEONARDO HENRIQUE GALDINO MUNIZ</t>
+  </si>
+  <si>
+    <t>32277298000178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAUDIA REGINA BALTAZAR CABRINI </t>
+  </si>
+  <si>
+    <t>64407841000109</t>
+  </si>
+  <si>
+    <t>L R VOIGT  LTDA</t>
+  </si>
+  <si>
+    <t>51225251000105</t>
+  </si>
+  <si>
+    <t>JTI CONSTRUTORA LTDA</t>
+  </si>
+  <si>
+    <t>17096556000126</t>
+  </si>
+  <si>
+    <t>MARCELO BISPO DE MELO COMERCIO DE COUROS</t>
+  </si>
+  <si>
+    <t>55451907000169</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROMANCIL PEREIRA BRANCO</t>
+  </si>
+  <si>
+    <t>35158394000195</t>
+  </si>
+  <si>
+    <t>LGT CONFIA ESPORTES LTDA</t>
+  </si>
+  <si>
+    <t>16699558000228</t>
+  </si>
+  <si>
+    <t>ABIM ADMINISTRACAO DE CONDOMINIOS LTDA</t>
+  </si>
+  <si>
+    <t>Procuracao outorgada pela empresa, com poderes de representacao junto a instituicoes financeiras podendo abrir e movimentar conta corrente com mandato vigente. O solicitante da abertura de conta nao possui poderes de representacao. A procuracao precisa ser Publica, ou Digital, assinada pelo GOV. e em formato PDF.</t>
   </si>
 </sst>
 </file>
@@ -5581,9 +5641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
   <dimension ref="A1:G1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A811" workbookViewId="0">
-      <selection activeCell="B822" sqref="B822"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12955,7 +13013,7 @@
         <v>8</v>
       </c>
       <c r="F321" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G321">
         <v>0</v>
@@ -13001,7 +13059,7 @@
         <v>8</v>
       </c>
       <c r="F323" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G323">
         <v>0</v>
@@ -13300,7 +13358,7 @@
         <v>12</v>
       </c>
       <c r="F336" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -13645,7 +13703,7 @@
         <v>8</v>
       </c>
       <c r="F351" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -14217,7 +14275,7 @@
         <v>8</v>
       </c>
       <c r="F376" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G376">
         <v>0</v>
@@ -14309,7 +14367,7 @@
         <v>12</v>
       </c>
       <c r="F380" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G380">
         <v>0</v>
@@ -14677,7 +14735,7 @@
         <v>7</v>
       </c>
       <c r="F396" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -14930,7 +14988,7 @@
         <v>8</v>
       </c>
       <c r="F407" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G407">
         <v>0</v>
@@ -16166,7 +16224,7 @@
         <v>7</v>
       </c>
       <c r="F461" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G461">
         <v>0</v>
@@ -16189,7 +16247,7 @@
         <v>7</v>
       </c>
       <c r="F462" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G462">
         <v>0</v>
@@ -16508,7 +16566,7 @@
         <v>8</v>
       </c>
       <c r="F476" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G476">
         <v>0</v>
@@ -17428,7 +17486,7 @@
         <v>12</v>
       </c>
       <c r="F516" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G516">
         <v>0</v>
@@ -17750,7 +17808,7 @@
         <v>20</v>
       </c>
       <c r="F530" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G530">
         <v>0</v>
@@ -18417,7 +18475,7 @@
         <v>12</v>
       </c>
       <c r="F559" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G559">
         <v>0</v>
@@ -18440,7 +18498,7 @@
         <v>8</v>
       </c>
       <c r="F560" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G560">
         <v>0</v>
@@ -18463,7 +18521,7 @@
         <v>7</v>
       </c>
       <c r="F561" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G561">
         <v>0</v>
@@ -18946,7 +19004,7 @@
         <v>12</v>
       </c>
       <c r="F582" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G582">
         <v>0</v>
@@ -19130,7 +19188,7 @@
         <v>8</v>
       </c>
       <c r="F590" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G590">
         <v>0</v>
@@ -19268,7 +19326,7 @@
         <v>8</v>
       </c>
       <c r="F596" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G596">
         <v>0</v>
@@ -20395,7 +20453,7 @@
         <v>12</v>
       </c>
       <c r="F645" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G645">
         <v>0</v>
@@ -20421,7 +20479,7 @@
         <v>573</v>
       </c>
       <c r="G646" t="s">
-        <v>1722</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
@@ -20441,7 +20499,7 @@
         <v>8</v>
       </c>
       <c r="F647" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G647">
         <v>0</v>
@@ -20464,7 +20522,7 @@
         <v>8</v>
       </c>
       <c r="F648" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G648">
         <v>0</v>
@@ -20602,7 +20660,7 @@
         <v>12</v>
       </c>
       <c r="F654" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G654">
         <v>0</v>
@@ -20648,7 +20706,7 @@
         <v>12</v>
       </c>
       <c r="F656" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
@@ -20898,7 +20956,7 @@
         <v>571</v>
       </c>
       <c r="G667" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
@@ -20918,7 +20976,7 @@
         <v>7</v>
       </c>
       <c r="F668" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G668">
         <v>0</v>
@@ -20964,7 +21022,7 @@
         <v>12</v>
       </c>
       <c r="F670" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G670">
         <v>0</v>
@@ -21010,7 +21068,7 @@
         <v>7</v>
       </c>
       <c r="F672" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G672">
         <v>0</v>
@@ -21079,7 +21137,7 @@
         <v>8</v>
       </c>
       <c r="F675" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G675">
         <v>0</v>
@@ -21125,7 +21183,7 @@
         <v>7</v>
       </c>
       <c r="F677" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G677">
         <v>0</v>
@@ -21194,7 +21252,7 @@
         <v>8</v>
       </c>
       <c r="F680" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G680">
         <v>0</v>
@@ -21424,7 +21482,7 @@
         <v>7</v>
       </c>
       <c r="F690" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G690">
         <v>0</v>
@@ -21516,7 +21574,7 @@
         <v>8</v>
       </c>
       <c r="F694" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G694">
         <v>0</v>
@@ -21631,7 +21689,7 @@
         <v>8</v>
       </c>
       <c r="F699" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G699">
         <v>0</v>
@@ -21743,7 +21801,7 @@
         <v>8</v>
       </c>
       <c r="F704" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G704">
         <v>0</v>
@@ -21789,7 +21847,7 @@
         <v>8</v>
       </c>
       <c r="F706" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G706">
         <v>0</v>
@@ -21901,7 +21959,7 @@
         <v>7</v>
       </c>
       <c r="F711" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G711">
         <v>0</v>
@@ -21947,7 +22005,7 @@
         <v>7</v>
       </c>
       <c r="F713" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G713">
         <v>0</v>
@@ -21990,7 +22048,7 @@
         <v>8</v>
       </c>
       <c r="F715" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G715">
         <v>0</v>
@@ -22059,7 +22117,7 @@
         <v>12</v>
       </c>
       <c r="F718" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G718">
         <v>0</v>
@@ -22128,7 +22186,7 @@
         <v>8</v>
       </c>
       <c r="F721" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G721">
         <v>0</v>
@@ -22266,7 +22324,7 @@
         <v>8</v>
       </c>
       <c r="F727" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G727">
         <v>0</v>
@@ -22404,7 +22462,7 @@
         <v>8</v>
       </c>
       <c r="F733" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G733">
         <v>0</v>
@@ -22427,7 +22485,7 @@
         <v>12</v>
       </c>
       <c r="F734" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G734">
         <v>0</v>
@@ -22473,7 +22531,7 @@
         <v>12</v>
       </c>
       <c r="F736" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
@@ -22562,7 +22620,7 @@
         <v>8</v>
       </c>
       <c r="F740" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G740">
         <v>0</v>
@@ -22700,7 +22758,10 @@
         <v>12</v>
       </c>
       <c r="F746" t="s">
-        <v>573</v>
+        <v>569</v>
+      </c>
+      <c r="G746">
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.25">
@@ -22722,6 +22783,9 @@
       <c r="F747" t="s">
         <v>573</v>
       </c>
+      <c r="G747">
+        <v>0</v>
+      </c>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
@@ -22742,6 +22806,9 @@
       <c r="F748" t="s">
         <v>569</v>
       </c>
+      <c r="G748">
+        <v>0</v>
+      </c>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
@@ -22762,6 +22829,9 @@
       <c r="F749" t="s">
         <v>569</v>
       </c>
+      <c r="G749">
+        <v>0</v>
+      </c>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
@@ -22782,6 +22852,9 @@
       <c r="F750" t="s">
         <v>569</v>
       </c>
+      <c r="G750">
+        <v>0</v>
+      </c>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
@@ -22802,6 +22875,9 @@
       <c r="F751" t="s">
         <v>568</v>
       </c>
+      <c r="G751">
+        <v>0</v>
+      </c>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
@@ -22822,8 +22898,11 @@
       <c r="F752" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>46037</v>
       </c>
@@ -22843,7 +22922,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>46037</v>
       </c>
@@ -22862,8 +22941,11 @@
       <c r="F754" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>46037</v>
       </c>
@@ -22882,8 +22964,11 @@
       <c r="F755" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>46037</v>
       </c>
@@ -22900,10 +22985,13 @@
         <v>7</v>
       </c>
       <c r="F756" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>46037</v>
       </c>
@@ -22920,10 +23008,13 @@
         <v>12</v>
       </c>
       <c r="F757" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>46037</v>
       </c>
@@ -22942,8 +23033,11 @@
       <c r="F758" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>46037</v>
       </c>
@@ -22962,8 +23056,11 @@
       <c r="F759" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>46037</v>
       </c>
@@ -22982,8 +23079,11 @@
       <c r="F760" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>46037</v>
       </c>
@@ -23002,8 +23102,11 @@
       <c r="F761" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>46037</v>
       </c>
@@ -23020,10 +23123,13 @@
         <v>8</v>
       </c>
       <c r="F762" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>46037</v>
       </c>
@@ -23042,8 +23148,11 @@
       <c r="F763" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>46037</v>
       </c>
@@ -23062,8 +23171,11 @@
       <c r="F764" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>46037</v>
       </c>
@@ -23082,8 +23194,11 @@
       <c r="F765" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>46037</v>
       </c>
@@ -23100,10 +23215,13 @@
         <v>7</v>
       </c>
       <c r="F766" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>46037</v>
       </c>
@@ -23122,8 +23240,11 @@
       <c r="F767" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>46037</v>
       </c>
@@ -23142,8 +23263,11 @@
       <c r="F768" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>46037</v>
       </c>
@@ -23160,10 +23284,13 @@
         <v>8</v>
       </c>
       <c r="F769" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>46037</v>
       </c>
@@ -23180,10 +23307,13 @@
         <v>8</v>
       </c>
       <c r="F770" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>46037</v>
       </c>
@@ -23202,8 +23332,11 @@
       <c r="F771" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>46037</v>
       </c>
@@ -23222,8 +23355,11 @@
       <c r="F772" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>46037</v>
       </c>
@@ -23240,10 +23376,13 @@
         <v>7</v>
       </c>
       <c r="F773" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>46037</v>
       </c>
@@ -23262,8 +23401,11 @@
       <c r="F774" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>46037</v>
       </c>
@@ -23282,8 +23424,11 @@
       <c r="F775" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>46037</v>
       </c>
@@ -23300,10 +23445,13 @@
         <v>8</v>
       </c>
       <c r="F776" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>46037</v>
       </c>
@@ -23320,10 +23468,13 @@
         <v>7</v>
       </c>
       <c r="F777" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>46037</v>
       </c>
@@ -23340,10 +23491,13 @@
         <v>8</v>
       </c>
       <c r="F778" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>46037</v>
       </c>
@@ -23360,10 +23514,13 @@
         <v>8</v>
       </c>
       <c r="F779" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>46037</v>
       </c>
@@ -23380,10 +23537,13 @@
         <v>12</v>
       </c>
       <c r="F780" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>46037</v>
       </c>
@@ -23402,8 +23562,11 @@
       <c r="F781" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>46037</v>
       </c>
@@ -23422,8 +23585,11 @@
       <c r="F782" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>46037</v>
       </c>
@@ -23442,8 +23608,11 @@
       <c r="F783" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>46037</v>
       </c>
@@ -23460,10 +23629,13 @@
         <v>8</v>
       </c>
       <c r="F784" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>46037</v>
       </c>
@@ -23482,8 +23654,11 @@
       <c r="F785" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>46037</v>
       </c>
@@ -23502,8 +23677,11 @@
       <c r="F786" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>46037</v>
       </c>
@@ -23520,10 +23698,13 @@
         <v>8</v>
       </c>
       <c r="F787" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>46037</v>
       </c>
@@ -23542,8 +23723,11 @@
       <c r="F788" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>46037</v>
       </c>
@@ -23560,10 +23744,13 @@
         <v>8</v>
       </c>
       <c r="F789" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>46037</v>
       </c>
@@ -23582,8 +23769,11 @@
       <c r="F790" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>46037</v>
       </c>
@@ -23602,8 +23792,11 @@
       <c r="F791" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>46037</v>
       </c>
@@ -23620,10 +23813,13 @@
         <v>8</v>
       </c>
       <c r="F792" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>46037</v>
       </c>
@@ -23642,8 +23838,11 @@
       <c r="F793" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>46037</v>
       </c>
@@ -23660,10 +23859,13 @@
         <v>7</v>
       </c>
       <c r="F794" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>46037</v>
       </c>
@@ -23680,10 +23882,13 @@
         <v>8</v>
       </c>
       <c r="F795" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>46037</v>
       </c>
@@ -23700,10 +23905,13 @@
         <v>8</v>
       </c>
       <c r="F796" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>46037</v>
       </c>
@@ -23722,8 +23930,11 @@
       <c r="F797" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>46037</v>
       </c>
@@ -23740,10 +23951,13 @@
         <v>8</v>
       </c>
       <c r="F798" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>46037</v>
       </c>
@@ -23762,8 +23976,11 @@
       <c r="F799" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>46037</v>
       </c>
@@ -23782,8 +23999,11 @@
       <c r="F800" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>46037</v>
       </c>
@@ -23802,8 +24022,11 @@
       <c r="F801" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>46037</v>
       </c>
@@ -23820,10 +24043,13 @@
         <v>8</v>
       </c>
       <c r="F802" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>46037</v>
       </c>
@@ -23842,8 +24068,11 @@
       <c r="F803" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>46037</v>
       </c>
@@ -23862,8 +24091,11 @@
       <c r="F804" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G804">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>46037</v>
       </c>
@@ -23882,8 +24114,11 @@
       <c r="F805" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>46037</v>
       </c>
@@ -23902,8 +24137,11 @@
       <c r="F806" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>46037</v>
       </c>
@@ -23920,10 +24158,13 @@
         <v>8</v>
       </c>
       <c r="F807" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>46037</v>
       </c>
@@ -23940,10 +24181,13 @@
         <v>8</v>
       </c>
       <c r="F808" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>46037</v>
       </c>
@@ -23960,10 +24204,13 @@
         <v>8</v>
       </c>
       <c r="F809" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>46037</v>
       </c>
@@ -23982,8 +24229,11 @@
       <c r="F810" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>46037</v>
       </c>
@@ -24002,8 +24252,11 @@
       <c r="F811" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>46037</v>
       </c>
@@ -24020,10 +24273,13 @@
         <v>8</v>
       </c>
       <c r="F812" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="G812" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>46037</v>
       </c>
@@ -24042,8 +24298,11 @@
       <c r="F813" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>46037</v>
       </c>
@@ -24062,8 +24321,11 @@
       <c r="F814" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>46037</v>
       </c>
@@ -24082,8 +24344,11 @@
       <c r="F815" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>46037</v>
       </c>
@@ -24102,8 +24367,11 @@
       <c r="F816" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>46037</v>
       </c>
@@ -24122,8 +24390,11 @@
       <c r="F817" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>46037</v>
       </c>
@@ -24142,8 +24413,11 @@
       <c r="F818" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>46037</v>
       </c>
@@ -24160,10 +24434,13 @@
         <v>8</v>
       </c>
       <c r="F819" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>46037</v>
       </c>
@@ -24182,8 +24459,11 @@
       <c r="F820" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>46037</v>
       </c>
@@ -24200,10 +24480,13 @@
         <v>8</v>
       </c>
       <c r="F821" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>46037</v>
       </c>
@@ -24220,10 +24503,13 @@
         <v>7</v>
       </c>
       <c r="F822" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>46037</v>
       </c>
@@ -24242,8 +24528,11 @@
       <c r="F823" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>46037</v>
       </c>
@@ -24262,8 +24551,11 @@
       <c r="F824" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>46037</v>
       </c>
@@ -24282,8 +24574,11 @@
       <c r="F825" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>46037</v>
       </c>
@@ -24302,8 +24597,11 @@
       <c r="F826" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>46037</v>
       </c>
@@ -24322,8 +24620,11 @@
       <c r="F827" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>46037</v>
       </c>
@@ -24340,10 +24641,13 @@
         <v>7</v>
       </c>
       <c r="F828" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="G828" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>46037</v>
       </c>
@@ -24360,10 +24664,13 @@
         <v>8</v>
       </c>
       <c r="F829" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>46037</v>
       </c>
@@ -24380,10 +24687,13 @@
         <v>8</v>
       </c>
       <c r="F830" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>46037</v>
       </c>
@@ -24402,8 +24712,11 @@
       <c r="F831" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>46037</v>
       </c>
@@ -24422,8 +24735,11 @@
       <c r="F832" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>46037</v>
       </c>
@@ -24442,8 +24758,11 @@
       <c r="F833" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>46037</v>
       </c>
@@ -24462,8 +24781,11 @@
       <c r="F834" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>46037</v>
       </c>
@@ -24480,10 +24802,13 @@
         <v>8</v>
       </c>
       <c r="F835" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>46037</v>
       </c>
@@ -24500,10 +24825,13 @@
         <v>8</v>
       </c>
       <c r="F836" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>46037</v>
       </c>
@@ -24520,10 +24848,13 @@
         <v>8</v>
       </c>
       <c r="F837" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>46037</v>
       </c>
@@ -24540,38 +24871,241 @@
         <v>7</v>
       </c>
       <c r="F838" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A839" s="1"/>
-    </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A840" s="1"/>
-    </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A841" s="1"/>
-    </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A842" s="1"/>
-    </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A843" s="1"/>
-    </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A844" s="1"/>
-    </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A845" s="1"/>
-    </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A846" s="1"/>
-    </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A847" s="1"/>
-    </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A848" s="1"/>
+        <v>569</v>
+      </c>
+      <c r="G838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A839" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D839" t="s">
+        <v>16</v>
+      </c>
+      <c r="E839" t="s">
+        <v>8</v>
+      </c>
+      <c r="F839" t="s">
+        <v>569</v>
+      </c>
+      <c r="G839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A840" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D840" t="s">
+        <v>16</v>
+      </c>
+      <c r="E840" t="s">
+        <v>8</v>
+      </c>
+      <c r="F840" t="s">
+        <v>569</v>
+      </c>
+      <c r="G840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A841" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D841" t="s">
+        <v>116</v>
+      </c>
+      <c r="E841" t="s">
+        <v>8</v>
+      </c>
+      <c r="F841" t="s">
+        <v>569</v>
+      </c>
+      <c r="G841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A842" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D842" t="s">
+        <v>134</v>
+      </c>
+      <c r="E842" t="s">
+        <v>8</v>
+      </c>
+      <c r="F842" t="s">
+        <v>569</v>
+      </c>
+      <c r="G842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A843" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D843" t="s">
+        <v>23</v>
+      </c>
+      <c r="E843" t="s">
+        <v>8</v>
+      </c>
+      <c r="F843" t="s">
+        <v>569</v>
+      </c>
+      <c r="G843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A844" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D844" t="s">
+        <v>9</v>
+      </c>
+      <c r="E844" t="s">
+        <v>8</v>
+      </c>
+      <c r="F844" t="s">
+        <v>569</v>
+      </c>
+      <c r="G844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A845" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D845" t="s">
+        <v>116</v>
+      </c>
+      <c r="E845" t="s">
+        <v>8</v>
+      </c>
+      <c r="F845" t="s">
+        <v>569</v>
+      </c>
+      <c r="G845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A846" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D846" t="s">
+        <v>134</v>
+      </c>
+      <c r="E846" t="s">
+        <v>8</v>
+      </c>
+      <c r="F846" t="s">
+        <v>569</v>
+      </c>
+      <c r="G846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A847" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D847" t="s">
+        <v>44</v>
+      </c>
+      <c r="E847" t="s">
+        <v>7</v>
+      </c>
+      <c r="F847" t="s">
+        <v>569</v>
+      </c>
+      <c r="G847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A848" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D848" t="s">
+        <v>11</v>
+      </c>
+      <c r="E848" t="s">
+        <v>8</v>
+      </c>
+      <c r="F848" t="s">
+        <v>569</v>
+      </c>
+      <c r="G848">
+        <v>0</v>
+      </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>

--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7189EB20-2C21-4C57-BE93-69322DF340EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B3A7EF-6174-4B20-AC55-675942D0EE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="1830" windowWidth="20730" windowHeight="11160" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4255" uniqueCount="1744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4701" uniqueCount="1924">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -5268,6 +5268,546 @@
   </si>
   <si>
     <t>Procuracao outorgada pela empresa, com poderes de representacao junto a instituicoes financeiras podendo abrir e movimentar conta corrente com mandato vigente. O solicitante da abertura de conta nao possui poderes de representacao. A procuracao precisa ser Publica, ou Digital, assinada pelo GOV. e em formato PDF.</t>
+  </si>
+  <si>
+    <t>63127681000173</t>
+  </si>
+  <si>
+    <t>SAMUEL MATHEUS APARECIDO FENERICH</t>
+  </si>
+  <si>
+    <t>58818811000265</t>
+  </si>
+  <si>
+    <t>KC BATERIAS LTDA</t>
+  </si>
+  <si>
+    <t>64200015000186</t>
+  </si>
+  <si>
+    <t>CARVALHO PSICOLOGIA APLICADA LTDA</t>
+  </si>
+  <si>
+    <t>60695215000104</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA FAZENDA SAO JOSE LTDA</t>
+  </si>
+  <si>
+    <t>40834366000180</t>
+  </si>
+  <si>
+    <t>CONSULTORIO ODONTOLOGICO DR. JOSSIVAN CAMPOS LTDA</t>
+  </si>
+  <si>
+    <t>28074369000168</t>
+  </si>
+  <si>
+    <t>DANIEL OSEIAS DE PAULA</t>
+  </si>
+  <si>
+    <t>64409836000127</t>
+  </si>
+  <si>
+    <t>JPMN COMERCIO DE ELETRICOS E HIDRAULICOS LTDA</t>
+  </si>
+  <si>
+    <t>64451603000192</t>
+  </si>
+  <si>
+    <t>F L MATIAS SERVICOS</t>
+  </si>
+  <si>
+    <t>64077881000121</t>
+  </si>
+  <si>
+    <t>JOAO VICTOR ALMEIDA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>64375617000174</t>
+  </si>
+  <si>
+    <t>FABIANO LUIZ CERQUEIRA DA CONCEICAO</t>
+  </si>
+  <si>
+    <t>59771230000105</t>
+  </si>
+  <si>
+    <t>GURIU COMERCIO DA MATERIAL DE CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>64504272000101</t>
+  </si>
+  <si>
+    <t>IADA AVIATION LTDA</t>
+  </si>
+  <si>
+    <t>60169282000187</t>
+  </si>
+  <si>
+    <t>BAG MANIA LTDA</t>
+  </si>
+  <si>
+    <t>58433309000155</t>
+  </si>
+  <si>
+    <t>DEBORA CRISTIANE FERREIRA JACOBUCCI SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>64493642000152</t>
+  </si>
+  <si>
+    <t>M V CORDEIRO MARQUES COMERCIO</t>
+  </si>
+  <si>
+    <t>64505057000125</t>
+  </si>
+  <si>
+    <t>JSL PRESTADORA DE SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>10443222000132</t>
+  </si>
+  <si>
+    <t>MARCOS AIR RAMOS BRITO</t>
+  </si>
+  <si>
+    <t>56115216000157</t>
+  </si>
+  <si>
+    <t>LAGOINHA FROTAS LTDA</t>
+  </si>
+  <si>
+    <t>64496246000189</t>
+  </si>
+  <si>
+    <t>FENIX STUDIO DE DANCA LTDA</t>
+  </si>
+  <si>
+    <t>39504908000178</t>
+  </si>
+  <si>
+    <t>FERNANDO ALENCAR DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>62607447000180</t>
+  </si>
+  <si>
+    <t>ESSENTIS SAUDE LTDA</t>
+  </si>
+  <si>
+    <t>36534397000220</t>
+  </si>
+  <si>
+    <t>R.F. CARDOSO HASHTAG TURISMO LTDA</t>
+  </si>
+  <si>
+    <t>64509519000182</t>
+  </si>
+  <si>
+    <t>R M CARRENHO</t>
+  </si>
+  <si>
+    <t>61921205000102</t>
+  </si>
+  <si>
+    <t>GOOD SEED ASSESSORIA E CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>58638259000142</t>
+  </si>
+  <si>
+    <t>DEPOSITO DE BEBIDAS DOIS IRMAOS ARANGO LTDA</t>
+  </si>
+  <si>
+    <t>32172485000197</t>
+  </si>
+  <si>
+    <t>MRC7 EXPERIENCE LTDA</t>
+  </si>
+  <si>
+    <t>64503181000151</t>
+  </si>
+  <si>
+    <t>EJC MORAES VEICULOS LTDA</t>
+  </si>
+  <si>
+    <t>58845222000195</t>
+  </si>
+  <si>
+    <t>F PADILHA TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>05087068000173</t>
+  </si>
+  <si>
+    <t>G.T.C.DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>39802251000125</t>
+  </si>
+  <si>
+    <t>PEDROSO COMERCIAL DE CARNE LTDA</t>
+  </si>
+  <si>
+    <t>04327549000146</t>
+  </si>
+  <si>
+    <t>CIR - CONEXOES DE REDES LTDA</t>
+  </si>
+  <si>
+    <t>40131281000136</t>
+  </si>
+  <si>
+    <t>NUTRICIONISTA FLAVIA ROQUE LTDA</t>
+  </si>
+  <si>
+    <t>14639339000147</t>
+  </si>
+  <si>
+    <t>3IN INTERMEDIACOES E SOLUCOES EMPRESARIAIS LTDA</t>
+  </si>
+  <si>
+    <t>64476090000174</t>
+  </si>
+  <si>
+    <t>CAMARGOS BATISTA CORRETORA DE SEGUROS LTDA</t>
+  </si>
+  <si>
+    <t>15769083000155</t>
+  </si>
+  <si>
+    <t>DW CARGO EXPRESS LTDA</t>
+  </si>
+  <si>
+    <t>50859371000100</t>
+  </si>
+  <si>
+    <t>EMPORIO E LANCHONETE PREMIUM LTDA</t>
+  </si>
+  <si>
+    <t>64466356000106</t>
+  </si>
+  <si>
+    <t>ELETRONICA LIMA LTDA</t>
+  </si>
+  <si>
+    <t>60435728000178</t>
+  </si>
+  <si>
+    <t>LBN SOROCABA TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>64484670000103</t>
+  </si>
+  <si>
+    <t>SANDZ ECOM LTDA</t>
+  </si>
+  <si>
+    <t>Joao Pedro Gabriel Troiano</t>
+  </si>
+  <si>
+    <t>34925757000108</t>
+  </si>
+  <si>
+    <t>34.925.757 ISMAEL SERAFIM DA SILVA</t>
+  </si>
+  <si>
+    <t>20822208000101</t>
+  </si>
+  <si>
+    <t>TURISMO ALTO DA SERRA E ADEGA PANATO LTDA</t>
+  </si>
+  <si>
+    <t>60140627000170</t>
+  </si>
+  <si>
+    <t>GUILHERME FRAZAO REPRESENTACOES COMERCIAIS</t>
+  </si>
+  <si>
+    <t>57058797000103</t>
+  </si>
+  <si>
+    <t>RICARDO SIMPLICIO DA SILVA</t>
+  </si>
+  <si>
+    <t>60035600000117</t>
+  </si>
+  <si>
+    <t>CENTRO TERAPEUTICO CT DECIDIR LTDA</t>
+  </si>
+  <si>
+    <t>17888044000100</t>
+  </si>
+  <si>
+    <t>LUIZ FERNANDO PEREIRA ARRUDA</t>
+  </si>
+  <si>
+    <t>19020959000117</t>
+  </si>
+  <si>
+    <t>ALEX S. DIAS DE SOUZA SERRALHERIA</t>
+  </si>
+  <si>
+    <t>38113210000169</t>
+  </si>
+  <si>
+    <t>KATYUZA MARQUES FARIA SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>37107124000180</t>
+  </si>
+  <si>
+    <t>BRUNO WALBERTO DE JESUS ANDRADE</t>
+  </si>
+  <si>
+    <t>42678545000100</t>
+  </si>
+  <si>
+    <t>PARAOPEBA FUTEBOL CLUBE</t>
+  </si>
+  <si>
+    <t>35950826000104</t>
+  </si>
+  <si>
+    <t>MR TENIS ESCOLA DE ESPORTE LTDA</t>
+  </si>
+  <si>
+    <t>41599773000113</t>
+  </si>
+  <si>
+    <t>LAIANY VILA BIZARO COLETA DE RESIDUOS LTDA</t>
+  </si>
+  <si>
+    <t>49412391000140</t>
+  </si>
+  <si>
+    <t>TRACKER BRASIL MONITORAMENTO VEICULAR LTDA</t>
+  </si>
+  <si>
+    <t>64475014000144</t>
+  </si>
+  <si>
+    <t>IPANEMA SERVICOS DE CUIDADOS DE PESSOAS LTDA.</t>
+  </si>
+  <si>
+    <t>24455063000109</t>
+  </si>
+  <si>
+    <t>M&amp;M CONSTRUCOES E INCORPORACOES LTDA</t>
+  </si>
+  <si>
+    <t>00319659000105</t>
+  </si>
+  <si>
+    <t>ANTOLOGICA CONSULTORIA EDICOES E EVENTOS LTDA</t>
+  </si>
+  <si>
+    <t>64328160000147</t>
+  </si>
+  <si>
+    <t>Rebeca Moda Jeans</t>
+  </si>
+  <si>
+    <t>61172906000188</t>
+  </si>
+  <si>
+    <t>JOCA PISOS E REVESTIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>61629638000180</t>
+  </si>
+  <si>
+    <t>E. MARTINS DAS CHAGAS</t>
+  </si>
+  <si>
+    <t>64309929000180</t>
+  </si>
+  <si>
+    <t>ISMAEL SOUSA DE ARAUJO</t>
+  </si>
+  <si>
+    <t>64327764000179</t>
+  </si>
+  <si>
+    <t>INSPRO INSPECAO VEICULAR LTDA</t>
+  </si>
+  <si>
+    <t>45232308000109</t>
+  </si>
+  <si>
+    <t>UP ONE TURISMO LTDA</t>
+  </si>
+  <si>
+    <t>64220222000100</t>
+  </si>
+  <si>
+    <t>PALHETA EXCELENTE PARTICIPACOES LTDA</t>
+  </si>
+  <si>
+    <t>64445260000153</t>
+  </si>
+  <si>
+    <t>CAFETERIA CAVALO BRANCO LTDA</t>
+  </si>
+  <si>
+    <t>51167688000130</t>
+  </si>
+  <si>
+    <t>N S V TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>36764831000187</t>
+  </si>
+  <si>
+    <t>CASPON SERVICOS TERCEIRIZADOS LTDA</t>
+  </si>
+  <si>
+    <t>62461076000171</t>
+  </si>
+  <si>
+    <t>MF NOGUEIRA REPRESENTACOES LTDA</t>
+  </si>
+  <si>
+    <t>37719487000177</t>
+  </si>
+  <si>
+    <t>MARCONI CUTRIM COSTA</t>
+  </si>
+  <si>
+    <t>17747633000160</t>
+  </si>
+  <si>
+    <t>RAISSA TEIXEIRA PIMENTEL DE SOUSA</t>
+  </si>
+  <si>
+    <t>53962244000111</t>
+  </si>
+  <si>
+    <t>VIDRACEIRO CAMARGO LTDA</t>
+  </si>
+  <si>
+    <t>50156935000130</t>
+  </si>
+  <si>
+    <t>REPRESENTACOES CRB LTDA</t>
+  </si>
+  <si>
+    <t>54195740000150</t>
+  </si>
+  <si>
+    <t>LUIZ PHELIPE MELO DO ESPIRITO SANTO</t>
+  </si>
+  <si>
+    <t>64270976000167</t>
+  </si>
+  <si>
+    <t>BENEVENTO PRESTACIONAL LTDA</t>
+  </si>
+  <si>
+    <t>63969551000188</t>
+  </si>
+  <si>
+    <t>LVM CONSULTORIA E REPRESENTACAO COMERCIAL LTDA</t>
+  </si>
+  <si>
+    <t>Felipe Silva</t>
+  </si>
+  <si>
+    <t>52552560000152</t>
+  </si>
+  <si>
+    <t>LUCIANO RODRIGO APARICIO PRAXEDES</t>
+  </si>
+  <si>
+    <t>32467280000139</t>
+  </si>
+  <si>
+    <t>MARINA SOARES DE CARVALHO</t>
+  </si>
+  <si>
+    <t>64226235000189</t>
+  </si>
+  <si>
+    <t>WR CONTABILIDADE E CONSULTORIA EMPRESARIAL LTDA</t>
+  </si>
+  <si>
+    <t>13172332000103</t>
+  </si>
+  <si>
+    <t>R S GUIMARAES LTDA</t>
+  </si>
+  <si>
+    <t>28399545000131</t>
+  </si>
+  <si>
+    <t>28.399.545 AUGUSTO CEZAR NASCIMENTO DE MENDONCA</t>
+  </si>
+  <si>
+    <t>54414129000175</t>
+  </si>
+  <si>
+    <t>ADEQUA - ENGENHARIA E SOLUCOES PARA CONSTRUCAO LTDA</t>
+  </si>
+  <si>
+    <t>61995241000102</t>
+  </si>
+  <si>
+    <t>A. PAULINO PEDRO PINTURA LTDA</t>
+  </si>
+  <si>
+    <t>41886503000193</t>
+  </si>
+  <si>
+    <t>MAX POINT BAR E CHOPERIA LTDA</t>
+  </si>
+  <si>
+    <t>37865804000163</t>
+  </si>
+  <si>
+    <t>EAGLE VISION LTDA</t>
+  </si>
+  <si>
+    <t>19420780000157</t>
+  </si>
+  <si>
+    <t>JAVA HOUSE PASTELARIA LTDA</t>
+  </si>
+  <si>
+    <t>63894134000113</t>
+  </si>
+  <si>
+    <t>TC SOLUCOES INDUSTRIAIS LTDA</t>
+  </si>
+  <si>
+    <t>37780218000116</t>
+  </si>
+  <si>
+    <t>EMPREITEIRA FORNAZIERO LTDA</t>
+  </si>
+  <si>
+    <t>26608060000185</t>
+  </si>
+  <si>
+    <t>NILTON CESAR DOS SANTOS SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>43637573000133</t>
+  </si>
+  <si>
+    <t>EVANDRO ALVES SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>64437865000100</t>
+  </si>
+  <si>
+    <t>MARMORARIA EVOLUCAO LTDA</t>
+  </si>
+  <si>
+    <t>17904348000106</t>
+  </si>
+  <si>
+    <t>SSJ CASTRO DECORACOES E INTERIORES LTDA</t>
   </si>
 </sst>
 </file>
@@ -5641,7 +6181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
   <dimension ref="A1:G1330"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A918" workbookViewId="0">
+      <selection activeCell="F937" sqref="F937"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14804,7 +15346,7 @@
         <v>8</v>
       </c>
       <c r="F399" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G399">
         <v>0</v>
@@ -22962,7 +23504,7 @@
         <v>8</v>
       </c>
       <c r="F755" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G755">
         <v>0</v>
@@ -23261,7 +23803,7 @@
         <v>8</v>
       </c>
       <c r="F768" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G768">
         <v>0</v>
@@ -23767,7 +24309,7 @@
         <v>7</v>
       </c>
       <c r="F790" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G790">
         <v>0</v>
@@ -24112,7 +24654,7 @@
         <v>8</v>
       </c>
       <c r="F805" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G805">
         <v>0</v>
@@ -24135,7 +24677,7 @@
         <v>8</v>
       </c>
       <c r="F806" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G806">
         <v>0</v>
@@ -24641,7 +25183,7 @@
         <v>7</v>
       </c>
       <c r="F828" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G828" t="s">
         <v>1161</v>
@@ -24756,7 +25298,7 @@
         <v>7</v>
       </c>
       <c r="F833" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G833">
         <v>0</v>
@@ -25107,292 +25649,2069 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A849" s="1"/>
-    </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A850" s="1"/>
-    </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A851" s="1"/>
-    </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A852" s="1"/>
-    </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A853" s="1"/>
-    </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A854" s="1"/>
-    </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A855" s="1"/>
-    </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A856" s="1"/>
-    </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A857" s="1"/>
-    </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A858" s="1"/>
-    </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A859" s="1"/>
-    </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A860" s="1"/>
-    </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A861" s="1"/>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A862" s="1"/>
-    </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A863" s="1"/>
-    </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A864" s="1"/>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A865" s="1"/>
-    </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A866" s="1"/>
-    </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A867" s="1"/>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A868" s="1"/>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A869" s="1"/>
-    </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A870" s="1"/>
-    </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A871" s="1"/>
-    </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A872" s="1"/>
-    </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A873" s="1"/>
-    </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A874" s="1"/>
-    </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A875" s="1"/>
-    </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A876" s="1"/>
-    </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A877" s="1"/>
-    </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A878" s="1"/>
-    </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A879" s="1"/>
-    </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A880" s="1"/>
-    </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A881" s="1"/>
-    </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A882" s="1"/>
-    </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A883" s="1"/>
-    </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A884" s="1"/>
-    </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A885" s="1"/>
-    </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A886" s="1"/>
-    </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A887" s="1"/>
-    </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A888" s="1"/>
-    </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A889" s="1"/>
-    </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A890" s="1"/>
-    </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A891" s="1"/>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A892" s="1"/>
-    </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A893" s="1"/>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A894" s="1"/>
-    </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A895" s="1"/>
-    </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A896" s="1"/>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A897" s="1"/>
-    </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A898" s="1"/>
-    </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A899" s="1"/>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A900" s="1"/>
-    </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A901" s="1"/>
-    </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A902" s="1"/>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A903" s="1"/>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A904" s="1"/>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A905" s="1"/>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A906" s="1"/>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A907" s="1"/>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A908" s="1"/>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A909" s="1"/>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A910" s="1"/>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A911" s="1"/>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A912" s="1"/>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A913" s="1"/>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A914" s="1"/>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A915" s="1"/>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A916" s="1"/>
-    </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A917" s="1"/>
-    </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A918" s="1"/>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A919" s="1"/>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A920" s="1"/>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A921" s="1"/>
-    </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A922" s="1"/>
-    </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A923" s="1"/>
-    </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A924" s="1"/>
-    </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A925" s="1"/>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A926" s="1"/>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A927" s="1"/>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A928" s="1"/>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A929" s="1"/>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A930" s="1"/>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A931" s="1"/>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A932" s="1"/>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A933" s="1"/>
-    </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A934" s="1"/>
-    </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A935" s="1"/>
-    </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A936" s="1"/>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A937" s="1"/>
-    </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A849" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D849" t="s">
+        <v>18</v>
+      </c>
+      <c r="E849" t="s">
+        <v>19</v>
+      </c>
+      <c r="F849" t="s">
+        <v>569</v>
+      </c>
+      <c r="G849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A850" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C850" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D850" t="s">
+        <v>10</v>
+      </c>
+      <c r="E850" t="s">
+        <v>8</v>
+      </c>
+      <c r="F850" t="s">
+        <v>569</v>
+      </c>
+      <c r="G850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A851" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C851" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D851" t="s">
+        <v>14</v>
+      </c>
+      <c r="E851" t="s">
+        <v>8</v>
+      </c>
+      <c r="F851" t="s">
+        <v>569</v>
+      </c>
+      <c r="G851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A852" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C852" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D852" t="s">
+        <v>16</v>
+      </c>
+      <c r="E852" t="s">
+        <v>8</v>
+      </c>
+      <c r="F852" t="s">
+        <v>569</v>
+      </c>
+      <c r="G852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A853" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D853" t="s">
+        <v>17</v>
+      </c>
+      <c r="E853" t="s">
+        <v>8</v>
+      </c>
+      <c r="F853" t="s">
+        <v>569</v>
+      </c>
+      <c r="G853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A854" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D854" t="s">
+        <v>22</v>
+      </c>
+      <c r="E854" t="s">
+        <v>7</v>
+      </c>
+      <c r="F854" t="s">
+        <v>569</v>
+      </c>
+      <c r="G854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A855" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D855" t="s">
+        <v>209</v>
+      </c>
+      <c r="E855" t="s">
+        <v>12</v>
+      </c>
+      <c r="F855" t="s">
+        <v>569</v>
+      </c>
+      <c r="G855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A856" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D856" t="s">
+        <v>237</v>
+      </c>
+      <c r="E856" t="s">
+        <v>12</v>
+      </c>
+      <c r="F856" t="s">
+        <v>569</v>
+      </c>
+      <c r="G856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A857" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C857" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D857" t="s">
+        <v>14</v>
+      </c>
+      <c r="E857" t="s">
+        <v>8</v>
+      </c>
+      <c r="F857" t="s">
+        <v>569</v>
+      </c>
+      <c r="G857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A858" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C858" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D858" t="s">
+        <v>113</v>
+      </c>
+      <c r="E858" t="s">
+        <v>7</v>
+      </c>
+      <c r="F858" t="s">
+        <v>569</v>
+      </c>
+      <c r="G858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A859" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D859" t="s">
+        <v>6</v>
+      </c>
+      <c r="E859" t="s">
+        <v>8</v>
+      </c>
+      <c r="F859" t="s">
+        <v>569</v>
+      </c>
+      <c r="G859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A860" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D860" t="s">
+        <v>113</v>
+      </c>
+      <c r="E860" t="s">
+        <v>7</v>
+      </c>
+      <c r="F860" t="s">
+        <v>573</v>
+      </c>
+      <c r="G860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A861" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D861" t="s">
+        <v>11</v>
+      </c>
+      <c r="E861" t="s">
+        <v>8</v>
+      </c>
+      <c r="F861" t="s">
+        <v>569</v>
+      </c>
+      <c r="G861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A862" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D862" t="s">
+        <v>17</v>
+      </c>
+      <c r="E862" t="s">
+        <v>8</v>
+      </c>
+      <c r="F862" t="s">
+        <v>569</v>
+      </c>
+      <c r="G862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A863" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D863" t="s">
+        <v>154</v>
+      </c>
+      <c r="E863" t="s">
+        <v>12</v>
+      </c>
+      <c r="F863" t="s">
+        <v>569</v>
+      </c>
+      <c r="G863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A864" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D864" t="s">
+        <v>209</v>
+      </c>
+      <c r="E864" t="s">
+        <v>12</v>
+      </c>
+      <c r="F864" t="s">
+        <v>570</v>
+      </c>
+      <c r="G864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A865" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C865" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D865" t="s">
+        <v>116</v>
+      </c>
+      <c r="E865" t="s">
+        <v>8</v>
+      </c>
+      <c r="F865" t="s">
+        <v>570</v>
+      </c>
+      <c r="G865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A866" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C866" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D866" t="s">
+        <v>22</v>
+      </c>
+      <c r="E866" t="s">
+        <v>7</v>
+      </c>
+      <c r="F866" t="s">
+        <v>569</v>
+      </c>
+      <c r="G866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A867" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C867" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D867" t="s">
+        <v>154</v>
+      </c>
+      <c r="E867" t="s">
+        <v>12</v>
+      </c>
+      <c r="F867" t="s">
+        <v>573</v>
+      </c>
+      <c r="G867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A868" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C868" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D868" t="s">
+        <v>134</v>
+      </c>
+      <c r="E868" t="s">
+        <v>7</v>
+      </c>
+      <c r="F868" t="s">
+        <v>573</v>
+      </c>
+      <c r="G868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A869" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C869" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D869" t="s">
+        <v>6</v>
+      </c>
+      <c r="E869" t="s">
+        <v>8</v>
+      </c>
+      <c r="F869" t="s">
+        <v>570</v>
+      </c>
+      <c r="G869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A870" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D870" t="s">
+        <v>113</v>
+      </c>
+      <c r="E870" t="s">
+        <v>8</v>
+      </c>
+      <c r="F870" t="s">
+        <v>570</v>
+      </c>
+      <c r="G870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D871" t="s">
+        <v>237</v>
+      </c>
+      <c r="E871" t="s">
+        <v>12</v>
+      </c>
+      <c r="F871" t="s">
+        <v>573</v>
+      </c>
+      <c r="G871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A872" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D872" t="s">
+        <v>131</v>
+      </c>
+      <c r="E872" t="s">
+        <v>7</v>
+      </c>
+      <c r="F872" t="s">
+        <v>569</v>
+      </c>
+      <c r="G872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D873" t="s">
+        <v>17</v>
+      </c>
+      <c r="E873" t="s">
+        <v>8</v>
+      </c>
+      <c r="F873" t="s">
+        <v>569</v>
+      </c>
+      <c r="G873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A874" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D874" t="s">
+        <v>131</v>
+      </c>
+      <c r="E874" t="s">
+        <v>8</v>
+      </c>
+      <c r="F874" t="s">
+        <v>570</v>
+      </c>
+      <c r="G874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D875" t="s">
+        <v>237</v>
+      </c>
+      <c r="E875" t="s">
+        <v>12</v>
+      </c>
+      <c r="F875" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A876" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D876" t="s">
+        <v>14</v>
+      </c>
+      <c r="E876" t="s">
+        <v>8</v>
+      </c>
+      <c r="F876" t="s">
+        <v>569</v>
+      </c>
+      <c r="G876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A877" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C877" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D877" t="s">
+        <v>44</v>
+      </c>
+      <c r="E877" t="s">
+        <v>7</v>
+      </c>
+      <c r="F877" t="s">
+        <v>570</v>
+      </c>
+      <c r="G877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A878" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C878" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D878" t="s">
+        <v>13</v>
+      </c>
+      <c r="E878" t="s">
+        <v>8</v>
+      </c>
+      <c r="F878" t="s">
+        <v>569</v>
+      </c>
+      <c r="G878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A879" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D879" t="s">
+        <v>134</v>
+      </c>
+      <c r="E879" t="s">
+        <v>8</v>
+      </c>
+      <c r="F879" t="s">
+        <v>569</v>
+      </c>
+      <c r="G879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A880" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D880" t="s">
+        <v>237</v>
+      </c>
+      <c r="E880" t="s">
+        <v>12</v>
+      </c>
+      <c r="F880" t="s">
+        <v>569</v>
+      </c>
+      <c r="G880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A881" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D881" t="s">
+        <v>131</v>
+      </c>
+      <c r="E881" t="s">
+        <v>8</v>
+      </c>
+      <c r="F881" t="s">
+        <v>569</v>
+      </c>
+      <c r="G881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A882" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C882" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D882" t="s">
+        <v>237</v>
+      </c>
+      <c r="E882" t="s">
+        <v>12</v>
+      </c>
+      <c r="F882" t="s">
+        <v>569</v>
+      </c>
+      <c r="G882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A883" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C883" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E883" t="s">
+        <v>7</v>
+      </c>
+      <c r="F883" t="s">
+        <v>571</v>
+      </c>
+      <c r="G883" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A884" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D884" t="s">
+        <v>6</v>
+      </c>
+      <c r="E884" t="s">
+        <v>8</v>
+      </c>
+      <c r="F884" t="s">
+        <v>569</v>
+      </c>
+      <c r="G884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A885" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D885" t="s">
+        <v>154</v>
+      </c>
+      <c r="E885" t="s">
+        <v>12</v>
+      </c>
+      <c r="F885" t="s">
+        <v>573</v>
+      </c>
+      <c r="G885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A886" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C886" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D886" t="s">
+        <v>13</v>
+      </c>
+      <c r="E886" t="s">
+        <v>8</v>
+      </c>
+      <c r="F886" t="s">
+        <v>569</v>
+      </c>
+      <c r="G886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A887" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C887" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D887" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E887" t="s">
+        <v>12</v>
+      </c>
+      <c r="F887" t="s">
+        <v>570</v>
+      </c>
+      <c r="G887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A888" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C888" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D888" t="s">
+        <v>131</v>
+      </c>
+      <c r="E888" t="s">
+        <v>8</v>
+      </c>
+      <c r="F888" t="s">
+        <v>569</v>
+      </c>
+      <c r="G888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A889" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C889" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D889" t="s">
+        <v>17</v>
+      </c>
+      <c r="E889" t="s">
+        <v>8</v>
+      </c>
+      <c r="F889" t="s">
+        <v>569</v>
+      </c>
+      <c r="G889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A890" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C890" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D890" t="s">
+        <v>16</v>
+      </c>
+      <c r="E890" t="s">
+        <v>8</v>
+      </c>
+      <c r="F890" t="s">
+        <v>569</v>
+      </c>
+      <c r="G890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A891" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C891" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D891" t="s">
+        <v>22</v>
+      </c>
+      <c r="E891" t="s">
+        <v>8</v>
+      </c>
+      <c r="F891" t="s">
+        <v>569</v>
+      </c>
+      <c r="G891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A892" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C892" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D892" t="s">
+        <v>134</v>
+      </c>
+      <c r="E892" t="s">
+        <v>8</v>
+      </c>
+      <c r="F892" t="s">
+        <v>570</v>
+      </c>
+      <c r="G892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A893" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C893" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D893" t="s">
+        <v>116</v>
+      </c>
+      <c r="E893" t="s">
+        <v>8</v>
+      </c>
+      <c r="F893" t="s">
+        <v>569</v>
+      </c>
+      <c r="G893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A894" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C894" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D894" t="s">
+        <v>13</v>
+      </c>
+      <c r="E894" t="s">
+        <v>8</v>
+      </c>
+      <c r="F894" t="s">
+        <v>569</v>
+      </c>
+      <c r="G894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A895" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C895" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D895" t="s">
+        <v>10</v>
+      </c>
+      <c r="E895" t="s">
+        <v>8</v>
+      </c>
+      <c r="F895" t="s">
+        <v>573</v>
+      </c>
+      <c r="G895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A896" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C896" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D896" t="s">
+        <v>14</v>
+      </c>
+      <c r="E896" t="s">
+        <v>8</v>
+      </c>
+      <c r="F896" t="s">
+        <v>568</v>
+      </c>
+      <c r="G896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A897" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D897" t="s">
+        <v>22</v>
+      </c>
+      <c r="E897" t="s">
+        <v>7</v>
+      </c>
+      <c r="F897" t="s">
+        <v>570</v>
+      </c>
+      <c r="G897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A898" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D898" t="s">
+        <v>113</v>
+      </c>
+      <c r="E898" t="s">
+        <v>8</v>
+      </c>
+      <c r="F898" t="s">
+        <v>569</v>
+      </c>
+      <c r="G898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A899" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C899" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D899" t="s">
+        <v>134</v>
+      </c>
+      <c r="E899" t="s">
+        <v>8</v>
+      </c>
+      <c r="F899" t="s">
+        <v>569</v>
+      </c>
+      <c r="G899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A900" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C900" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D900" t="s">
+        <v>131</v>
+      </c>
+      <c r="E900" t="s">
+        <v>8</v>
+      </c>
+      <c r="F900" t="s">
+        <v>569</v>
+      </c>
+      <c r="G900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A901" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C901" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D901" t="s">
+        <v>237</v>
+      </c>
+      <c r="E901" t="s">
+        <v>12</v>
+      </c>
+      <c r="F901" t="s">
+        <v>569</v>
+      </c>
+      <c r="G901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A902" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C902" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D902" t="s">
+        <v>134</v>
+      </c>
+      <c r="E902" t="s">
+        <v>8</v>
+      </c>
+      <c r="F902" t="s">
+        <v>569</v>
+      </c>
+      <c r="G902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A903" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D903" t="s">
+        <v>22</v>
+      </c>
+      <c r="E903" t="s">
+        <v>7</v>
+      </c>
+      <c r="F903" t="s">
+        <v>570</v>
+      </c>
+      <c r="G903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A904" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C904" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D904" t="s">
+        <v>237</v>
+      </c>
+      <c r="E904" t="s">
+        <v>12</v>
+      </c>
+      <c r="F904" t="s">
+        <v>568</v>
+      </c>
+      <c r="G904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A905" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C905" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D905" t="s">
+        <v>16</v>
+      </c>
+      <c r="E905" t="s">
+        <v>8</v>
+      </c>
+      <c r="F905" t="s">
+        <v>569</v>
+      </c>
+      <c r="G905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A906" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C906" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D906" t="s">
+        <v>116</v>
+      </c>
+      <c r="E906" t="s">
+        <v>8</v>
+      </c>
+      <c r="F906" t="s">
+        <v>570</v>
+      </c>
+      <c r="G906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A907" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C907" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D907" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E907" t="s">
+        <v>12</v>
+      </c>
+      <c r="F907" t="s">
+        <v>569</v>
+      </c>
+      <c r="G907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A908" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D908" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E908" t="s">
+        <v>12</v>
+      </c>
+      <c r="F908" t="s">
+        <v>569</v>
+      </c>
+      <c r="G908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A909" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D909" t="s">
+        <v>134</v>
+      </c>
+      <c r="E909" t="s">
+        <v>8</v>
+      </c>
+      <c r="F909" t="s">
+        <v>569</v>
+      </c>
+      <c r="G909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A910" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D910" t="s">
+        <v>237</v>
+      </c>
+      <c r="E910" t="s">
+        <v>12</v>
+      </c>
+      <c r="F910" t="s">
+        <v>569</v>
+      </c>
+      <c r="G910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A911" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D911" t="s">
+        <v>116</v>
+      </c>
+      <c r="E911" t="s">
+        <v>8</v>
+      </c>
+      <c r="F911" t="s">
+        <v>569</v>
+      </c>
+      <c r="G911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A912" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D912" t="s">
+        <v>116</v>
+      </c>
+      <c r="E912" t="s">
+        <v>8</v>
+      </c>
+      <c r="F912" t="s">
+        <v>569</v>
+      </c>
+      <c r="G912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A913" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C913" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D913" t="s">
+        <v>13</v>
+      </c>
+      <c r="E913" t="s">
+        <v>8</v>
+      </c>
+      <c r="F913" t="s">
+        <v>569</v>
+      </c>
+      <c r="G913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A914" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C914" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D914" t="s">
+        <v>13</v>
+      </c>
+      <c r="E914" t="s">
+        <v>8</v>
+      </c>
+      <c r="F914" t="s">
+        <v>569</v>
+      </c>
+      <c r="G914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A915" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C915" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E915" t="s">
+        <v>7</v>
+      </c>
+      <c r="F915" t="s">
+        <v>568</v>
+      </c>
+      <c r="G915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A916" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C916" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D916" t="s">
+        <v>22</v>
+      </c>
+      <c r="E916" t="s">
+        <v>7</v>
+      </c>
+      <c r="F916" t="s">
+        <v>568</v>
+      </c>
+      <c r="G916">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A917" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C917" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D917" t="s">
+        <v>16</v>
+      </c>
+      <c r="E917" t="s">
+        <v>8</v>
+      </c>
+      <c r="F917" t="s">
+        <v>569</v>
+      </c>
+      <c r="G917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A918" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C918" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D918" t="s">
+        <v>17</v>
+      </c>
+      <c r="E918" t="s">
+        <v>8</v>
+      </c>
+      <c r="F918" t="s">
+        <v>569</v>
+      </c>
+      <c r="G918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A919" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C919" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D919" t="s">
+        <v>14</v>
+      </c>
+      <c r="E919" t="s">
+        <v>8</v>
+      </c>
+      <c r="F919" t="s">
+        <v>569</v>
+      </c>
+      <c r="G919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A920" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C920" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D920" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E920" t="s">
+        <v>12</v>
+      </c>
+      <c r="F920" t="s">
+        <v>569</v>
+      </c>
+      <c r="G920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A921" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C921" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D921" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E921" t="s">
+        <v>12</v>
+      </c>
+      <c r="F921" t="s">
+        <v>569</v>
+      </c>
+      <c r="G921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A922" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C922" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D922" t="s">
+        <v>134</v>
+      </c>
+      <c r="E922" t="s">
+        <v>8</v>
+      </c>
+      <c r="F922" t="s">
+        <v>569</v>
+      </c>
+      <c r="G922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A923" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C923" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D923" t="s">
+        <v>13</v>
+      </c>
+      <c r="E923" t="s">
+        <v>8</v>
+      </c>
+      <c r="F923" t="s">
+        <v>573</v>
+      </c>
+      <c r="G923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A924" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C924" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D924" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E924" t="s">
+        <v>12</v>
+      </c>
+      <c r="F924" t="s">
+        <v>569</v>
+      </c>
+      <c r="G924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A925" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C925" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D925" t="s">
+        <v>16</v>
+      </c>
+      <c r="E925" t="s">
+        <v>8</v>
+      </c>
+      <c r="F925" t="s">
+        <v>568</v>
+      </c>
+      <c r="G925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A926" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C926" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D926" t="s">
+        <v>6</v>
+      </c>
+      <c r="E926" t="s">
+        <v>8</v>
+      </c>
+      <c r="F926" t="s">
+        <v>569</v>
+      </c>
+      <c r="G926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A927" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D927" t="s">
+        <v>9</v>
+      </c>
+      <c r="E927" t="s">
+        <v>8</v>
+      </c>
+      <c r="F927" t="s">
+        <v>569</v>
+      </c>
+      <c r="G927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A928" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D928" t="s">
+        <v>11</v>
+      </c>
+      <c r="E928" t="s">
+        <v>8</v>
+      </c>
+      <c r="F928" t="s">
+        <v>573</v>
+      </c>
+      <c r="G928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A929" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C929" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D929" t="s">
+        <v>22</v>
+      </c>
+      <c r="E929" t="s">
+        <v>8</v>
+      </c>
+      <c r="F929" t="s">
+        <v>569</v>
+      </c>
+      <c r="G929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A930" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C930" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D930" t="s">
+        <v>44</v>
+      </c>
+      <c r="E930" t="s">
+        <v>7</v>
+      </c>
+      <c r="F930" t="s">
+        <v>573</v>
+      </c>
+      <c r="G930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A931" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C931" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D931" t="s">
+        <v>9</v>
+      </c>
+      <c r="E931" t="s">
+        <v>8</v>
+      </c>
+      <c r="F931" t="s">
+        <v>569</v>
+      </c>
+      <c r="G931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A932" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C932" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D932" t="s">
+        <v>116</v>
+      </c>
+      <c r="E932" t="s">
+        <v>8</v>
+      </c>
+      <c r="F932" t="s">
+        <v>573</v>
+      </c>
+      <c r="G932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A933" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C933" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D933" t="s">
+        <v>16</v>
+      </c>
+      <c r="E933" t="s">
+        <v>8</v>
+      </c>
+      <c r="F933" t="s">
+        <v>569</v>
+      </c>
+      <c r="G933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A934" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C934" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D934" t="s">
+        <v>6</v>
+      </c>
+      <c r="E934" t="s">
+        <v>8</v>
+      </c>
+      <c r="F934" t="s">
+        <v>569</v>
+      </c>
+      <c r="G934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A935" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C935" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D935" t="s">
+        <v>134</v>
+      </c>
+      <c r="E935" t="s">
+        <v>8</v>
+      </c>
+      <c r="F935" t="s">
+        <v>569</v>
+      </c>
+      <c r="G935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A936" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C936" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D936" t="s">
+        <v>23</v>
+      </c>
+      <c r="E936" t="s">
+        <v>8</v>
+      </c>
+      <c r="F936" t="s">
+        <v>569</v>
+      </c>
+      <c r="G936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A937" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C937" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D937" t="s">
+        <v>134</v>
+      </c>
+      <c r="E937" t="s">
+        <v>8</v>
+      </c>
+      <c r="F937" t="s">
+        <v>569</v>
+      </c>
+      <c r="G937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">

--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C771EC12-EE06-4567-85CD-69637F3266E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D5FB6F-6255-4DDF-91E3-CF2A6E426D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
+    <workbookView xWindow="21480" yWindow="1830" windowWidth="20730" windowHeight="11160" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$1219</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7880,10 +7883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1198" workbookViewId="0">
-      <selection activeCell="A1219" sqref="A1219"/>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7914,7 +7918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>46027</v>
       </c>
@@ -8006,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46027</v>
       </c>
@@ -8236,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>46027</v>
       </c>
@@ -8282,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>46027</v>
       </c>
@@ -8305,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>46027</v>
       </c>
@@ -8328,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>46027</v>
       </c>
@@ -8374,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>46027</v>
       </c>
@@ -8811,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>46028</v>
       </c>
@@ -8903,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46028</v>
       </c>
@@ -9386,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>46028</v>
       </c>
@@ -9455,7 +9459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>46028</v>
       </c>
@@ -9570,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>46028</v>
       </c>
@@ -9846,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>46028</v>
       </c>
@@ -9938,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>46028</v>
       </c>
@@ -9984,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>46028</v>
       </c>
@@ -10418,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>46028</v>
       </c>
@@ -10487,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>46028</v>
       </c>
@@ -10510,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>46028</v>
       </c>
@@ -10694,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>46028</v>
       </c>
@@ -10740,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>46028</v>
       </c>
@@ -10832,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>46028</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>46029</v>
       </c>
@@ -11358,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>46029</v>
       </c>
@@ -11450,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>46029</v>
       </c>
@@ -11519,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>46029</v>
       </c>
@@ -11611,7 +11615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>46029</v>
       </c>
@@ -11772,7 +11776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>46029</v>
       </c>
@@ -11933,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>46029</v>
       </c>
@@ -12002,7 +12006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>46029</v>
       </c>
@@ -12025,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>46029</v>
       </c>
@@ -12071,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>46029</v>
       </c>
@@ -12094,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>46029</v>
       </c>
@@ -12229,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>46029</v>
       </c>
@@ -12321,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>46029</v>
       </c>
@@ -12344,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>46029</v>
       </c>
@@ -12459,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>46029</v>
       </c>
@@ -12482,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>46029</v>
       </c>
@@ -12574,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>46029</v>
       </c>
@@ -12620,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>46029</v>
       </c>
@@ -12643,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>46029</v>
       </c>
@@ -12666,7 +12670,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>46029</v>
       </c>
@@ -12758,7 +12762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>46029</v>
       </c>
@@ -12801,7 +12805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>46029</v>
       </c>
@@ -12824,7 +12828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>46029</v>
       </c>
@@ -12847,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>46029</v>
       </c>
@@ -12939,7 +12943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>46029</v>
       </c>
@@ -12962,7 +12966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>46029</v>
       </c>
@@ -13100,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>46029</v>
       </c>
@@ -13123,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>46029</v>
       </c>
@@ -13284,7 +13288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>46029</v>
       </c>
@@ -13330,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>46029</v>
       </c>
@@ -14089,7 +14093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>46030</v>
       </c>
@@ -14112,7 +14116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>46030</v>
       </c>
@@ -14158,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>46030</v>
       </c>
@@ -14250,7 +14254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>46030</v>
       </c>
@@ -14273,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>46030</v>
       </c>
@@ -14365,7 +14369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>46030</v>
       </c>
@@ -14457,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>46030</v>
       </c>
@@ -14526,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>46030</v>
       </c>
@@ -14549,7 +14553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>46030</v>
       </c>
@@ -14756,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>46030</v>
       </c>
@@ -15055,7 +15059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>46030</v>
       </c>
@@ -15101,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>46030</v>
       </c>
@@ -15124,7 +15128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>46030</v>
       </c>
@@ -15147,7 +15151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>46030</v>
       </c>
@@ -15216,7 +15220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>46030</v>
       </c>
@@ -15308,7 +15312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>46030</v>
       </c>
@@ -15354,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>46030</v>
       </c>
@@ -15561,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>46030</v>
       </c>
@@ -15676,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>46030</v>
       </c>
@@ -15745,7 +15749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>46030</v>
       </c>
@@ -15837,7 +15841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>46030</v>
       </c>
@@ -15975,7 +15979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>46030</v>
       </c>
@@ -16343,7 +16347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>46031</v>
       </c>
@@ -16435,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>46031</v>
       </c>
@@ -16501,7 +16505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>46031</v>
       </c>
@@ -16524,7 +16528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>46031</v>
       </c>
@@ -16570,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>46031</v>
       </c>
@@ -16616,7 +16620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>46031</v>
       </c>
@@ -16800,7 +16804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>46031</v>
       </c>
@@ -16846,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>46031</v>
       </c>
@@ -16869,7 +16873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>46031</v>
       </c>
@@ -17076,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>46031</v>
       </c>
@@ -17099,7 +17103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>46031</v>
       </c>
@@ -17122,7 +17126,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>46031</v>
       </c>
@@ -17191,7 +17195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>46031</v>
       </c>
@@ -17306,7 +17310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>46031</v>
       </c>
@@ -17444,7 +17448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>46031</v>
       </c>
@@ -17536,7 +17540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>46031</v>
       </c>
@@ -17559,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>46031</v>
       </c>
@@ -17605,7 +17609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>46031</v>
       </c>
@@ -17651,7 +17655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>46031</v>
       </c>
@@ -17717,7 +17721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>46031</v>
       </c>
@@ -17740,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>46031</v>
       </c>
@@ -17878,7 +17882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>46031</v>
       </c>
@@ -18059,7 +18063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>46031</v>
       </c>
@@ -18128,7 +18132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>46034</v>
       </c>
@@ -18174,7 +18178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>46034</v>
       </c>
@@ -18243,7 +18247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>46034</v>
       </c>
@@ -18289,7 +18293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>46034</v>
       </c>
@@ -18312,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>46034</v>
       </c>
@@ -18335,7 +18339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>46034</v>
       </c>
@@ -18427,7 +18431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>46034</v>
       </c>
@@ -18519,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>46034</v>
       </c>
@@ -18588,7 +18592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>46034</v>
       </c>
@@ -18634,7 +18638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>46034</v>
       </c>
@@ -18723,7 +18727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>46034</v>
       </c>
@@ -18769,7 +18773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>46034</v>
       </c>
@@ -19091,7 +19095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>46034</v>
       </c>
@@ -19137,7 +19141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>46034</v>
       </c>
@@ -19344,7 +19348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>46034</v>
       </c>
@@ -19436,7 +19440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>46034</v>
       </c>
@@ -19528,7 +19532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>46034</v>
       </c>
@@ -19574,7 +19578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>46034</v>
       </c>
@@ -19643,7 +19647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>46034</v>
       </c>
@@ -19666,7 +19670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>46034</v>
       </c>
@@ -19689,7 +19693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>46034</v>
       </c>
@@ -19781,7 +19785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>46034</v>
       </c>
@@ -19988,7 +19992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>46034</v>
       </c>
@@ -20080,7 +20084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>46034</v>
       </c>
@@ -20793,7 +20797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>46035</v>
       </c>
@@ -20839,7 +20843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>46035</v>
       </c>
@@ -20885,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>46035</v>
       </c>
@@ -20931,7 +20935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>46035</v>
       </c>
@@ -20977,7 +20981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>46035</v>
       </c>
@@ -21046,7 +21050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>46035</v>
       </c>
@@ -21092,7 +21096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>46035</v>
       </c>
@@ -21184,7 +21188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>46035</v>
       </c>
@@ -21276,7 +21280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>46035</v>
       </c>
@@ -21391,7 +21395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>46035</v>
       </c>
@@ -21506,7 +21510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>46035</v>
       </c>
@@ -21529,7 +21533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>46035</v>
       </c>
@@ -21644,7 +21648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>46035</v>
       </c>
@@ -21690,7 +21694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>46035</v>
       </c>
@@ -21759,7 +21763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>46035</v>
       </c>
@@ -21782,7 +21786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>46035</v>
       </c>
@@ -21989,7 +21993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>46035</v>
       </c>
@@ -22012,7 +22016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>46035</v>
       </c>
@@ -22035,7 +22039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>46035</v>
       </c>
@@ -22058,7 +22062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>46035</v>
       </c>
@@ -22127,7 +22131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>46035</v>
       </c>
@@ -22219,7 +22223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>46035</v>
       </c>
@@ -22265,7 +22269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>46035</v>
       </c>
@@ -22311,7 +22315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>46035</v>
       </c>
@@ -22334,7 +22338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>46035</v>
       </c>
@@ -22357,7 +22361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>46035</v>
       </c>
@@ -22656,7 +22660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>46036</v>
       </c>
@@ -22702,7 +22706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>46036</v>
       </c>
@@ -22863,7 +22867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>46036</v>
       </c>
@@ -22886,7 +22890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>46036</v>
       </c>
@@ -22909,7 +22913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>46036</v>
       </c>
@@ -22932,7 +22936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>46036</v>
       </c>
@@ -22952,7 +22956,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>46036</v>
       </c>
@@ -23110,7 +23114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>46036</v>
       </c>
@@ -23179,7 +23183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>46036</v>
       </c>
@@ -23202,7 +23206,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>46036</v>
       </c>
@@ -23248,7 +23252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>46036</v>
       </c>
@@ -23294,7 +23298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>46036</v>
       </c>
@@ -23363,7 +23367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>46036</v>
       </c>
@@ -23478,7 +23482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>46036</v>
       </c>
@@ -23547,7 +23551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>46036</v>
       </c>
@@ -23593,7 +23597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>46036</v>
       </c>
@@ -23685,7 +23689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>46036</v>
       </c>
@@ -23777,7 +23781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>46036</v>
       </c>
@@ -23800,7 +23804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>46036</v>
       </c>
@@ -23915,7 +23919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>46036</v>
       </c>
@@ -24007,7 +24011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>46036</v>
       </c>
@@ -24027,7 +24031,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>46036</v>
       </c>
@@ -24073,7 +24077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>46036</v>
       </c>
@@ -24208,7 +24212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>46036</v>
       </c>
@@ -24231,7 +24235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>46036</v>
       </c>
@@ -24251,7 +24255,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>46036</v>
       </c>
@@ -24389,7 +24393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>46036</v>
       </c>
@@ -24527,7 +24531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>46036</v>
       </c>
@@ -24573,7 +24577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>46036</v>
       </c>
@@ -24688,7 +24692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>46036</v>
       </c>
@@ -24734,7 +24738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>46036</v>
       </c>
@@ -24823,7 +24827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>46036</v>
       </c>
@@ -24984,7 +24988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>46037</v>
       </c>
@@ -25076,7 +25080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>46037</v>
       </c>
@@ -25122,7 +25126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>46037</v>
       </c>
@@ -25165,7 +25169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>46037</v>
       </c>
@@ -25211,7 +25215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>46037</v>
       </c>
@@ -25418,7 +25422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>46037</v>
       </c>
@@ -25464,7 +25468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>46037</v>
       </c>
@@ -25510,7 +25514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>46037</v>
       </c>
@@ -25533,7 +25537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>46037</v>
       </c>
@@ -25671,7 +25675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>46037</v>
       </c>
@@ -25694,7 +25698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>46037</v>
       </c>
@@ -25901,7 +25905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>46037</v>
       </c>
@@ -25924,7 +25928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>46037</v>
       </c>
@@ -25947,7 +25951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>46037</v>
       </c>
@@ -25970,7 +25974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>46037</v>
       </c>
@@ -26223,7 +26227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>46037</v>
       </c>
@@ -26292,7 +26296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>46037</v>
       </c>
@@ -26315,7 +26319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>46037</v>
       </c>
@@ -26338,7 +26342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>46037</v>
       </c>
@@ -26361,7 +26365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>46037</v>
       </c>
@@ -26384,7 +26388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>46037</v>
       </c>
@@ -26476,7 +26480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>46037</v>
       </c>
@@ -26545,7 +26549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>46037</v>
       </c>
@@ -26591,7 +26595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>46037</v>
       </c>
@@ -26798,7 +26802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>46037</v>
       </c>
@@ -26844,7 +26848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>46037</v>
       </c>
@@ -26867,7 +26871,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>46037</v>
       </c>
@@ -26890,7 +26894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>46037</v>
       </c>
@@ -26936,7 +26940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>46037</v>
       </c>
@@ -26956,7 +26960,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>46037</v>
       </c>
@@ -26979,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>46037</v>
       </c>
@@ -27002,7 +27006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>46037</v>
       </c>
@@ -27025,7 +27029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>46037</v>
       </c>
@@ -27669,7 +27673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>46038</v>
       </c>
@@ -27692,7 +27696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>46038</v>
       </c>
@@ -27761,7 +27765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>46038</v>
       </c>
@@ -27807,7 +27811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>46038</v>
       </c>
@@ -27899,7 +27903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>46038</v>
       </c>
@@ -27922,7 +27926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>46038</v>
       </c>
@@ -27965,7 +27969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>46038</v>
       </c>
@@ -28103,7 +28107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>46038</v>
       </c>
@@ -28149,7 +28153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>46038</v>
       </c>
@@ -28195,7 +28199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>46038</v>
       </c>
@@ -28310,7 +28314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>46038</v>
       </c>
@@ -28379,7 +28383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>46038</v>
       </c>
@@ -28402,7 +28406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>46038</v>
       </c>
@@ -28425,7 +28429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>46038</v>
       </c>
@@ -28563,7 +28567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
         <v>46038</v>
       </c>
@@ -28586,7 +28590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
         <v>46038</v>
       </c>
@@ -28632,7 +28636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
         <v>46038</v>
       </c>
@@ -28839,7 +28843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>46038</v>
       </c>
@@ -28862,7 +28866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
         <v>46038</v>
       </c>
@@ -29069,7 +29073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
         <v>46038</v>
       </c>
@@ -29138,7 +29142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
         <v>46038</v>
       </c>
@@ -29411,7 +29415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
         <v>46041</v>
       </c>
@@ -29503,7 +29507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
         <v>46041</v>
       </c>
@@ -29526,7 +29530,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
         <v>46041</v>
       </c>
@@ -29641,7 +29645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
         <v>46041</v>
       </c>
@@ -29661,7 +29665,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
         <v>46041</v>
       </c>
@@ -29776,7 +29780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
         <v>46041</v>
       </c>
@@ -29822,7 +29826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
         <v>46041</v>
       </c>
@@ -29891,7 +29895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
         <v>46041</v>
       </c>
@@ -29960,7 +29964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
         <v>46041</v>
       </c>
@@ -29983,7 +29987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
         <v>46041</v>
       </c>
@@ -30006,7 +30010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
         <v>46041</v>
       </c>
@@ -30029,7 +30033,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
         <v>46041</v>
       </c>
@@ -30098,7 +30102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
         <v>46041</v>
       </c>
@@ -30144,7 +30148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
         <v>46041</v>
       </c>
@@ -30167,7 +30171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
         <v>46041</v>
       </c>
@@ -30213,7 +30217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
         <v>46041</v>
       </c>
@@ -30305,7 +30309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
         <v>46041</v>
       </c>
@@ -30397,7 +30401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
         <v>46041</v>
       </c>
@@ -30512,7 +30516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
         <v>46041</v>
       </c>
@@ -30604,7 +30608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
         <v>46041</v>
       </c>
@@ -30627,7 +30631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
         <v>46041</v>
       </c>
@@ -30719,7 +30723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
         <v>46041</v>
       </c>
@@ -30742,7 +30746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1">
         <v>46041</v>
       </c>
@@ -30788,7 +30792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
         <v>46041</v>
       </c>
@@ -30811,7 +30815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
         <v>46041</v>
       </c>
@@ -30834,7 +30838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="1">
         <v>46041</v>
       </c>
@@ -30926,7 +30930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="1">
         <v>46041</v>
       </c>
@@ -30949,7 +30953,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="1">
         <v>46041</v>
       </c>
@@ -30969,7 +30973,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="1">
         <v>46041</v>
       </c>
@@ -31015,7 +31019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="1">
         <v>46041</v>
       </c>
@@ -31038,7 +31042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="1">
         <v>46041</v>
       </c>
@@ -31153,7 +31157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
         <v>46041</v>
       </c>
@@ -31268,7 +31272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
         <v>46041</v>
       </c>
@@ -31314,7 +31318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
         <v>46041</v>
       </c>
@@ -31475,7 +31479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="1">
         <v>46041</v>
       </c>
@@ -31613,7 +31617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" s="1">
         <v>46041</v>
       </c>
@@ -31705,7 +31709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039" s="1">
         <v>46041</v>
       </c>
@@ -31866,7 +31870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1046" s="1">
         <v>46042</v>
       </c>
@@ -32096,7 +32100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" s="1">
         <v>46042</v>
       </c>
@@ -32119,7 +32123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1057" s="1">
         <v>46042</v>
       </c>
@@ -32165,7 +32169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1059" s="1">
         <v>46042</v>
       </c>
@@ -32188,7 +32192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1060" s="1">
         <v>46042</v>
       </c>
@@ -32234,7 +32238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1062" s="1">
         <v>46042</v>
       </c>
@@ -32280,7 +32284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1064" s="1">
         <v>46042</v>
       </c>
@@ -32303,7 +32307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1065" s="1">
         <v>46042</v>
       </c>
@@ -32323,7 +32327,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1066" s="1">
         <v>46042</v>
       </c>
@@ -32369,7 +32373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1068" s="1">
         <v>46042</v>
       </c>
@@ -32415,7 +32419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1070" s="1">
         <v>46042</v>
       </c>
@@ -32530,7 +32534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1075" s="1">
         <v>46042</v>
       </c>
@@ -32645,7 +32649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1080" s="1">
         <v>46042</v>
       </c>
@@ -32668,7 +32672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1081" s="1">
         <v>46042</v>
       </c>
@@ -32737,7 +32741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1084" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1084" s="1">
         <v>46042</v>
       </c>
@@ -32806,7 +32810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1087" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1087" s="1">
         <v>46042</v>
       </c>
@@ -32829,7 +32833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1088" s="1">
         <v>46042</v>
       </c>
@@ -33082,7 +33086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1099" s="1">
         <v>46042</v>
       </c>
@@ -33197,7 +33201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1104" s="1">
         <v>46042</v>
       </c>
@@ -33312,7 +33316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1109" s="1">
         <v>46042</v>
       </c>
@@ -33358,7 +33362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1111" s="1">
         <v>46042</v>
       </c>
@@ -33450,7 +33454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1115" s="1">
         <v>46042</v>
       </c>
@@ -33565,7 +33569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1120" s="1">
         <v>46042</v>
       </c>
@@ -33611,7 +33615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1122" s="1">
         <v>46042</v>
       </c>
@@ -33680,7 +33684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1125" s="1">
         <v>46042</v>
       </c>
@@ -33703,7 +33707,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="1126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1126" s="1">
         <v>46042</v>
       </c>
@@ -33726,7 +33730,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="1127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1127" s="1">
         <v>46042</v>
       </c>
@@ -33749,7 +33753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1128" s="1">
         <v>46042</v>
       </c>
@@ -33910,7 +33914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1135" s="1">
         <v>46042</v>
       </c>
@@ -34094,7 +34098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1143" s="1">
         <v>46043</v>
       </c>
@@ -34209,7 +34213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1148" s="1">
         <v>46043</v>
       </c>
@@ -34255,7 +34259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1150" s="1">
         <v>46043</v>
       </c>
@@ -34347,7 +34351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1154" s="1">
         <v>46043</v>
       </c>
@@ -34370,7 +34374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1155" s="1">
         <v>46043</v>
       </c>
@@ -34390,7 +34394,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1156" s="1">
         <v>46043</v>
       </c>
@@ -34413,7 +34417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1157" s="1">
         <v>46043</v>
       </c>
@@ -34505,7 +34509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1161" s="1">
         <v>46043</v>
       </c>
@@ -34528,7 +34532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1162" s="1">
         <v>46043</v>
       </c>
@@ -34666,7 +34670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1168" s="1">
         <v>46043</v>
       </c>
@@ -34712,7 +34716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1170" s="1">
         <v>46043</v>
       </c>
@@ -34850,7 +34854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1176" s="1">
         <v>46043</v>
       </c>
@@ -34919,7 +34923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1179" s="1">
         <v>46043</v>
       </c>
@@ -34942,7 +34946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1180" s="1">
         <v>46043</v>
       </c>
@@ -34988,7 +34992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1182" s="1">
         <v>46043</v>
       </c>
@@ -35011,7 +35015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1183" s="1">
         <v>46043</v>
       </c>
@@ -35057,7 +35061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1185" s="1">
         <v>46043</v>
       </c>
@@ -35080,7 +35084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1186" s="1">
         <v>46043</v>
       </c>
@@ -35103,7 +35107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1187" s="1">
         <v>46043</v>
       </c>
@@ -35126,7 +35130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1188" s="1">
         <v>46043</v>
       </c>
@@ -35218,7 +35222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1192" s="1">
         <v>46043</v>
       </c>
@@ -35264,7 +35268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1194" s="1">
         <v>46043</v>
       </c>
@@ -35356,7 +35360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1198" s="1">
         <v>46043</v>
       </c>
@@ -35471,7 +35475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1203" s="1">
         <v>46043</v>
       </c>
@@ -35494,7 +35498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1204" s="1">
         <v>46043</v>
       </c>
@@ -35563,7 +35567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1207" s="1">
         <v>46043</v>
       </c>
@@ -35606,7 +35610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1209" s="1">
         <v>46043</v>
       </c>
@@ -35652,7 +35656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1211" s="1">
         <v>46043</v>
       </c>
@@ -35698,7 +35702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1213" s="1">
         <v>46043</v>
       </c>
@@ -35721,7 +35725,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="1214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1214" s="1">
         <v>46043</v>
       </c>
@@ -35860,6 +35864,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1219" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="APROVADA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D5FB6F-6255-4DDF-91E3-CF2A6E426D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34639538-9065-4F8A-9AED-89EDCEFB5A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="1830" windowWidth="20730" windowHeight="11160" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -7883,11 +7883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7918,7 +7917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>46027</v>
       </c>
@@ -8010,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46027</v>
       </c>
@@ -8240,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>46027</v>
       </c>
@@ -8286,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>46027</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>46027</v>
       </c>
@@ -8332,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>46027</v>
       </c>
@@ -8378,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>46027</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>46028</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46028</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>46028</v>
       </c>
@@ -9459,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>46028</v>
       </c>
@@ -9574,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>46028</v>
       </c>
@@ -9850,7 +9849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>46028</v>
       </c>
@@ -9942,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>46028</v>
       </c>
@@ -9988,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>46028</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>46028</v>
       </c>
@@ -10491,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>46028</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>46028</v>
       </c>
@@ -10698,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>46028</v>
       </c>
@@ -10744,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>46028</v>
       </c>
@@ -10836,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>46028</v>
       </c>
@@ -11296,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>46029</v>
       </c>
@@ -11362,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>46029</v>
       </c>
@@ -11454,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>46029</v>
       </c>
@@ -11523,7 +11522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>46029</v>
       </c>
@@ -11615,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>46029</v>
       </c>
@@ -11776,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>46029</v>
       </c>
@@ -11937,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>46029</v>
       </c>
@@ -12006,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>46029</v>
       </c>
@@ -12029,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>46029</v>
       </c>
@@ -12075,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>46029</v>
       </c>
@@ -12098,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>46029</v>
       </c>
@@ -12233,7 +12232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>46029</v>
       </c>
@@ -12325,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>46029</v>
       </c>
@@ -12348,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>46029</v>
       </c>
@@ -12463,7 +12462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>46029</v>
       </c>
@@ -12486,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>46029</v>
       </c>
@@ -12578,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>46029</v>
       </c>
@@ -12624,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>46029</v>
       </c>
@@ -12647,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>46029</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>46029</v>
       </c>
@@ -12762,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>46029</v>
       </c>
@@ -12805,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>46029</v>
       </c>
@@ -12828,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>46029</v>
       </c>
@@ -12851,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>46029</v>
       </c>
@@ -12943,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>46029</v>
       </c>
@@ -12966,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>46029</v>
       </c>
@@ -13104,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>46029</v>
       </c>
@@ -13127,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>46029</v>
       </c>
@@ -13288,7 +13287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>46029</v>
       </c>
@@ -13334,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>46029</v>
       </c>
@@ -14093,7 +14092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>46030</v>
       </c>
@@ -14116,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>46030</v>
       </c>
@@ -14162,7 +14161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>46030</v>
       </c>
@@ -14254,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>46030</v>
       </c>
@@ -14277,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>46030</v>
       </c>
@@ -14369,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>46030</v>
       </c>
@@ -14461,7 +14460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>46030</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>46030</v>
       </c>
@@ -14553,7 +14552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>46030</v>
       </c>
@@ -14760,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>46030</v>
       </c>
@@ -15059,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>46030</v>
       </c>
@@ -15105,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>46030</v>
       </c>
@@ -15128,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>46030</v>
       </c>
@@ -15151,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>46030</v>
       </c>
@@ -15220,7 +15219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>46030</v>
       </c>
@@ -15312,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>46030</v>
       </c>
@@ -15358,7 +15357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>46030</v>
       </c>
@@ -15565,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>46030</v>
       </c>
@@ -15680,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>46030</v>
       </c>
@@ -15749,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>46030</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>46030</v>
       </c>
@@ -15979,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>46030</v>
       </c>
@@ -16347,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>46031</v>
       </c>
@@ -16439,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>46031</v>
       </c>
@@ -16505,7 +16504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>46031</v>
       </c>
@@ -16528,7 +16527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>46031</v>
       </c>
@@ -16574,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>46031</v>
       </c>
@@ -16620,7 +16619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>46031</v>
       </c>
@@ -16804,7 +16803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>46031</v>
       </c>
@@ -16850,7 +16849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>46031</v>
       </c>
@@ -16873,7 +16872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>46031</v>
       </c>
@@ -17080,7 +17079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>46031</v>
       </c>
@@ -17103,7 +17102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>46031</v>
       </c>
@@ -17126,7 +17125,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>46031</v>
       </c>
@@ -17195,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>46031</v>
       </c>
@@ -17310,7 +17309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>46031</v>
       </c>
@@ -17448,7 +17447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>46031</v>
       </c>
@@ -17540,7 +17539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>46031</v>
       </c>
@@ -17563,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>46031</v>
       </c>
@@ -17609,7 +17608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>46031</v>
       </c>
@@ -17655,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>46031</v>
       </c>
@@ -17721,7 +17720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>46031</v>
       </c>
@@ -17744,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>46031</v>
       </c>
@@ -17882,7 +17881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>46031</v>
       </c>
@@ -18063,7 +18062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>46031</v>
       </c>
@@ -18132,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>46034</v>
       </c>
@@ -18178,7 +18177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>46034</v>
       </c>
@@ -18247,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>46034</v>
       </c>
@@ -18293,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>46034</v>
       </c>
@@ -18316,7 +18315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>46034</v>
       </c>
@@ -18339,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>46034</v>
       </c>
@@ -18431,7 +18430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>46034</v>
       </c>
@@ -18523,7 +18522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>46034</v>
       </c>
@@ -18592,7 +18591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>46034</v>
       </c>
@@ -18638,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>46034</v>
       </c>
@@ -18727,7 +18726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>46034</v>
       </c>
@@ -18773,7 +18772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>46034</v>
       </c>
@@ -19095,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>46034</v>
       </c>
@@ -19141,7 +19140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>46034</v>
       </c>
@@ -19348,7 +19347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>46034</v>
       </c>
@@ -19440,7 +19439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>46034</v>
       </c>
@@ -19532,7 +19531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>46034</v>
       </c>
@@ -19578,7 +19577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>46034</v>
       </c>
@@ -19647,7 +19646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>46034</v>
       </c>
@@ -19670,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>46034</v>
       </c>
@@ -19693,7 +19692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>46034</v>
       </c>
@@ -19785,7 +19784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>46034</v>
       </c>
@@ -19992,7 +19991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>46034</v>
       </c>
@@ -20084,7 +20083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>46034</v>
       </c>
@@ -20797,7 +20796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>46035</v>
       </c>
@@ -20843,7 +20842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>46035</v>
       </c>
@@ -20889,7 +20888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>46035</v>
       </c>
@@ -20935,7 +20934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>46035</v>
       </c>
@@ -20981,7 +20980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>46035</v>
       </c>
@@ -21050,7 +21049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>46035</v>
       </c>
@@ -21096,7 +21095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>46035</v>
       </c>
@@ -21188,7 +21187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>46035</v>
       </c>
@@ -21280,7 +21279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>46035</v>
       </c>
@@ -21395,7 +21394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>46035</v>
       </c>
@@ -21510,7 +21509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>46035</v>
       </c>
@@ -21533,7 +21532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>46035</v>
       </c>
@@ -21648,7 +21647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>46035</v>
       </c>
@@ -21694,7 +21693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>46035</v>
       </c>
@@ -21763,7 +21762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>46035</v>
       </c>
@@ -21786,7 +21785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>46035</v>
       </c>
@@ -21993,7 +21992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>46035</v>
       </c>
@@ -22016,7 +22015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>46035</v>
       </c>
@@ -22039,7 +22038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>46035</v>
       </c>
@@ -22062,7 +22061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>46035</v>
       </c>
@@ -22131,7 +22130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>46035</v>
       </c>
@@ -22223,7 +22222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>46035</v>
       </c>
@@ -22269,7 +22268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>46035</v>
       </c>
@@ -22315,7 +22314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>46035</v>
       </c>
@@ -22338,7 +22337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>46035</v>
       </c>
@@ -22361,7 +22360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>46035</v>
       </c>
@@ -22660,7 +22659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>46036</v>
       </c>
@@ -22706,7 +22705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>46036</v>
       </c>
@@ -22867,7 +22866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>46036</v>
       </c>
@@ -22890,7 +22889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>46036</v>
       </c>
@@ -22913,7 +22912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>46036</v>
       </c>
@@ -22936,7 +22935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>46036</v>
       </c>
@@ -22956,7 +22955,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>46036</v>
       </c>
@@ -23114,7 +23113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>46036</v>
       </c>
@@ -23183,7 +23182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>46036</v>
       </c>
@@ -23206,7 +23205,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>46036</v>
       </c>
@@ -23252,7 +23251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>46036</v>
       </c>
@@ -23298,7 +23297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>46036</v>
       </c>
@@ -23367,7 +23366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>46036</v>
       </c>
@@ -23482,7 +23481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>46036</v>
       </c>
@@ -23551,7 +23550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>46036</v>
       </c>
@@ -23597,7 +23596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>46036</v>
       </c>
@@ -23689,7 +23688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>46036</v>
       </c>
@@ -23781,7 +23780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>46036</v>
       </c>
@@ -23804,7 +23803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>46036</v>
       </c>
@@ -23919,7 +23918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>46036</v>
       </c>
@@ -24011,7 +24010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>46036</v>
       </c>
@@ -24031,7 +24030,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="704" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>46036</v>
       </c>
@@ -24077,7 +24076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>46036</v>
       </c>
@@ -24212,7 +24211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>46036</v>
       </c>
@@ -24235,7 +24234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>46036</v>
       </c>
@@ -24255,7 +24254,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>46036</v>
       </c>
@@ -24393,7 +24392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>46036</v>
       </c>
@@ -24531,7 +24530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>46036</v>
       </c>
@@ -24577,7 +24576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>46036</v>
       </c>
@@ -24692,7 +24691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>46036</v>
       </c>
@@ -24738,7 +24737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>46036</v>
       </c>
@@ -24827,7 +24826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>46036</v>
       </c>
@@ -24988,7 +24987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>46037</v>
       </c>
@@ -25080,7 +25079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>46037</v>
       </c>
@@ -25126,7 +25125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>46037</v>
       </c>
@@ -25169,7 +25168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>46037</v>
       </c>
@@ -25215,7 +25214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>46037</v>
       </c>
@@ -25422,7 +25421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>46037</v>
       </c>
@@ -25468,7 +25467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>46037</v>
       </c>
@@ -25514,7 +25513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>46037</v>
       </c>
@@ -25537,7 +25536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>46037</v>
       </c>
@@ -25675,7 +25674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>46037</v>
       </c>
@@ -25698,7 +25697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>46037</v>
       </c>
@@ -25905,7 +25904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>46037</v>
       </c>
@@ -25928,7 +25927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>46037</v>
       </c>
@@ -25951,7 +25950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>46037</v>
       </c>
@@ -25974,7 +25973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>46037</v>
       </c>
@@ -26227,7 +26226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>46037</v>
       </c>
@@ -26296,7 +26295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>46037</v>
       </c>
@@ -26319,7 +26318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>46037</v>
       </c>
@@ -26342,7 +26341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>46037</v>
       </c>
@@ -26365,7 +26364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>46037</v>
       </c>
@@ -26388,7 +26387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>46037</v>
       </c>
@@ -26480,7 +26479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>46037</v>
       </c>
@@ -26549,7 +26548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>46037</v>
       </c>
@@ -26595,7 +26594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>46037</v>
       </c>
@@ -26802,7 +26801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>46037</v>
       </c>
@@ -26848,7 +26847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>46037</v>
       </c>
@@ -26871,7 +26870,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="828" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>46037</v>
       </c>
@@ -26894,7 +26893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>46037</v>
       </c>
@@ -26940,7 +26939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>46037</v>
       </c>
@@ -26960,7 +26959,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="832" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>46037</v>
       </c>
@@ -26983,7 +26982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>46037</v>
       </c>
@@ -27006,7 +27005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>46037</v>
       </c>
@@ -27029,7 +27028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>46037</v>
       </c>
@@ -27673,7 +27672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>46038</v>
       </c>
@@ -27696,7 +27695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>46038</v>
       </c>
@@ -27765,7 +27764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>46038</v>
       </c>
@@ -27811,7 +27810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>46038</v>
       </c>
@@ -27903,7 +27902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>46038</v>
       </c>
@@ -27926,7 +27925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>46038</v>
       </c>
@@ -27969,7 +27968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>46038</v>
       </c>
@@ -28107,7 +28106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>46038</v>
       </c>
@@ -28153,7 +28152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>46038</v>
       </c>
@@ -28199,7 +28198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>46038</v>
       </c>
@@ -28314,7 +28313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>46038</v>
       </c>
@@ -28383,7 +28382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>46038</v>
       </c>
@@ -28406,7 +28405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>46038</v>
       </c>
@@ -28429,7 +28428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>46038</v>
       </c>
@@ -28567,7 +28566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
         <v>46038</v>
       </c>
@@ -28590,7 +28589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
         <v>46038</v>
       </c>
@@ -28636,7 +28635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
         <v>46038</v>
       </c>
@@ -28843,7 +28842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>46038</v>
       </c>
@@ -28866,7 +28865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
         <v>46038</v>
       </c>
@@ -29073,7 +29072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
         <v>46038</v>
       </c>
@@ -29142,7 +29141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
         <v>46038</v>
       </c>
@@ -29415,7 +29414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
         <v>46041</v>
       </c>
@@ -29507,7 +29506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
         <v>46041</v>
       </c>
@@ -29530,7 +29529,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="944" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
         <v>46041</v>
       </c>
@@ -29645,7 +29644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
         <v>46041</v>
       </c>
@@ -29665,7 +29664,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="950" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
         <v>46041</v>
       </c>
@@ -29780,7 +29779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
         <v>46041</v>
       </c>
@@ -29826,7 +29825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
         <v>46041</v>
       </c>
@@ -29895,7 +29894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
         <v>46041</v>
       </c>
@@ -29964,7 +29963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
         <v>46041</v>
       </c>
@@ -29987,7 +29986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
         <v>46041</v>
       </c>
@@ -30010,7 +30009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
         <v>46041</v>
       </c>
@@ -30033,7 +30032,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="966" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
         <v>46041</v>
       </c>
@@ -30102,7 +30101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
         <v>46041</v>
       </c>
@@ -30148,7 +30147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
         <v>46041</v>
       </c>
@@ -30171,7 +30170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
         <v>46041</v>
       </c>
@@ -30217,7 +30216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
         <v>46041</v>
       </c>
@@ -30309,7 +30308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
         <v>46041</v>
       </c>
@@ -30401,7 +30400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
         <v>46041</v>
       </c>
@@ -30516,7 +30515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
         <v>46041</v>
       </c>
@@ -30608,7 +30607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
         <v>46041</v>
       </c>
@@ -30631,7 +30630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
         <v>46041</v>
       </c>
@@ -30723,7 +30722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
         <v>46041</v>
       </c>
@@ -30746,7 +30745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A997" s="1">
         <v>46041</v>
       </c>
@@ -30792,7 +30791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
         <v>46041</v>
       </c>
@@ -30815,7 +30814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
         <v>46041</v>
       </c>
@@ -30838,7 +30837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1001" s="1">
         <v>46041</v>
       </c>
@@ -30930,7 +30929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1005" s="1">
         <v>46041</v>
       </c>
@@ -30953,7 +30952,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006" s="1">
         <v>46041</v>
       </c>
@@ -30973,7 +30972,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1007" s="1">
         <v>46041</v>
       </c>
@@ -31019,7 +31018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009" s="1">
         <v>46041</v>
       </c>
@@ -31042,7 +31041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010" s="1">
         <v>46041</v>
       </c>
@@ -31157,7 +31156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
         <v>46041</v>
       </c>
@@ -31272,7 +31271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
         <v>46041</v>
       </c>
@@ -31318,7 +31317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
         <v>46041</v>
       </c>
@@ -31479,7 +31478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" s="1">
         <v>46041</v>
       </c>
@@ -31617,7 +31616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1035" s="1">
         <v>46041</v>
       </c>
@@ -31709,7 +31708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1039" s="1">
         <v>46041</v>
       </c>
@@ -31870,7 +31869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1046" s="1">
         <v>46042</v>
       </c>
@@ -32100,7 +32099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1056" s="1">
         <v>46042</v>
       </c>
@@ -32123,7 +32122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1057" s="1">
         <v>46042</v>
       </c>
@@ -32169,7 +32168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1059" s="1">
         <v>46042</v>
       </c>
@@ -32192,7 +32191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1060" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1060" s="1">
         <v>46042</v>
       </c>
@@ -32238,7 +32237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1062" s="1">
         <v>46042</v>
       </c>
@@ -32284,7 +32283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1064" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1064" s="1">
         <v>46042</v>
       </c>
@@ -32307,7 +32306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1065" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1065" s="1">
         <v>46042</v>
       </c>
@@ -32327,7 +32326,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1066" s="1">
         <v>46042</v>
       </c>
@@ -32373,7 +32372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1068" s="1">
         <v>46042</v>
       </c>
@@ -32419,7 +32418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1070" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1070" s="1">
         <v>46042</v>
       </c>
@@ -32534,7 +32533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1075" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1075" s="1">
         <v>46042</v>
       </c>
@@ -32649,7 +32648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1080" s="1">
         <v>46042</v>
       </c>
@@ -32672,7 +32671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1081" s="1">
         <v>46042</v>
       </c>
@@ -32741,7 +32740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1084" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1084" s="1">
         <v>46042</v>
       </c>
@@ -32810,7 +32809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1087" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1087" s="1">
         <v>46042</v>
       </c>
@@ -32833,7 +32832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1088" s="1">
         <v>46042</v>
       </c>
@@ -33086,7 +33085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1099" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1099" s="1">
         <v>46042</v>
       </c>
@@ -33201,7 +33200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1104" s="1">
         <v>46042</v>
       </c>
@@ -33316,7 +33315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1109" s="1">
         <v>46042</v>
       </c>
@@ -33362,7 +33361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1111" s="1">
         <v>46042</v>
       </c>
@@ -33454,7 +33453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1115" s="1">
         <v>46042</v>
       </c>
@@ -33569,7 +33568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1120" s="1">
         <v>46042</v>
       </c>
@@ -33615,7 +33614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1122" s="1">
         <v>46042</v>
       </c>
@@ -33684,7 +33683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1125" s="1">
         <v>46042</v>
       </c>
@@ -33707,7 +33706,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="1126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1126" s="1">
         <v>46042</v>
       </c>
@@ -33730,7 +33729,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="1127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1127" s="1">
         <v>46042</v>
       </c>
@@ -33753,7 +33752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1128" s="1">
         <v>46042</v>
       </c>
@@ -33914,7 +33913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1135" s="1">
         <v>46042</v>
       </c>
@@ -34098,7 +34097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1143" s="1">
         <v>46043</v>
       </c>
@@ -34213,7 +34212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1148" s="1">
         <v>46043</v>
       </c>
@@ -34259,7 +34258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1150" s="1">
         <v>46043</v>
       </c>
@@ -34351,7 +34350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1154" s="1">
         <v>46043</v>
       </c>
@@ -34374,7 +34373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1155" s="1">
         <v>46043</v>
       </c>
@@ -34394,7 +34393,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1156" s="1">
         <v>46043</v>
       </c>
@@ -34417,7 +34416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1157" s="1">
         <v>46043</v>
       </c>
@@ -34509,7 +34508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1161" s="1">
         <v>46043</v>
       </c>
@@ -34532,7 +34531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1162" s="1">
         <v>46043</v>
       </c>
@@ -34670,7 +34669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1168" s="1">
         <v>46043</v>
       </c>
@@ -34716,7 +34715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1170" s="1">
         <v>46043</v>
       </c>
@@ -34854,7 +34853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1176" s="1">
         <v>46043</v>
       </c>
@@ -34923,7 +34922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1179" s="1">
         <v>46043</v>
       </c>
@@ -34946,7 +34945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1180" s="1">
         <v>46043</v>
       </c>
@@ -34992,7 +34991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1182" s="1">
         <v>46043</v>
       </c>
@@ -35015,7 +35014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1183" s="1">
         <v>46043</v>
       </c>
@@ -35061,7 +35060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1185" s="1">
         <v>46043</v>
       </c>
@@ -35084,7 +35083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1186" s="1">
         <v>46043</v>
       </c>
@@ -35107,7 +35106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1187" s="1">
         <v>46043</v>
       </c>
@@ -35130,7 +35129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1188" s="1">
         <v>46043</v>
       </c>
@@ -35222,7 +35221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1192" s="1">
         <v>46043</v>
       </c>
@@ -35268,7 +35267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1194" s="1">
         <v>46043</v>
       </c>
@@ -35360,7 +35359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1198" s="1">
         <v>46043</v>
       </c>
@@ -35475,7 +35474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1203" s="1">
         <v>46043</v>
       </c>
@@ -35498,7 +35497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1204" s="1">
         <v>46043</v>
       </c>
@@ -35567,7 +35566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1207" s="1">
         <v>46043</v>
       </c>
@@ -35610,7 +35609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1209" s="1">
         <v>46043</v>
       </c>
@@ -35656,7 +35655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1211" s="1">
         <v>46043</v>
       </c>
@@ -35702,7 +35701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1213" s="1">
         <v>46043</v>
       </c>
@@ -35725,7 +35724,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="1214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1214" s="1">
         <v>46043</v>
       </c>
@@ -35864,13 +35863,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1219" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="APROVADA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34639538-9065-4F8A-9AED-89EDCEFB5A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A10EA5-885A-4359-B8D6-B005C8996ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="1830" windowWidth="20730" windowHeight="11160" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6123" uniqueCount="2491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6512" uniqueCount="2649">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -7512,6 +7512,480 @@
   </si>
   <si>
     <t>Ata de eleicao da diretoria atualizada e registrado no orgao competente&lt;br&gt;&lt;br&gt;Estatuto social atualizado e registrado no orgao competente&lt;br&gt;&lt;br&gt;Boletim de subscricao, contendo o total das acoes</t>
+  </si>
+  <si>
+    <t>09527513000120</t>
+  </si>
+  <si>
+    <t>AUTO ELETRICA BR BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>30171725000103</t>
+  </si>
+  <si>
+    <t>30.171.725 FABIO HONORIO DE BARROS</t>
+  </si>
+  <si>
+    <t>50838023000148</t>
+  </si>
+  <si>
+    <t>TRIUNFO LICITACOES E CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>64604944000150</t>
+  </si>
+  <si>
+    <t>MAURO ROBERTO PRADO SILVA LTDA</t>
+  </si>
+  <si>
+    <t>Ana Beatriz Rodrigues</t>
+  </si>
+  <si>
+    <t>19291535000197</t>
+  </si>
+  <si>
+    <t>JOAO GUSTAVO SANTANA</t>
+  </si>
+  <si>
+    <t>32639557000163</t>
+  </si>
+  <si>
+    <t>TIERRI BENINCA ALVES</t>
+  </si>
+  <si>
+    <t>37369961000188</t>
+  </si>
+  <si>
+    <t>ALEXANDRE SOARES DE SOUZA</t>
+  </si>
+  <si>
+    <t>42128763000162</t>
+  </si>
+  <si>
+    <t>DRA. ALIELLI FERRAZ ESTETICA AVANCADA LTDA.</t>
+  </si>
+  <si>
+    <t>43252495000159</t>
+  </si>
+  <si>
+    <t>VIX LOG LTDA</t>
+  </si>
+  <si>
+    <t>28291511000129</t>
+  </si>
+  <si>
+    <t>F. C. VERGA LTDA</t>
+  </si>
+  <si>
+    <t>37646837000112</t>
+  </si>
+  <si>
+    <t>JURANDIR FERREIRA DA COSTA JUNIOR</t>
+  </si>
+  <si>
+    <t>48221605000139</t>
+  </si>
+  <si>
+    <t>EPM FERTILIZANTES LTDA</t>
+  </si>
+  <si>
+    <t>14523449000149</t>
+  </si>
+  <si>
+    <t>RONIERE DE MOURA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>64416162000198</t>
+  </si>
+  <si>
+    <t>64.416.162 MADSON LUAN FELIX DA SILVA</t>
+  </si>
+  <si>
+    <t>19428544000187</t>
+  </si>
+  <si>
+    <t>JOSE ROBERTO PAZIANI</t>
+  </si>
+  <si>
+    <t>30257724000186</t>
+  </si>
+  <si>
+    <t>MECANICA OLIVEIRA LTDA</t>
+  </si>
+  <si>
+    <t>52851728000120</t>
+  </si>
+  <si>
+    <t>PRELINHAS M&amp;R LTDA</t>
+  </si>
+  <si>
+    <t>07894722000186</t>
+  </si>
+  <si>
+    <t>MERCADINHO S &amp; A LTDA</t>
+  </si>
+  <si>
+    <t>35356399000122</t>
+  </si>
+  <si>
+    <t>KFC LAVANDERIA E CONFECCAO</t>
+  </si>
+  <si>
+    <t>37981304000197</t>
+  </si>
+  <si>
+    <t>37.981.304 RICARDO HENRIQUE DE BRITO</t>
+  </si>
+  <si>
+    <t>08017854000192</t>
+  </si>
+  <si>
+    <t>SINDICATO DOS AGENTES COMUNITARIOS DE SAUDE E AGENTES DE COMBATE AS ENDEMIAS DE PATOS E REGIAO</t>
+  </si>
+  <si>
+    <t>63987935000123</t>
+  </si>
+  <si>
+    <t>TERBINO ATACADISTA LTDA</t>
+  </si>
+  <si>
+    <t>36879432000161</t>
+  </si>
+  <si>
+    <t>LD9 NEGOCIOS IMOBILIARIOS LTDA</t>
+  </si>
+  <si>
+    <t>14547123000151</t>
+  </si>
+  <si>
+    <t>ANTONIO DA COSTA RODRIGUES</t>
+  </si>
+  <si>
+    <t>64578455000171</t>
+  </si>
+  <si>
+    <t>DMP CONSULTORIA EMPRESARIAL LTDA</t>
+  </si>
+  <si>
+    <t>04005883000264</t>
+  </si>
+  <si>
+    <t>ALINE BARRETO</t>
+  </si>
+  <si>
+    <t>55494060000108</t>
+  </si>
+  <si>
+    <t>PREMIUM AUTO CENTER SERVICOS AUTOMOTIVOS LTDA</t>
+  </si>
+  <si>
+    <t>53665601000180</t>
+  </si>
+  <si>
+    <t>CARLOS DE CASTRO SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>62513400000158</t>
+  </si>
+  <si>
+    <t>REHM SERVICOS DE INSTALACOES LTDA</t>
+  </si>
+  <si>
+    <t>48148417000122</t>
+  </si>
+  <si>
+    <t>BINGA LAVANDERIA LTDA</t>
+  </si>
+  <si>
+    <t>06255357000105</t>
+  </si>
+  <si>
+    <t>RICHOPPO ESPORTES E ENTRETENIMENTO LTDA</t>
+  </si>
+  <si>
+    <t>35960530000166</t>
+  </si>
+  <si>
+    <t>GH MAX INDUSTRIA E COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>94099546000195</t>
+  </si>
+  <si>
+    <t>NERI JESSE</t>
+  </si>
+  <si>
+    <t>34250248000122</t>
+  </si>
+  <si>
+    <t>MARIA DAS DORES FERREIRA DA SILVA SANTANA</t>
+  </si>
+  <si>
+    <t>64229385000146</t>
+  </si>
+  <si>
+    <t>FN CODE SOLUCOES DIGITAIS LTDA</t>
+  </si>
+  <si>
+    <t>10416985000194</t>
+  </si>
+  <si>
+    <t>M.A.R. TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>30790472000156</t>
+  </si>
+  <si>
+    <t>LUCIANE DE FATIMA KUNZ PROVIN</t>
+  </si>
+  <si>
+    <t>10226755000162</t>
+  </si>
+  <si>
+    <t>COMERCIO DE TUBERCULOS ANJO AZUL LTDA</t>
+  </si>
+  <si>
+    <t>64222165000190</t>
+  </si>
+  <si>
+    <t>RT&amp;GA LOGISTICA LTDA</t>
+  </si>
+  <si>
+    <t>Bruna Tobias Dos Santos</t>
+  </si>
+  <si>
+    <t>55954384000173</t>
+  </si>
+  <si>
+    <t>PABLO MACIEL SOCIEDADE INDIVIDUAL DE ADVOCACIA</t>
+  </si>
+  <si>
+    <t>05537197000116</t>
+  </si>
+  <si>
+    <t>URANIA DE CASSIA LEMOS OLIVEIRA E CIA LTDA</t>
+  </si>
+  <si>
+    <t>64543696000185</t>
+  </si>
+  <si>
+    <t>CONCEITO CONSULTORIA E ASSESSORIA CONTABIL DIGITAL LTDA</t>
+  </si>
+  <si>
+    <t>64472791000135</t>
+  </si>
+  <si>
+    <t>F. MORAES CASA DE CARNES LTDA</t>
+  </si>
+  <si>
+    <t>64481276000111</t>
+  </si>
+  <si>
+    <t>INTERGASTROBAR LTDA</t>
+  </si>
+  <si>
+    <t>62679462000134</t>
+  </si>
+  <si>
+    <t>GOURMET COZINHA AFETIVA LTDA</t>
+  </si>
+  <si>
+    <t>29704585000102</t>
+  </si>
+  <si>
+    <t>AQUILAE CONFECCAO DE ROUPAS E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>64404256000147</t>
+  </si>
+  <si>
+    <t>LUIZ CARLOS AMARAL DE SOUZA</t>
+  </si>
+  <si>
+    <t>60888286000115</t>
+  </si>
+  <si>
+    <t>BRAZILIAN MARKETING E ASSESSORIA ESPORTIVA LTDA</t>
+  </si>
+  <si>
+    <t>36181784000149</t>
+  </si>
+  <si>
+    <t>ALEXANDRE CARLOS SALES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>59658628000121</t>
+  </si>
+  <si>
+    <t>W. D. N. TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>03901652000195</t>
+  </si>
+  <si>
+    <t>ELIANE ZACARIAS ALVES &amp; CIA LTDA</t>
+  </si>
+  <si>
+    <t>00397592000127</t>
+  </si>
+  <si>
+    <t>AUTO ESCOLA TAVARES LTDA</t>
+  </si>
+  <si>
+    <t>22860532000131</t>
+  </si>
+  <si>
+    <t>JAGHER E RODRIGUES MARMORARIA LTDA</t>
+  </si>
+  <si>
+    <t>36009480000107</t>
+  </si>
+  <si>
+    <t>CASSIA DIAS BRITO ODILON DA SILVA E OUTRO</t>
+  </si>
+  <si>
+    <t>59328044000198</t>
+  </si>
+  <si>
+    <t>COOPERATIVA E TRANSPORTES JSMF</t>
+  </si>
+  <si>
+    <t>31639679000197</t>
+  </si>
+  <si>
+    <t>LA LOGISTICA E TRANSPORTES LTDA</t>
+  </si>
+  <si>
+    <t>31601969000141</t>
+  </si>
+  <si>
+    <t>CRISTINA LOPES CARDOZO</t>
+  </si>
+  <si>
+    <t>64434960000142</t>
+  </si>
+  <si>
+    <t>PRA PETS PET SHOP LTDA</t>
+  </si>
+  <si>
+    <t>58869960000172</t>
+  </si>
+  <si>
+    <t>PSI - PSICOLOGIA. SAUDE E INOVACAO LTDA</t>
+  </si>
+  <si>
+    <t>08593432000165</t>
+  </si>
+  <si>
+    <t>AUTOTOURR LTDA</t>
+  </si>
+  <si>
+    <t>64517510000113</t>
+  </si>
+  <si>
+    <t>ABDO CONTABILIDADE E CONSULTORIA LTDA</t>
+  </si>
+  <si>
+    <t>32674026000101</t>
+  </si>
+  <si>
+    <t>32.674.026 TATIANE NUNES DA SILVA</t>
+  </si>
+  <si>
+    <t>44955262000185</t>
+  </si>
+  <si>
+    <t>BELLA PEDRA MARMORARIA PRUDENTE LTDA</t>
+  </si>
+  <si>
+    <t>59377983000122</t>
+  </si>
+  <si>
+    <t>FABRICIO BIKES LTDA</t>
+  </si>
+  <si>
+    <t>64438610000154</t>
+  </si>
+  <si>
+    <t>MARVEL BURGUER ALIMENTOS LTDA</t>
+  </si>
+  <si>
+    <t>30906332000109</t>
+  </si>
+  <si>
+    <t>E UKOWSKY SERVICOS DE INFORMATICA</t>
+  </si>
+  <si>
+    <t>17909379000150</t>
+  </si>
+  <si>
+    <t>PHEK PAINEIS SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>57432944000155</t>
+  </si>
+  <si>
+    <t>VILSON IRSCHLINGER</t>
+  </si>
+  <si>
+    <t>34522315000110</t>
+  </si>
+  <si>
+    <t>DUANNE ALVES DE ARAUJO</t>
+  </si>
+  <si>
+    <t>64603725000157</t>
+  </si>
+  <si>
+    <t>CONSTRUCOES E REFORMAS SF COUTINHO LTDA</t>
+  </si>
+  <si>
+    <t>39221375000117</t>
+  </si>
+  <si>
+    <t>SIBANIO ROCHA LIMA</t>
+  </si>
+  <si>
+    <t>64507564000106</t>
+  </si>
+  <si>
+    <t>VHTEC SERVICOS E MANUTENOES LTDA</t>
+  </si>
+  <si>
+    <t>15914525000100</t>
+  </si>
+  <si>
+    <t>JEAN LIMA DE JESUS SANTANA</t>
+  </si>
+  <si>
+    <t>64579665000184</t>
+  </si>
+  <si>
+    <t>SIMONE MUMBACH ASSESSORIA E DESENVOLVIMENTO EM EDUCACAO LTDA</t>
+  </si>
+  <si>
+    <t>64342828000100</t>
+  </si>
+  <si>
+    <t>DONIZETE AZULEJISTA LTDA</t>
+  </si>
+  <si>
+    <t>64357600000194</t>
+  </si>
+  <si>
+    <t>AFA CRUZ PRESTACAO DE SERVICOS ADMINISTRATIVOS LTDA</t>
+  </si>
+  <si>
+    <t>53179648000133</t>
+  </si>
+  <si>
+    <t>OSMARIO DE OLIVEIRA ANDRADE</t>
+  </si>
+  <si>
+    <t>30958734000149</t>
+  </si>
+  <si>
+    <t>FRANCISCO SILVIO GOMES DA SILVA</t>
   </si>
 </sst>
 </file>
@@ -7883,10 +8357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G1219"/>
+  <dimension ref="A1:G1297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8831,7 +9305,7 @@
         <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>571</v>
+        <v>606</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -22722,10 +23196,10 @@
         <v>8</v>
       </c>
       <c r="F646" t="s">
-        <v>573</v>
-      </c>
-      <c r="G646" t="s">
-        <v>1160</v>
+        <v>569</v>
+      </c>
+      <c r="G646">
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
@@ -25944,7 +26418,7 @@
         <v>8</v>
       </c>
       <c r="F787" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G787">
         <v>0</v>
@@ -26565,7 +27039,7 @@
         <v>12</v>
       </c>
       <c r="F814" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G814">
         <v>0</v>
@@ -26611,7 +27085,7 @@
         <v>8</v>
       </c>
       <c r="F816" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G816">
         <v>0</v>
@@ -26956,7 +27430,10 @@
         <v>7</v>
       </c>
       <c r="F831" t="s">
-        <v>573</v>
+        <v>570</v>
+      </c>
+      <c r="G831">
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.25">
@@ -30624,7 +31101,7 @@
         <v>7</v>
       </c>
       <c r="F991" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G991">
         <v>0</v>
@@ -32300,7 +32777,7 @@
         <v>8</v>
       </c>
       <c r="F1064" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G1064">
         <v>0</v>
@@ -32414,9 +32891,6 @@
       <c r="F1069" t="s">
         <v>569</v>
       </c>
-      <c r="G1069">
-        <v>0</v>
-      </c>
     </row>
     <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1070" s="1">
@@ -33769,10 +34243,10 @@
         <v>8</v>
       </c>
       <c r="F1128" t="s">
-        <v>571</v>
-      </c>
-      <c r="G1128" t="s">
-        <v>324</v>
+        <v>569</v>
+      </c>
+      <c r="G1128">
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:7" x14ac:dyDescent="0.25">
@@ -34114,7 +34588,7 @@
         <v>7</v>
       </c>
       <c r="F1143" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1143">
         <v>0</v>
@@ -34229,7 +34703,7 @@
         <v>8</v>
       </c>
       <c r="F1148" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1148">
         <v>0</v>
@@ -34275,7 +34749,7 @@
         <v>7</v>
       </c>
       <c r="F1150" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1150">
         <v>0</v>
@@ -34410,7 +34884,7 @@
         <v>7</v>
       </c>
       <c r="F1156" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1156">
         <v>0</v>
@@ -34433,7 +34907,7 @@
         <v>7</v>
       </c>
       <c r="F1157" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1157">
         <v>0</v>
@@ -34525,7 +34999,7 @@
         <v>12</v>
       </c>
       <c r="F1161" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1161">
         <v>0</v>
@@ -34548,7 +35022,7 @@
         <v>7</v>
       </c>
       <c r="F1162" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1162">
         <v>0</v>
@@ -34686,7 +35160,7 @@
         <v>7</v>
       </c>
       <c r="F1168" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1168">
         <v>0</v>
@@ -34732,7 +35206,7 @@
         <v>8</v>
       </c>
       <c r="F1170" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1170">
         <v>0</v>
@@ -34870,7 +35344,7 @@
         <v>8</v>
       </c>
       <c r="F1176" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1176">
         <v>0</v>
@@ -35031,7 +35505,7 @@
         <v>7</v>
       </c>
       <c r="F1183" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1183">
         <v>0</v>
@@ -35077,7 +35551,7 @@
         <v>8</v>
       </c>
       <c r="F1185" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1185">
         <v>0</v>
@@ -35100,7 +35574,7 @@
         <v>7</v>
       </c>
       <c r="F1186" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1186">
         <v>0</v>
@@ -35123,7 +35597,7 @@
         <v>7</v>
       </c>
       <c r="F1187" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1187">
         <v>0</v>
@@ -35146,7 +35620,7 @@
         <v>7</v>
       </c>
       <c r="F1188" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1188">
         <v>0</v>
@@ -35376,7 +35850,7 @@
         <v>7</v>
       </c>
       <c r="F1198" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1198">
         <v>0</v>
@@ -35491,7 +35965,7 @@
         <v>12</v>
       </c>
       <c r="F1203" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1203">
         <v>0</v>
@@ -35672,7 +36146,7 @@
         <v>12</v>
       </c>
       <c r="F1211" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1211">
         <v>0</v>
@@ -35860,6 +36334,1791 @@
       </c>
       <c r="G1219">
         <v>0</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1220" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1221" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1222" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1223" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1224" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1225" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>568</v>
+      </c>
+      <c r="G1225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1226" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>568</v>
+      </c>
+      <c r="G1226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1227" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1228" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1229" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1230" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1231" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>2515</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1232" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>2517</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1233" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1234" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1235" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1236" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1237" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>2527</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1238" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1239" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1240" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>568</v>
+      </c>
+      <c r="G1240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1241" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1242" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>2537</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1243" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1244" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1245" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1246" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>2545</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1247" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1248" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1249" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1250" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1251" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1252" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1253" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1254" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1255" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1256" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1257" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1258" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1259" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1260" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1261" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1262" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1263" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1264" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1265" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>2570</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1266" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1267" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1268" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>568</v>
+      </c>
+      <c r="G1268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1269" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>568</v>
+      </c>
+      <c r="G1269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1270" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1271" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1272" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1272" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1273" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1274" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>568</v>
+      </c>
+      <c r="G1274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1275" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>568</v>
+      </c>
+      <c r="G1275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1276" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1277" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1278" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1279" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1280" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>2499</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1280" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1281" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1281" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1282" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1282" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1283" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2619</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1283" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1284" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1284" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1285" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1285" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1286" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>568</v>
+      </c>
+      <c r="G1286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1287" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1287" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1288" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1289" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1290" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1290" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1291" s="1">
+        <v>46044</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1292" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1293" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>2640</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1294" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1295" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>2643</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1296" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1296" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1297" s="1">
+        <v>46045</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A10EA5-885A-4359-B8D6-B005C8996ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C789715F-45E2-4FE8-AC52-25192D9F4095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -8360,7 +8360,7 @@
   <dimension ref="A1:G1297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A9D35C-73EA-47F7-9B83-FDD88CD4198F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BE7824-CBFA-4575-A5E6-7CA778B60898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="1830" windowWidth="20730" windowHeight="11160" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$1219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$1362</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8752,9 +8752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
   <dimension ref="A1:G1362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FAD8F4-4E1E-4628-8CD1-F1BA90E2532A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DE5D91-EF88-4D17-AE29-6D4F897FD400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7565" uniqueCount="3069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7583" uniqueCount="3077">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -8768,9 +8768,6 @@
     <t>Aghata Alves dos Santos</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>51419873000174</t>
   </si>
   <si>
@@ -9246,6 +9243,33 @@
   </si>
   <si>
     <t>Ha falta da pagina do meio, da procuracao, a mesma nao se encontra em anexo.</t>
+  </si>
+  <si>
+    <t>34381136000100</t>
+  </si>
+  <si>
+    <t>64627347000141</t>
+  </si>
+  <si>
+    <t>F Y TAGUCHI CONSULTORIA FINANCEIRA EMPRESARIAL E PATRIMONIAL</t>
+  </si>
+  <si>
+    <t>36900151000143</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELIAS EDUARDO RIBEIRO TOMCZYK</t>
+  </si>
+  <si>
+    <t>15400619000160</t>
+  </si>
+  <si>
+    <t>YOLANDA MARINA DEL CARMEN JAQUE RUBIO SERVICOS BUFFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrato social da empresa W3 CUBE FULFILLMENT COMERCIO LOGISTICA LTDA, atualizado e registrado no orgao competente, com a devida clausula de administracao. </t>
+  </si>
+  <si>
+    <t>Procuracao com poderes para abrir, movimentar e encerrar contas, uma vez que foi identificado que a representacao da empresa deve ser realizada de forma conjunta pelos representantes. O documento deve ser assinado pelos representantes legais nomeados no contrato social, com assinatura digital via GOV.br ou por meio de procuracao publica. Em caso de assinatura digital, o documento devera ser encaminhado em formato PDF para validacao das assinaturas e verificacao do protocolo de autenticidade.</t>
   </si>
 </sst>
 </file>
@@ -9618,10 +9642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G1506"/>
+  <dimension ref="A1:G1509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10060,10 +10084,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>570</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10543,7 +10564,7 @@
         <v>102</v>
       </c>
       <c r="F40" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -31123,10 +31144,10 @@
         <v>8</v>
       </c>
       <c r="F937" t="s">
-        <v>571</v>
-      </c>
-      <c r="G937" t="s">
-        <v>324</v>
+        <v>569</v>
+      </c>
+      <c r="G937">
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.25">
@@ -34345,7 +34366,7 @@
         <v>46042</v>
       </c>
       <c r="B1078" t="s">
-        <v>2909</v>
+        <v>3068</v>
       </c>
       <c r="C1078" t="s">
         <v>2217</v>
@@ -34426,7 +34447,7 @@
         <v>8</v>
       </c>
       <c r="F1081" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G1081">
         <v>0</v>
@@ -35944,7 +35965,7 @@
         <v>7</v>
       </c>
       <c r="F1147" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G1147">
         <v>0</v>
@@ -38103,7 +38124,7 @@
         <v>571</v>
       </c>
       <c r="G1241" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="1242" spans="1:7" x14ac:dyDescent="0.25">
@@ -39178,7 +39199,7 @@
         <v>8</v>
       </c>
       <c r="F1288" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G1288">
         <v>0</v>
@@ -39799,7 +39820,7 @@
         <v>12</v>
       </c>
       <c r="F1315" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G1315">
         <v>0</v>
@@ -40420,7 +40441,10 @@
         <v>7</v>
       </c>
       <c r="F1342" t="s">
-        <v>569</v>
+        <v>570</v>
+      </c>
+      <c r="G1342">
+        <v>0</v>
       </c>
     </row>
     <row r="1343" spans="1:7" x14ac:dyDescent="0.25">
@@ -40785,7 +40809,7 @@
         <v>12</v>
       </c>
       <c r="F1358" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1358">
         <v>0</v>
@@ -40923,7 +40947,7 @@
         <v>7</v>
       </c>
       <c r="F1364" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1364">
         <v>0</v>
@@ -41061,7 +41085,7 @@
         <v>8</v>
       </c>
       <c r="F1370" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1370">
         <v>0</v>
@@ -41084,7 +41108,7 @@
         <v>7</v>
       </c>
       <c r="F1371" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1371">
         <v>0</v>
@@ -41153,7 +41177,7 @@
         <v>8</v>
       </c>
       <c r="F1374" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1374">
         <v>0</v>
@@ -41199,7 +41223,7 @@
         <v>8</v>
       </c>
       <c r="F1376" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1376">
         <v>0</v>
@@ -41268,7 +41292,7 @@
         <v>7</v>
       </c>
       <c r="F1379" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1379">
         <v>0</v>
@@ -41291,7 +41315,7 @@
         <v>7</v>
       </c>
       <c r="F1380" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1380">
         <v>0</v>
@@ -41360,7 +41384,7 @@
         <v>8</v>
       </c>
       <c r="F1383" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1383">
         <v>0</v>
@@ -41406,7 +41430,10 @@
         <v>7</v>
       </c>
       <c r="F1385" t="s">
-        <v>573</v>
+        <v>569</v>
+      </c>
+      <c r="G1385">
+        <v>0</v>
       </c>
     </row>
     <row r="1386" spans="1:7" x14ac:dyDescent="0.25">
@@ -41426,7 +41453,7 @@
         <v>7</v>
       </c>
       <c r="F1386" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1386">
         <v>0</v>
@@ -41449,7 +41476,7 @@
         <v>7</v>
       </c>
       <c r="F1387" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1387">
         <v>0</v>
@@ -41610,7 +41637,7 @@
         <v>7</v>
       </c>
       <c r="F1394" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1394">
         <v>0</v>
@@ -41771,7 +41798,7 @@
         <v>7</v>
       </c>
       <c r="F1401" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1401">
         <v>0</v>
@@ -41886,7 +41913,10 @@
         <v>8</v>
       </c>
       <c r="F1406" t="s">
-        <v>573</v>
+        <v>570</v>
+      </c>
+      <c r="G1406">
+        <v>0</v>
       </c>
     </row>
     <row r="1407" spans="1:7" x14ac:dyDescent="0.25">
@@ -41906,7 +41936,7 @@
         <v>7</v>
       </c>
       <c r="F1407" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1407">
         <v>0</v>
@@ -41952,7 +41982,7 @@
         <v>7</v>
       </c>
       <c r="F1409" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1409">
         <v>0</v>
@@ -41975,7 +42005,7 @@
         <v>7</v>
       </c>
       <c r="F1410" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1410">
         <v>0</v>
@@ -42044,7 +42074,7 @@
         <v>7</v>
       </c>
       <c r="F1413" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1413">
         <v>0</v>
@@ -42239,10 +42269,10 @@
         <v>46049</v>
       </c>
       <c r="B1422" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C1422" t="s">
         <v>2910</v>
-      </c>
-      <c r="C1422" t="s">
-        <v>2911</v>
       </c>
       <c r="D1422" t="s">
         <v>134</v>
@@ -42262,10 +42292,10 @@
         <v>46049</v>
       </c>
       <c r="B1423" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C1423" t="s">
         <v>2912</v>
-      </c>
-      <c r="C1423" t="s">
-        <v>2913</v>
       </c>
       <c r="D1423" t="s">
         <v>17</v>
@@ -42285,10 +42315,10 @@
         <v>46049</v>
       </c>
       <c r="B1424" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C1424" t="s">
         <v>2914</v>
-      </c>
-      <c r="C1424" t="s">
-        <v>2915</v>
       </c>
       <c r="D1424" t="s">
         <v>11</v>
@@ -42308,10 +42338,10 @@
         <v>46049</v>
       </c>
       <c r="B1425" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C1425" t="s">
         <v>2916</v>
-      </c>
-      <c r="C1425" t="s">
-        <v>2917</v>
       </c>
       <c r="D1425" t="s">
         <v>11</v>
@@ -42331,10 +42361,10 @@
         <v>46049</v>
       </c>
       <c r="B1426" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C1426" t="s">
         <v>2918</v>
-      </c>
-      <c r="C1426" t="s">
-        <v>2919</v>
       </c>
       <c r="D1426" t="s">
         <v>14</v>
@@ -42354,10 +42384,10 @@
         <v>46049</v>
       </c>
       <c r="B1427" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C1427" t="s">
         <v>2920</v>
-      </c>
-      <c r="C1427" t="s">
-        <v>2921</v>
       </c>
       <c r="D1427" t="s">
         <v>14</v>
@@ -42377,10 +42407,10 @@
         <v>46049</v>
       </c>
       <c r="B1428" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C1428" t="s">
         <v>2922</v>
-      </c>
-      <c r="C1428" t="s">
-        <v>2923</v>
       </c>
       <c r="D1428" t="s">
         <v>16</v>
@@ -42389,7 +42419,10 @@
         <v>8</v>
       </c>
       <c r="F1428" t="s">
-        <v>573</v>
+        <v>568</v>
+      </c>
+      <c r="G1428">
+        <v>0</v>
       </c>
     </row>
     <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
@@ -42397,10 +42430,10 @@
         <v>46049</v>
       </c>
       <c r="B1429" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C1429" t="s">
         <v>2924</v>
-      </c>
-      <c r="C1429" t="s">
-        <v>2925</v>
       </c>
       <c r="D1429" t="s">
         <v>16</v>
@@ -42410,6 +42443,9 @@
       </c>
       <c r="F1429" t="s">
         <v>569</v>
+      </c>
+      <c r="G1429">
+        <v>0</v>
       </c>
     </row>
     <row r="1430" spans="1:7" x14ac:dyDescent="0.25">
@@ -42417,10 +42453,10 @@
         <v>46049</v>
       </c>
       <c r="B1430" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C1430" t="s">
         <v>2926</v>
-      </c>
-      <c r="C1430" t="s">
-        <v>2927</v>
       </c>
       <c r="D1430" t="s">
         <v>6</v>
@@ -42430,6 +42466,9 @@
       </c>
       <c r="F1430" t="s">
         <v>573</v>
+      </c>
+      <c r="G1430">
+        <v>0</v>
       </c>
     </row>
     <row r="1431" spans="1:7" x14ac:dyDescent="0.25">
@@ -42437,10 +42476,10 @@
         <v>46049</v>
       </c>
       <c r="B1431" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C1431" t="s">
         <v>2928</v>
-      </c>
-      <c r="C1431" t="s">
-        <v>2929</v>
       </c>
       <c r="D1431" t="s">
         <v>209</v>
@@ -42449,7 +42488,10 @@
         <v>12</v>
       </c>
       <c r="F1431" t="s">
-        <v>573</v>
+        <v>569</v>
+      </c>
+      <c r="G1431">
+        <v>0</v>
       </c>
     </row>
     <row r="1432" spans="1:7" x14ac:dyDescent="0.25">
@@ -42457,10 +42499,10 @@
         <v>46049</v>
       </c>
       <c r="B1432" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C1432" t="s">
         <v>2930</v>
-      </c>
-      <c r="C1432" t="s">
-        <v>2931</v>
       </c>
       <c r="D1432" t="s">
         <v>44</v>
@@ -42470,6 +42512,9 @@
       </c>
       <c r="F1432" t="s">
         <v>573</v>
+      </c>
+      <c r="G1432">
+        <v>0</v>
       </c>
     </row>
     <row r="1433" spans="1:7" x14ac:dyDescent="0.25">
@@ -42477,10 +42522,10 @@
         <v>46049</v>
       </c>
       <c r="B1433" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C1433" t="s">
         <v>2932</v>
-      </c>
-      <c r="C1433" t="s">
-        <v>2933</v>
       </c>
       <c r="D1433" t="s">
         <v>13</v>
@@ -42490,6 +42535,9 @@
       </c>
       <c r="F1433" t="s">
         <v>569</v>
+      </c>
+      <c r="G1433">
+        <v>0</v>
       </c>
     </row>
     <row r="1434" spans="1:7" x14ac:dyDescent="0.25">
@@ -42497,10 +42545,10 @@
         <v>46049</v>
       </c>
       <c r="B1434" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C1434" t="s">
         <v>2934</v>
-      </c>
-      <c r="C1434" t="s">
-        <v>2935</v>
       </c>
       <c r="D1434" t="s">
         <v>14</v>
@@ -42510,6 +42558,9 @@
       </c>
       <c r="F1434" t="s">
         <v>569</v>
+      </c>
+      <c r="G1434">
+        <v>0</v>
       </c>
     </row>
     <row r="1435" spans="1:7" x14ac:dyDescent="0.25">
@@ -42517,10 +42568,10 @@
         <v>46049</v>
       </c>
       <c r="B1435" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C1435" t="s">
         <v>2936</v>
-      </c>
-      <c r="C1435" t="s">
-        <v>2937</v>
       </c>
       <c r="D1435" t="s">
         <v>10</v>
@@ -42529,7 +42580,10 @@
         <v>21</v>
       </c>
       <c r="F1435" t="s">
-        <v>573</v>
+        <v>571</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>3075</v>
       </c>
     </row>
     <row r="1436" spans="1:7" x14ac:dyDescent="0.25">
@@ -42537,10 +42591,10 @@
         <v>46049</v>
       </c>
       <c r="B1436" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C1436" t="s">
         <v>2938</v>
-      </c>
-      <c r="C1436" t="s">
-        <v>2939</v>
       </c>
       <c r="D1436" t="s">
         <v>13</v>
@@ -42550,6 +42604,9 @@
       </c>
       <c r="F1436" t="s">
         <v>573</v>
+      </c>
+      <c r="G1436">
+        <v>0</v>
       </c>
     </row>
     <row r="1437" spans="1:7" x14ac:dyDescent="0.25">
@@ -42571,16 +42628,19 @@
       <c r="F1437" t="s">
         <v>573</v>
       </c>
+      <c r="G1437">
+        <v>0</v>
+      </c>
     </row>
     <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1438" s="1">
         <v>46049</v>
       </c>
       <c r="B1438" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C1438" t="s">
         <v>2940</v>
-      </c>
-      <c r="C1438" t="s">
-        <v>2941</v>
       </c>
       <c r="D1438" t="s">
         <v>23</v>
@@ -42590,6 +42650,9 @@
       </c>
       <c r="F1438" t="s">
         <v>569</v>
+      </c>
+      <c r="G1438">
+        <v>0</v>
       </c>
     </row>
     <row r="1439" spans="1:7" x14ac:dyDescent="0.25">
@@ -42597,10 +42660,10 @@
         <v>46049</v>
       </c>
       <c r="B1439" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C1439" t="s">
         <v>2942</v>
-      </c>
-      <c r="C1439" t="s">
-        <v>2943</v>
       </c>
       <c r="D1439" t="s">
         <v>13</v>
@@ -42610,6 +42673,9 @@
       </c>
       <c r="F1439" t="s">
         <v>569</v>
+      </c>
+      <c r="G1439">
+        <v>0</v>
       </c>
     </row>
     <row r="1440" spans="1:7" x14ac:dyDescent="0.25">
@@ -42617,10 +42683,10 @@
         <v>46049</v>
       </c>
       <c r="B1440" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C1440" t="s">
         <v>2944</v>
-      </c>
-      <c r="C1440" t="s">
-        <v>2945</v>
       </c>
       <c r="D1440" t="s">
         <v>131</v>
@@ -42631,16 +42697,19 @@
       <c r="F1440" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1441" s="1">
         <v>46049</v>
       </c>
       <c r="B1441" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C1441" t="s">
         <v>2946</v>
-      </c>
-      <c r="C1441" t="s">
-        <v>2947</v>
       </c>
       <c r="D1441" t="s">
         <v>134</v>
@@ -42651,16 +42720,19 @@
       <c r="F1441" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1442" s="1">
         <v>46049</v>
       </c>
       <c r="B1442" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C1442" t="s">
         <v>2948</v>
-      </c>
-      <c r="C1442" t="s">
-        <v>2949</v>
       </c>
       <c r="D1442" t="s">
         <v>116</v>
@@ -42669,18 +42741,21 @@
         <v>8</v>
       </c>
       <c r="F1442" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G1442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1443" s="1">
         <v>46049</v>
       </c>
       <c r="B1443" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C1443" t="s">
         <v>2950</v>
-      </c>
-      <c r="C1443" t="s">
-        <v>2951</v>
       </c>
       <c r="D1443" t="s">
         <v>2198</v>
@@ -42689,18 +42764,21 @@
         <v>12</v>
       </c>
       <c r="F1443" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:6" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="G1443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1444" s="1">
         <v>46049</v>
       </c>
       <c r="B1444" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C1444" t="s">
         <v>2952</v>
-      </c>
-      <c r="C1444" t="s">
-        <v>2953</v>
       </c>
       <c r="D1444" t="s">
         <v>134</v>
@@ -42711,8 +42789,11 @@
       <c r="F1444" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="1445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1445" s="1">
         <v>46049</v>
       </c>
@@ -42731,8 +42812,11 @@
       <c r="F1445" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1446" s="1">
         <v>46049</v>
       </c>
@@ -42751,16 +42835,19 @@
       <c r="F1446" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1447" s="1">
         <v>46049</v>
       </c>
       <c r="B1447" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C1447" t="s">
         <v>2954</v>
-      </c>
-      <c r="C1447" t="s">
-        <v>2955</v>
       </c>
       <c r="D1447" t="s">
         <v>1820</v>
@@ -42771,16 +42858,19 @@
       <c r="F1447" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1448" s="1">
         <v>46049</v>
       </c>
       <c r="B1448" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C1448" t="s">
         <v>2956</v>
-      </c>
-      <c r="C1448" t="s">
-        <v>2957</v>
       </c>
       <c r="D1448" t="s">
         <v>14</v>
@@ -42791,16 +42881,19 @@
       <c r="F1448" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1449" s="1">
         <v>46049</v>
       </c>
       <c r="B1449" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C1449" t="s">
         <v>2958</v>
-      </c>
-      <c r="C1449" t="s">
-        <v>2959</v>
       </c>
       <c r="D1449" t="s">
         <v>13</v>
@@ -42811,16 +42904,19 @@
       <c r="F1449" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1450" s="1">
         <v>46049</v>
       </c>
       <c r="B1450" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C1450" t="s">
         <v>2960</v>
-      </c>
-      <c r="C1450" t="s">
-        <v>2961</v>
       </c>
       <c r="D1450" t="s">
         <v>116</v>
@@ -42831,16 +42927,19 @@
       <c r="F1450" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1451" s="1">
         <v>46049</v>
       </c>
       <c r="B1451" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C1451" t="s">
         <v>2962</v>
-      </c>
-      <c r="C1451" t="s">
-        <v>2963</v>
       </c>
       <c r="D1451" t="s">
         <v>6</v>
@@ -42851,16 +42950,19 @@
       <c r="F1451" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1452" s="1">
         <v>46049</v>
       </c>
       <c r="B1452" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C1452" t="s">
         <v>2964</v>
-      </c>
-      <c r="C1452" t="s">
-        <v>2965</v>
       </c>
       <c r="D1452" t="s">
         <v>15</v>
@@ -42871,16 +42973,19 @@
       <c r="F1452" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1453" s="1">
         <v>46049</v>
       </c>
       <c r="B1453" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C1453" t="s">
         <v>2966</v>
-      </c>
-      <c r="C1453" t="s">
-        <v>2967</v>
       </c>
       <c r="D1453" t="s">
         <v>2497</v>
@@ -42891,16 +42996,19 @@
       <c r="F1453" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1454" s="1">
         <v>46049</v>
       </c>
       <c r="B1454" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C1454" t="s">
         <v>2968</v>
-      </c>
-      <c r="C1454" t="s">
-        <v>2969</v>
       </c>
       <c r="D1454" t="s">
         <v>10</v>
@@ -42911,16 +43019,19 @@
       <c r="F1454" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1455" s="1">
         <v>46049</v>
       </c>
       <c r="B1455" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C1455" t="s">
         <v>2970</v>
-      </c>
-      <c r="C1455" t="s">
-        <v>2971</v>
       </c>
       <c r="D1455" t="s">
         <v>6</v>
@@ -42931,16 +43042,19 @@
       <c r="F1455" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="1456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1456" s="1">
         <v>46049</v>
       </c>
       <c r="B1456" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C1456" t="s">
         <v>2972</v>
-      </c>
-      <c r="C1456" t="s">
-        <v>2973</v>
       </c>
       <c r="D1456" t="s">
         <v>9</v>
@@ -42951,16 +43065,19 @@
       <c r="F1456" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1457" s="1">
         <v>46049</v>
       </c>
       <c r="B1457" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C1457" t="s">
         <v>2974</v>
-      </c>
-      <c r="C1457" t="s">
-        <v>2975</v>
       </c>
       <c r="D1457" t="s">
         <v>209</v>
@@ -42971,16 +43088,19 @@
       <c r="F1457" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1458" s="1">
         <v>46049</v>
       </c>
       <c r="B1458" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C1458" t="s">
         <v>2976</v>
-      </c>
-      <c r="C1458" t="s">
-        <v>2977</v>
       </c>
       <c r="D1458" t="s">
         <v>116</v>
@@ -42991,16 +43111,19 @@
       <c r="F1458" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="1459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1459" s="1">
         <v>46049</v>
       </c>
       <c r="B1459" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C1459" t="s">
         <v>2978</v>
-      </c>
-      <c r="C1459" t="s">
-        <v>2979</v>
       </c>
       <c r="D1459" t="s">
         <v>116</v>
@@ -43009,18 +43132,21 @@
         <v>8</v>
       </c>
       <c r="F1459" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G1459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1460" s="1">
         <v>46049</v>
       </c>
       <c r="B1460" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1460" t="s">
         <v>2980</v>
-      </c>
-      <c r="C1460" t="s">
-        <v>2981</v>
       </c>
       <c r="D1460" t="s">
         <v>16</v>
@@ -43031,16 +43157,19 @@
       <c r="F1460" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1461" s="1">
         <v>46049</v>
       </c>
       <c r="B1461" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C1461" t="s">
         <v>2982</v>
-      </c>
-      <c r="C1461" t="s">
-        <v>2983</v>
       </c>
       <c r="D1461" t="s">
         <v>134</v>
@@ -43051,16 +43180,19 @@
       <c r="F1461" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1462" s="1">
         <v>46049</v>
       </c>
       <c r="B1462" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C1462" t="s">
         <v>2984</v>
-      </c>
-      <c r="C1462" t="s">
-        <v>2985</v>
       </c>
       <c r="D1462" t="s">
         <v>6</v>
@@ -43071,16 +43203,19 @@
       <c r="F1462" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1463" s="1">
         <v>46049</v>
       </c>
       <c r="B1463" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C1463" t="s">
         <v>2986</v>
-      </c>
-      <c r="C1463" t="s">
-        <v>2987</v>
       </c>
       <c r="D1463" t="s">
         <v>134</v>
@@ -43091,16 +43226,19 @@
       <c r="F1463" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1464" s="1">
         <v>46049</v>
       </c>
       <c r="B1464" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C1464" t="s">
         <v>2988</v>
-      </c>
-      <c r="C1464" t="s">
-        <v>2989</v>
       </c>
       <c r="D1464" t="s">
         <v>17</v>
@@ -43109,18 +43247,21 @@
         <v>8</v>
       </c>
       <c r="F1464" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="G1464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1465" s="1">
         <v>46049</v>
       </c>
       <c r="B1465" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C1465" t="s">
         <v>2990</v>
-      </c>
-      <c r="C1465" t="s">
-        <v>2991</v>
       </c>
       <c r="D1465" t="s">
         <v>1244</v>
@@ -43129,18 +43270,21 @@
         <v>20</v>
       </c>
       <c r="F1465" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G1465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1466" s="1">
         <v>46049</v>
       </c>
       <c r="B1466" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C1466" t="s">
         <v>2992</v>
-      </c>
-      <c r="C1466" t="s">
-        <v>2993</v>
       </c>
       <c r="D1466" t="s">
         <v>11</v>
@@ -43151,16 +43295,19 @@
       <c r="F1466" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1467" s="1">
         <v>46049</v>
       </c>
       <c r="B1467" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C1467" t="s">
         <v>2994</v>
-      </c>
-      <c r="C1467" t="s">
-        <v>2995</v>
       </c>
       <c r="D1467" t="s">
         <v>9</v>
@@ -43171,16 +43318,19 @@
       <c r="F1467" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1468" s="1">
         <v>46049</v>
       </c>
       <c r="B1468" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C1468" t="s">
         <v>2996</v>
-      </c>
-      <c r="C1468" t="s">
-        <v>2997</v>
       </c>
       <c r="D1468" t="s">
         <v>13</v>
@@ -43189,10 +43339,13 @@
         <v>8</v>
       </c>
       <c r="F1468" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="G1468" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1469" s="1">
         <v>46049</v>
       </c>
@@ -43211,16 +43364,19 @@
       <c r="F1469" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1470" s="1">
         <v>46049</v>
       </c>
       <c r="B1470" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C1470" t="s">
         <v>2998</v>
-      </c>
-      <c r="C1470" t="s">
-        <v>2999</v>
       </c>
       <c r="D1470" t="s">
         <v>6</v>
@@ -43231,16 +43387,19 @@
       <c r="F1470" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1471" s="1">
         <v>46049</v>
       </c>
       <c r="B1471" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C1471" t="s">
         <v>3000</v>
-      </c>
-      <c r="C1471" t="s">
-        <v>3001</v>
       </c>
       <c r="D1471" t="s">
         <v>131</v>
@@ -43251,16 +43410,19 @@
       <c r="F1471" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1472" s="1">
         <v>46049</v>
       </c>
       <c r="B1472" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C1472" t="s">
         <v>3002</v>
-      </c>
-      <c r="C1472" t="s">
-        <v>3003</v>
       </c>
       <c r="D1472" t="s">
         <v>1007</v>
@@ -43271,16 +43433,19 @@
       <c r="F1472" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1473" s="1">
         <v>46049</v>
       </c>
       <c r="B1473" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C1473" t="s">
         <v>3004</v>
-      </c>
-      <c r="C1473" t="s">
-        <v>3005</v>
       </c>
       <c r="D1473" t="s">
         <v>14</v>
@@ -43291,16 +43456,19 @@
       <c r="F1473" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1474" s="1">
         <v>46049</v>
       </c>
       <c r="B1474" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C1474" t="s">
         <v>3006</v>
-      </c>
-      <c r="C1474" t="s">
-        <v>3007</v>
       </c>
       <c r="D1474" t="s">
         <v>17</v>
@@ -43311,16 +43479,19 @@
       <c r="F1474" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1475" s="1">
         <v>46049</v>
       </c>
       <c r="B1475" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C1475" t="s">
         <v>3008</v>
-      </c>
-      <c r="C1475" t="s">
-        <v>3009</v>
       </c>
       <c r="D1475" t="s">
         <v>10</v>
@@ -43331,16 +43502,19 @@
       <c r="F1475" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1476" s="1">
         <v>46049</v>
       </c>
       <c r="B1476" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C1476" t="s">
         <v>3010</v>
-      </c>
-      <c r="C1476" t="s">
-        <v>3011</v>
       </c>
       <c r="D1476" t="s">
         <v>22</v>
@@ -43351,16 +43525,19 @@
       <c r="F1476" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1477" s="1">
         <v>46049</v>
       </c>
       <c r="B1477" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C1477" t="s">
         <v>3012</v>
-      </c>
-      <c r="C1477" t="s">
-        <v>3013</v>
       </c>
       <c r="D1477" t="s">
         <v>116</v>
@@ -43371,16 +43548,19 @@
       <c r="F1477" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1478" s="1">
         <v>46049</v>
       </c>
       <c r="B1478" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C1478" t="s">
         <v>3014</v>
-      </c>
-      <c r="C1478" t="s">
-        <v>3015</v>
       </c>
       <c r="D1478" t="s">
         <v>13</v>
@@ -43391,16 +43571,19 @@
       <c r="F1478" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1479" s="1">
         <v>46049</v>
       </c>
       <c r="B1479" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C1479" t="s">
         <v>3016</v>
-      </c>
-      <c r="C1479" t="s">
-        <v>3017</v>
       </c>
       <c r="D1479" t="s">
         <v>10</v>
@@ -43411,16 +43594,19 @@
       <c r="F1479" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1480" s="1">
         <v>46049</v>
       </c>
       <c r="B1480" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C1480" t="s">
         <v>3018</v>
-      </c>
-      <c r="C1480" t="s">
-        <v>3019</v>
       </c>
       <c r="D1480" t="s">
         <v>13</v>
@@ -43431,16 +43617,19 @@
       <c r="F1480" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1481" s="1">
         <v>46049</v>
       </c>
       <c r="B1481" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C1481" t="s">
         <v>3020</v>
-      </c>
-      <c r="C1481" t="s">
-        <v>3021</v>
       </c>
       <c r="D1481" t="s">
         <v>10</v>
@@ -43451,16 +43640,19 @@
       <c r="F1481" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1482" s="1">
         <v>46049</v>
       </c>
       <c r="B1482" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C1482" t="s">
         <v>3022</v>
-      </c>
-      <c r="C1482" t="s">
-        <v>3023</v>
       </c>
       <c r="D1482" t="s">
         <v>2568</v>
@@ -43471,16 +43663,19 @@
       <c r="F1482" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1483" s="1">
         <v>46049</v>
       </c>
       <c r="B1483" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C1483" t="s">
         <v>3024</v>
-      </c>
-      <c r="C1483" t="s">
-        <v>3025</v>
       </c>
       <c r="D1483" t="s">
         <v>131</v>
@@ -43491,16 +43686,19 @@
       <c r="F1483" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1484" s="1">
         <v>46049</v>
       </c>
       <c r="B1484" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C1484" t="s">
         <v>3026</v>
-      </c>
-      <c r="C1484" t="s">
-        <v>3027</v>
       </c>
       <c r="D1484" t="s">
         <v>14</v>
@@ -43511,8 +43709,11 @@
       <c r="F1484" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1485" s="1">
         <v>46049</v>
       </c>
@@ -43531,16 +43732,19 @@
       <c r="F1485" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1486" s="1">
         <v>46049</v>
       </c>
       <c r="B1486" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C1486" t="s">
         <v>3028</v>
-      </c>
-      <c r="C1486" t="s">
-        <v>3029</v>
       </c>
       <c r="D1486" t="s">
         <v>237</v>
@@ -43551,16 +43755,19 @@
       <c r="F1486" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1487" s="1">
         <v>46049</v>
       </c>
       <c r="B1487" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C1487" t="s">
         <v>3030</v>
-      </c>
-      <c r="C1487" t="s">
-        <v>3031</v>
       </c>
       <c r="D1487" t="s">
         <v>134</v>
@@ -43569,18 +43776,21 @@
         <v>8</v>
       </c>
       <c r="F1487" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G1487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1488" s="1">
         <v>46049</v>
       </c>
       <c r="B1488" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C1488" t="s">
         <v>3032</v>
-      </c>
-      <c r="C1488" t="s">
-        <v>3033</v>
       </c>
       <c r="D1488" t="s">
         <v>6</v>
@@ -43591,16 +43801,19 @@
       <c r="F1488" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1489" s="1">
         <v>46049</v>
       </c>
       <c r="B1489" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C1489" t="s">
         <v>3034</v>
-      </c>
-      <c r="C1489" t="s">
-        <v>3035</v>
       </c>
       <c r="D1489" t="s">
         <v>1007</v>
@@ -43611,16 +43824,19 @@
       <c r="F1489" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1490" s="1">
         <v>46049</v>
       </c>
       <c r="B1490" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C1490" t="s">
         <v>3036</v>
-      </c>
-      <c r="C1490" t="s">
-        <v>3037</v>
       </c>
       <c r="D1490" t="s">
         <v>134</v>
@@ -43631,16 +43847,19 @@
       <c r="F1490" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1491" s="1">
         <v>46049</v>
       </c>
       <c r="B1491" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C1491" t="s">
         <v>3038</v>
-      </c>
-      <c r="C1491" t="s">
-        <v>3039</v>
       </c>
       <c r="D1491" t="s">
         <v>116</v>
@@ -43651,16 +43870,19 @@
       <c r="F1491" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1492" s="1">
         <v>46049</v>
       </c>
       <c r="B1492" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C1492" t="s">
         <v>3040</v>
-      </c>
-      <c r="C1492" t="s">
-        <v>3041</v>
       </c>
       <c r="D1492" t="s">
         <v>16</v>
@@ -43671,16 +43893,19 @@
       <c r="F1492" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1493" s="1">
         <v>46049</v>
       </c>
       <c r="B1493" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C1493" t="s">
         <v>3042</v>
-      </c>
-      <c r="C1493" t="s">
-        <v>3043</v>
       </c>
       <c r="D1493" t="s">
         <v>22</v>
@@ -43691,16 +43916,19 @@
       <c r="F1493" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1494" s="1">
         <v>46049</v>
       </c>
       <c r="B1494" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C1494" t="s">
         <v>3044</v>
-      </c>
-      <c r="C1494" t="s">
-        <v>3045</v>
       </c>
       <c r="D1494" t="s">
         <v>134</v>
@@ -43711,16 +43939,19 @@
       <c r="F1494" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1495" s="1">
         <v>46049</v>
       </c>
       <c r="B1495" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C1495" t="s">
         <v>3046</v>
-      </c>
-      <c r="C1495" t="s">
-        <v>3047</v>
       </c>
       <c r="D1495" t="s">
         <v>13</v>
@@ -43729,18 +43960,21 @@
         <v>8</v>
       </c>
       <c r="F1495" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G1495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1496" s="1">
         <v>46049</v>
       </c>
       <c r="B1496" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C1496" t="s">
         <v>3048</v>
-      </c>
-      <c r="C1496" t="s">
-        <v>3049</v>
       </c>
       <c r="D1496" t="s">
         <v>17</v>
@@ -43751,16 +43985,19 @@
       <c r="F1496" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1497" s="1">
         <v>46049</v>
       </c>
       <c r="B1497" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C1497" t="s">
         <v>3050</v>
-      </c>
-      <c r="C1497" t="s">
-        <v>3051</v>
       </c>
       <c r="D1497" t="s">
         <v>9</v>
@@ -43769,18 +44006,21 @@
         <v>8</v>
       </c>
       <c r="F1497" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="G1497" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1498" s="1">
         <v>46049</v>
       </c>
       <c r="B1498" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C1498" t="s">
         <v>3052</v>
-      </c>
-      <c r="C1498" t="s">
-        <v>3053</v>
       </c>
       <c r="D1498" t="s">
         <v>13</v>
@@ -43791,16 +44031,19 @@
       <c r="F1498" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1499" s="1">
         <v>46049</v>
       </c>
       <c r="B1499" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C1499" t="s">
         <v>3054</v>
-      </c>
-      <c r="C1499" t="s">
-        <v>3055</v>
       </c>
       <c r="D1499" t="s">
         <v>13</v>
@@ -43811,16 +44054,19 @@
       <c r="F1499" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1500" s="1">
         <v>46049</v>
       </c>
       <c r="B1500" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C1500" t="s">
         <v>3056</v>
-      </c>
-      <c r="C1500" t="s">
-        <v>3057</v>
       </c>
       <c r="D1500" t="s">
         <v>16</v>
@@ -43829,18 +44075,21 @@
         <v>8</v>
       </c>
       <c r="F1500" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1501" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="G1500" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1501" s="1">
         <v>46049</v>
       </c>
       <c r="B1501" t="s">
+        <v>3057</v>
+      </c>
+      <c r="C1501" t="s">
         <v>3058</v>
-      </c>
-      <c r="C1501" t="s">
-        <v>3059</v>
       </c>
       <c r="D1501" t="s">
         <v>11</v>
@@ -43849,18 +44098,21 @@
         <v>8</v>
       </c>
       <c r="F1501" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1502" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G1501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1502" s="1">
         <v>46049</v>
       </c>
       <c r="B1502" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C1502" t="s">
         <v>3060</v>
-      </c>
-      <c r="C1502" t="s">
-        <v>3061</v>
       </c>
       <c r="D1502" t="s">
         <v>14</v>
@@ -43869,10 +44121,13 @@
         <v>8</v>
       </c>
       <c r="F1502" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1503" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G1502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1503" s="1">
         <v>46049</v>
       </c>
@@ -43891,16 +44146,19 @@
       <c r="F1503" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1504" s="1">
         <v>46049</v>
       </c>
       <c r="B1504" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C1504" t="s">
         <v>3062</v>
-      </c>
-      <c r="C1504" t="s">
-        <v>3063</v>
       </c>
       <c r="D1504" t="s">
         <v>13</v>
@@ -43909,18 +44167,21 @@
         <v>8</v>
       </c>
       <c r="F1504" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G1504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1505" s="1">
         <v>46049</v>
       </c>
       <c r="B1505" t="s">
+        <v>3063</v>
+      </c>
+      <c r="C1505" t="s">
         <v>3064</v>
-      </c>
-      <c r="C1505" t="s">
-        <v>3065</v>
       </c>
       <c r="D1505" t="s">
         <v>22</v>
@@ -43929,18 +44190,21 @@
         <v>21</v>
       </c>
       <c r="F1505" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1506" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G1505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1506" s="1">
         <v>46049</v>
       </c>
       <c r="B1506" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C1506" t="s">
         <v>3066</v>
-      </c>
-      <c r="C1506" t="s">
-        <v>3067</v>
       </c>
       <c r="D1506" t="s">
         <v>17</v>
@@ -43949,7 +44213,79 @@
         <v>8</v>
       </c>
       <c r="F1506" t="s">
-        <v>573</v>
+        <v>569</v>
+      </c>
+      <c r="G1506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1507" s="1">
+        <v>46050</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1508" s="1">
+        <v>46050</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1508" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1509" s="1">
+        <v>46050</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1509" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1509">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/first-atlas/producao_2026-01.xlsx
+++ b/first-atlas/producao_2026-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\augustoalmeida\Augusto\bots_comissionamento\bot_atlas\first-atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FBA018-7672-46A3-B82E-BCA83DCF8D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCABF9A-7F55-4141-B74E-F32B57E8F313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F5572131-3C84-4D9C-B555-72DCC3B1940B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7938" uniqueCount="3221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7975" uniqueCount="3235">
   <si>
     <t>DATA_BASE</t>
   </si>
@@ -9702,6 +9702,48 @@
   </si>
   <si>
     <t>GELOREN VEICULOS INOVA SIMPLES (I.S.)</t>
+  </si>
+  <si>
+    <t>22950774000116</t>
+  </si>
+  <si>
+    <t>AIDA MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>13870976000167</t>
+  </si>
+  <si>
+    <t>FABIO CRISTO DA SILVA FABIO CRISTO DA SILVA</t>
+  </si>
+  <si>
+    <t>27894129000147</t>
+  </si>
+  <si>
+    <t>LUCIANO LEMOS DUARTE</t>
+  </si>
+  <si>
+    <t>33973795000173</t>
+  </si>
+  <si>
+    <t>GABRIEL PASSOS MELO</t>
+  </si>
+  <si>
+    <t>53970979000197</t>
+  </si>
+  <si>
+    <t>ADRIANO DA ROSA LANGNER</t>
+  </si>
+  <si>
+    <t>10308433000162</t>
+  </si>
+  <si>
+    <t>ALBERTO CARLOS NEVES CONCEICAO</t>
+  </si>
+  <si>
+    <t>61240130000196</t>
+  </si>
+  <si>
+    <t>DALVA VIEIRA</t>
   </si>
 </sst>
 </file>
@@ -10074,10 +10116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A45A88-3D17-4433-986A-11075963C36F}">
-  <dimension ref="A1:G1580"/>
+  <dimension ref="A1:G1587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36923,7 +36965,7 @@
         <v>8</v>
       </c>
       <c r="F1170" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G1170">
         <v>0</v>
@@ -38323,7 +38365,7 @@
         <v>8</v>
       </c>
       <c r="F1231" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G1231">
         <v>0</v>
@@ -38530,7 +38572,7 @@
         <v>8</v>
       </c>
       <c r="F1240" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G1240" t="s">
         <v>3067</v>
@@ -38852,7 +38894,7 @@
         <v>7</v>
       </c>
       <c r="F1254" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G1254">
         <v>0</v>
@@ -39723,7 +39765,7 @@
         <v>7</v>
       </c>
       <c r="F1292" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1292">
         <v>0</v>
@@ -40137,7 +40179,7 @@
         <v>12</v>
       </c>
       <c r="F1310" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G1310">
         <v>0</v>
@@ -41563,7 +41605,7 @@
         <v>7</v>
       </c>
       <c r="F1372" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G1372">
         <v>0</v>
@@ -42483,7 +42525,7 @@
         <v>7</v>
       </c>
       <c r="F1412" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G1412">
         <v>0</v>
@@ -42575,7 +42617,7 @@
         <v>8</v>
       </c>
       <c r="F1416" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G1416" t="s">
         <v>1721</v>
@@ -42874,7 +42916,7 @@
         <v>8</v>
       </c>
       <c r="F1429" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1429">
         <v>0</v>
@@ -42920,7 +42962,7 @@
         <v>8</v>
       </c>
       <c r="F1431" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1431">
         <v>0</v>
@@ -43035,7 +43077,7 @@
         <v>8</v>
       </c>
       <c r="F1436" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1436">
         <v>0</v>
@@ -43242,7 +43284,7 @@
         <v>7</v>
       </c>
       <c r="F1445" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1445">
         <v>0</v>
@@ -43265,7 +43307,7 @@
         <v>12</v>
       </c>
       <c r="F1446" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1446">
         <v>0</v>
@@ -43748,7 +43790,7 @@
         <v>8</v>
       </c>
       <c r="F1467" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G1467" t="s">
         <v>3076</v>
@@ -43863,7 +43905,7 @@
         <v>8</v>
       </c>
       <c r="F1472" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1472">
         <v>0</v>
@@ -44231,7 +44273,7 @@
         <v>7</v>
       </c>
       <c r="F1488" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G1488">
         <v>0</v>
@@ -44553,7 +44595,7 @@
         <v>8</v>
       </c>
       <c r="F1502" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G1502">
         <v>0</v>
@@ -44716,6 +44758,9 @@
       <c r="F1509" t="s">
         <v>569</v>
       </c>
+      <c r="G1509">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1510" s="1">
@@ -44736,6 +44781,9 @@
       <c r="F1510" t="s">
         <v>569</v>
       </c>
+      <c r="G1510">
+        <v>0</v>
+      </c>
     </row>
     <row r="1511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1511" s="1">
@@ -44756,6 +44804,9 @@
       <c r="F1511" t="s">
         <v>569</v>
       </c>
+      <c r="G1511">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1512" s="1">
@@ -44776,6 +44827,9 @@
       <c r="F1512" t="s">
         <v>569</v>
       </c>
+      <c r="G1512">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1513" s="1">
@@ -44796,6 +44850,9 @@
       <c r="F1513" t="s">
         <v>569</v>
       </c>
+      <c r="G1513">
+        <v>0</v>
+      </c>
     </row>
     <row r="1514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1514" s="1">
@@ -44814,7 +44871,10 @@
         <v>8</v>
       </c>
       <c r="F1514" t="s">
-        <v>573</v>
+        <v>568</v>
+      </c>
+      <c r="G1514">
+        <v>0</v>
       </c>
     </row>
     <row r="1515" spans="1:7" x14ac:dyDescent="0.25">
@@ -44836,6 +44896,9 @@
       <c r="F1515" t="s">
         <v>569</v>
       </c>
+      <c r="G1515">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1516" s="1">
@@ -44856,6 +44919,9 @@
       <c r="F1516" t="s">
         <v>569</v>
       </c>
+      <c r="G1516">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1517" s="1">
@@ -44876,6 +44942,9 @@
       <c r="F1517" t="s">
         <v>569</v>
       </c>
+      <c r="G1517">
+        <v>0</v>
+      </c>
     </row>
     <row r="1518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1518" s="1">
@@ -44896,6 +44965,9 @@
       <c r="F1518" t="s">
         <v>569</v>
       </c>
+      <c r="G1518">
+        <v>0</v>
+      </c>
     </row>
     <row r="1519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1519" s="1">
@@ -44916,6 +44988,9 @@
       <c r="F1519" t="s">
         <v>569</v>
       </c>
+      <c r="G1519">
+        <v>0</v>
+      </c>
     </row>
     <row r="1520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1520" s="1">
@@ -44936,8 +45011,11 @@
       <c r="F1520" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1521" s="1">
         <v>46050</v>
       </c>
@@ -44956,8 +45034,11 @@
       <c r="F1521" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1522" s="1">
         <v>46050</v>
       </c>
@@ -44976,8 +45057,11 @@
       <c r="F1522" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1523" s="1">
         <v>46050</v>
       </c>
@@ -44996,8 +45080,11 @@
       <c r="F1523" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1524" s="1">
         <v>46050</v>
       </c>
@@ -45016,8 +45103,11 @@
       <c r="F1524" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1525" s="1">
         <v>46050</v>
       </c>
@@ -45036,8 +45126,11 @@
       <c r="F1525" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1526" s="1">
         <v>46050</v>
       </c>
@@ -45056,8 +45149,11 @@
       <c r="F1526" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1527" s="1">
         <v>46050</v>
       </c>
@@ -45077,7 +45173,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="1528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1528" s="1">
         <v>46050</v>
       </c>
@@ -45096,8 +45192,11 @@
       <c r="F1528" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1529" s="1">
         <v>46050</v>
       </c>
@@ -45116,8 +45215,11 @@
       <c r="F1529" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1530" s="1">
         <v>46050</v>
       </c>
@@ -45136,8 +45238,11 @@
       <c r="F1530" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1531" s="1">
         <v>46050</v>
       </c>
@@ -45154,10 +45259,13 @@
         <v>12</v>
       </c>
       <c r="F1531" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G1531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1532" s="1">
         <v>46050</v>
       </c>
@@ -45176,8 +45284,11 @@
       <c r="F1532" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1533" s="1">
         <v>46050</v>
       </c>
@@ -45196,8 +45307,11 @@
       <c r="F1533" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1534" s="1">
         <v>46050</v>
       </c>
@@ -45216,8 +45330,11 @@
       <c r="F1534" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1535" s="1">
         <v>46050</v>
       </c>
@@ -45236,8 +45353,11 @@
       <c r="F1535" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1536" s="1">
         <v>46050</v>
       </c>
@@ -45256,8 +45376,11 @@
       <c r="F1536" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1537" s="1">
         <v>46050</v>
       </c>
@@ -45276,8 +45399,11 @@
       <c r="F1537" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1537" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1538" s="1">
         <v>46050</v>
       </c>
@@ -45296,8 +45422,11 @@
       <c r="F1538" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="1539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1539" s="1">
         <v>46050</v>
       </c>
@@ -45316,8 +45445,11 @@
       <c r="F1539" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1540" s="1">
         <v>46050</v>
       </c>
@@ -45336,8 +45468,11 @@
       <c r="F1540" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1541" s="1">
         <v>46050</v>
       </c>
@@ -45356,8 +45491,11 @@
       <c r="F1541" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1542" s="1">
         <v>46050</v>
       </c>
@@ -45376,8 +45514,11 @@
       <c r="F1542" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1543" s="1">
         <v>46050</v>
       </c>
@@ -45396,8 +45537,11 @@
       <c r="F1543" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1544" s="1">
         <v>46050</v>
       </c>
@@ -45416,8 +45560,11 @@
       <c r="F1544" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1545" s="1">
         <v>46050</v>
       </c>
@@ -45436,8 +45583,11 @@
       <c r="F1545" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1546" s="1">
         <v>46050</v>
       </c>
@@ -45456,8 +45606,11 @@
       <c r="F1546" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1547" s="1">
         <v>46050</v>
       </c>
@@ -45476,8 +45629,11 @@
       <c r="F1547" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1548" s="1">
         <v>46050</v>
       </c>
@@ -45496,8 +45652,11 @@
       <c r="F1548" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1549" s="1">
         <v>46050</v>
       </c>
@@ -45516,8 +45675,11 @@
       <c r="F1549" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1550" s="1">
         <v>46050</v>
       </c>
@@ -45536,8 +45698,11 @@
       <c r="F1550" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1551" s="1">
         <v>46050</v>
       </c>
@@ -45556,8 +45721,11 @@
       <c r="F1551" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1552" s="1">
         <v>46050</v>
       </c>
@@ -45576,8 +45744,11 @@
       <c r="F1552" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1553" s="1">
         <v>46050</v>
       </c>
@@ -45596,8 +45767,11 @@
       <c r="F1553" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1554" s="1">
         <v>46050</v>
       </c>
@@ -45616,8 +45790,11 @@
       <c r="F1554" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1555" s="1">
         <v>46050</v>
       </c>
@@ -45636,8 +45813,11 @@
       <c r="F1555" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1556" s="1">
         <v>46050</v>
       </c>
@@ -45656,8 +45836,11 @@
       <c r="F1556" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1557" s="1">
         <v>46050</v>
       </c>
@@ -45676,8 +45859,11 @@
       <c r="F1557" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1558" s="1">
         <v>46050</v>
       </c>
@@ -45696,8 +45882,11 @@
       <c r="F1558" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1559" s="1">
         <v>46050</v>
       </c>
@@ -45716,8 +45905,11 @@
       <c r="F1559" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1560" s="1">
         <v>46050</v>
       </c>
@@ -45736,8 +45928,11 @@
       <c r="F1560" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1561" s="1">
         <v>46050</v>
       </c>
@@ -45754,10 +45949,13 @@
         <v>7</v>
       </c>
       <c r="F1561" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1562" spans="1:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="G1561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1562" s="1">
         <v>46050</v>
       </c>
@@ -45776,8 +45974,11 @@
       <c r="F1562" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1563" s="1">
         <v>46050</v>
       </c>
@@ -45796,8 +45997,11 @@
       <c r="F1563" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1564" s="1">
         <v>46050</v>
       </c>
@@ -45816,8 +46020,11 @@
       <c r="F1564" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1565" s="1">
         <v>46050</v>
       </c>
@@ -45836,8 +46043,11 @@
       <c r="F1565" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1566" s="1">
         <v>46050</v>
       </c>
@@ -45856,8 +46066,11 @@
       <c r="F1566" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1567" s="1">
         <v>46050</v>
       </c>
@@ -45876,8 +46089,11 @@
       <c r="F1567" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1568" s="1">
         <v>46050</v>
       </c>
@@ -45896,8 +46112,11 @@
       <c r="F1568" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1569" s="1">
         <v>46050</v>
       </c>
@@ -45916,8 +46135,11 @@
       <c r="F1569" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1569" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1570" s="1">
         <v>46050</v>
       </c>
@@ -45936,8 +46158,11 @@
       <c r="F1570" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1571" s="1">
         <v>46050</v>
       </c>
@@ -45956,8 +46181,11 @@
       <c r="F1571" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1572" s="1">
         <v>46050</v>
       </c>
@@ -45976,8 +46204,11 @@
       <c r="F1572" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1573" s="1">
         <v>46050</v>
       </c>
@@ -45996,8 +46227,11 @@
       <c r="F1573" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1574" s="1">
         <v>46050</v>
       </c>
@@ -46016,8 +46250,11 @@
       <c r="F1574" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="1575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1575" s="1">
         <v>46050</v>
       </c>
@@ -46036,8 +46273,11 @@
       <c r="F1575" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="1576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1576" s="1">
         <v>46050</v>
       </c>
@@ -46054,10 +46294,13 @@
         <v>8</v>
       </c>
       <c r="F1576" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G1576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1577" s="1">
         <v>46050</v>
       </c>
@@ -46074,10 +46317,13 @@
         <v>8</v>
       </c>
       <c r="F1577" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G1577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1578" s="1">
         <v>46050</v>
       </c>
@@ -46094,10 +46340,13 @@
         <v>8</v>
       </c>
       <c r="F1578" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G1578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1579" s="1">
         <v>46050</v>
       </c>
@@ -46114,10 +46363,13 @@
         <v>8</v>
       </c>
       <c r="F1579" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:6" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="G1579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1580" s="1">
         <v>46050</v>
       </c>
@@ -46134,7 +46386,168 @@
         <v>12</v>
       </c>
       <c r="F1580" t="s">
-        <v>573</v>
+        <v>569</v>
+      </c>
+      <c r="G1580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1581" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1581" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1582" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1582" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1583" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1583" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1584" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1584" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1585" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1585" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1586" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1586" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1587" s="1">
+        <v>46051</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1587" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
